--- a/Consumer/Louis Vuitton Moet Hennessy.xlsx
+++ b/Consumer/Louis Vuitton Moet Hennessy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49477357-6138-D54F-B9F7-21F68AFF6868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F817425C-1067-4B4C-AF21-B4566F47B588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30980" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="159">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -315,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>LVMH</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -855,7 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -889,22 +923,6 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -976,6 +994,12 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -994,12 +1018,27 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2238,6 +2277,423 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=ae96u2&amp;q=XPAR%3aMC&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>ae96u2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>855.2</v>
+    <v>535</v>
+    <v>1.0044999999999999</v>
+    <v>-15.5</v>
+    <v>-1.8352E-2</v>
+    <v>EUR</v>
+    <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
+    <v>173492</v>
+    <v>Euronext Paris</v>
+    <v>XPAR</v>
+    <v>XPAR</v>
+    <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
+    <v>842.8</v>
+    <v>Textiles &amp; Apparel</v>
+    <v>Stock</v>
+    <v>45022.666666666664</v>
+    <v>0</v>
+    <v>826.7</v>
+    <v>424030100000</v>
+    <v>LVMH Moet Hennessy Louis Vuitton SE</v>
+    <v>LVMH Moet Hennessy Louis Vuitton SE</v>
+    <v>841.6</v>
+    <v>30.109100000000002</v>
+    <v>844.6</v>
+    <v>829.1</v>
+    <v>502048400</v>
+    <v>MC</v>
+    <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
+    <v>369459</v>
+    <v>340870</v>
+    <v>1971</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="42">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+    </spb>
+    <spb s="4">
+      <v>Delayed 15 minutes</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>GMT</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$€-x-euro2] * #,##0.00_);_([$€-x-euro2] * (#,##0.00);_([$€-x-euro2] * "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$€-x-euro2] * #,##0_);_([$€-x-euro2] * (#,##0);_([$€-x-euro2] * "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2538,10 +2994,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z84" sqref="Z84"/>
+      <selection pane="bottomRight" activeCell="Z98" sqref="Z98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2556,8 +3012,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2001</v>
@@ -2816,22 +3272,22 @@
       <c r="AB3" s="15">
         <v>110600000000</v>
       </c>
-      <c r="AC3" s="56" t="s">
+      <c r="AC3" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="AD3" s="57" t="s">
+      <c r="AE3" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="AE3" s="57" t="s">
+      <c r="AF3" s="47" t="s">
         <v>111</v>
-      </c>
-      <c r="AF3" s="57" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="18">
@@ -2938,19 +3394,19 @@
         <f t="shared" ref="AB4" si="2">(AB3/AA3)-1</f>
         <v>4.933586337760909E-2</v>
       </c>
-      <c r="AC4" s="58">
+      <c r="AC4" s="48">
         <f>(W4+V4+U4)/3</f>
         <v>0.16774310808440043</v>
       </c>
-      <c r="AD4" s="58">
+      <c r="AD4" s="48">
         <f>(W20+V20+U20)/3</f>
         <v>0.22931209935446953</v>
       </c>
-      <c r="AE4" s="58">
+      <c r="AE4" s="48">
         <f>(W29+V29+U29)/3</f>
         <v>0.46187151904379231</v>
       </c>
-      <c r="AF4" s="58">
+      <c r="AF4" s="48">
         <f>(W105+V105+U105)/3</f>
         <v>0.21835462766282479</v>
       </c>
@@ -3099,17 +3555,17 @@
       <c r="W6" s="10">
         <v>54196000000</v>
       </c>
-      <c r="AC6" s="56" t="s">
+      <c r="AC6" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD6" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="AD6" s="57" t="s">
+      <c r="AE6" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="AE6" s="57" t="s">
+      <c r="AF6" s="47" t="s">
         <v>115</v>
-      </c>
-      <c r="AF6" s="57" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3182,19 +3638,19 @@
       <c r="W7" s="2">
         <v>0.68440000000000001</v>
       </c>
-      <c r="AC7" s="58">
+      <c r="AC7" s="48">
         <f>W7</f>
         <v>0.68440000000000001</v>
       </c>
-      <c r="AD7" s="59">
+      <c r="AD7" s="49">
         <f>W21</f>
         <v>0.32900000000000001</v>
       </c>
-      <c r="AE7" s="59">
+      <c r="AE7" s="49">
         <f>W30</f>
         <v>0.1779</v>
       </c>
-      <c r="AF7" s="59">
+      <c r="AF7" s="49">
         <f>W106/W3</f>
         <v>0.16105526368963427</v>
       </c>
@@ -3203,76 +3659,76 @@
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="23">
         <v>0</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="23">
         <v>0</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="23">
         <v>0</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="23">
         <v>0</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="23">
         <v>0</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="23">
         <v>0</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="23">
         <v>0</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="23">
         <v>0</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="23">
         <v>0</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="23">
         <v>0</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="23">
         <v>0</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="23">
         <v>0</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="23">
         <v>0</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="23">
         <v>0</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="23">
         <v>0</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="23">
         <v>0</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="23">
         <v>0</v>
       </c>
-      <c r="S8" s="33">
+      <c r="S8" s="23">
         <v>0</v>
       </c>
-      <c r="T8" s="33">
+      <c r="T8" s="23">
         <v>0</v>
       </c>
-      <c r="U8" s="33">
+      <c r="U8" s="23">
         <v>0</v>
       </c>
-      <c r="V8" s="33">
+      <c r="V8" s="23">
         <v>0</v>
       </c>
-      <c r="W8" s="33">
+      <c r="W8" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="18">
         <f>B8/B3</f>
@@ -3367,17 +3823,17 @@
       <c r="Z9" s="18"/>
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
-      <c r="AC9" s="56" t="s">
+      <c r="AC9" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD9" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="AD9" s="57" t="s">
+      <c r="AE9" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="AE9" s="57" t="s">
+      <c r="AF9" s="47" t="s">
         <v>99</v>
-      </c>
-      <c r="AF9" s="57" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3450,19 +3906,19 @@
       <c r="W10" s="1">
         <v>5027000000</v>
       </c>
-      <c r="AC10" s="58">
+      <c r="AC10" s="48">
         <f>W9</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="59">
+      <c r="AD10" s="49">
         <f>W13</f>
         <v>0.41899878763386544</v>
       </c>
-      <c r="AE10" s="59">
+      <c r="AE10" s="49">
         <f>W80</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="59">
+      <c r="AF10" s="49">
         <f>W89</f>
         <v>5.5528894726207312E-2</v>
       </c>
@@ -3608,22 +4064,22 @@
       <c r="W12" s="1">
         <v>33178000000</v>
       </c>
-      <c r="AC12" s="56" t="s">
+      <c r="AC12" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD12" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="AD12" s="57" t="s">
+      <c r="AE12" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="AE12" s="57" t="s">
+      <c r="AF12" s="47" t="s">
         <v>119</v>
-      </c>
-      <c r="AF12" s="57" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="18">
         <f>B12/B3</f>
@@ -3718,15 +4174,15 @@
       <c r="Z13" s="18"/>
       <c r="AA13" s="18"/>
       <c r="AB13" s="18"/>
-      <c r="AC13" s="58">
+      <c r="AC13" s="48">
         <f>W28/W72</f>
         <v>0.25555696684872348</v>
       </c>
-      <c r="AD13" s="59">
+      <c r="AD13" s="49">
         <f>W28/W54</f>
         <v>0.10460021092345854</v>
       </c>
-      <c r="AE13" s="59">
+      <c r="AE13" s="49">
         <f>W22/(W72+W56+W61)</f>
         <v>0.2326800137385466</v>
       </c>
@@ -3876,17 +4332,17 @@
       <c r="W15" s="1">
         <v>33181000000</v>
       </c>
-      <c r="AC15" s="56" t="s">
+      <c r="AC15" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD15" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="AD15" s="57" t="s">
+      <c r="AE15" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="AE15" s="57" t="s">
+      <c r="AF15" s="47" t="s">
         <v>157</v>
-      </c>
-      <c r="AF15" s="57" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3963,17 +4419,17 @@
         <f>(W35+V35+U35+T35+S35)/5</f>
         <v>7.9344895169914653E-5</v>
       </c>
-      <c r="AD16" s="60">
+      <c r="AD16" s="50">
         <f>AE101/W3</f>
-        <v>5.0894120024247327</v>
-      </c>
-      <c r="AE16" s="60">
+        <v>5.3549972216609412</v>
+      </c>
+      <c r="AE16" s="50">
         <f>AE101/W28</f>
-        <v>28.614030105083781</v>
-      </c>
-      <c r="AF16" s="61">
+        <v>30.107220959954557</v>
+      </c>
+      <c r="AF16" s="51">
         <f>AE101/W106</f>
-        <v>31.600407747196737</v>
+        <v>33.249439347604486</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -4117,8 +4573,8 @@
       <c r="W18" s="1">
         <v>6226000000</v>
       </c>
-      <c r="AC18" s="56" t="s">
-        <v>159</v>
+      <c r="AC18" s="46" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4191,14 +4647,14 @@
       <c r="W19" s="10">
         <v>26054000000</v>
       </c>
-      <c r="AC19" s="68">
+      <c r="AC19" s="52">
         <f>W40-W56-W61</f>
         <v>-24294000000</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="18">
@@ -4861,7 +5317,7 @@
     </row>
     <row r="29" spans="1:29" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="18">
@@ -5311,90 +5767,90 @@
     </row>
     <row r="35" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="55">
+      <c r="C35" s="45">
         <f>(C34-B34)/B34</f>
         <v>1.5984924399757156E-3</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="45">
         <f t="shared" ref="D35:G35" si="7">(D34-C34)/C34</f>
         <v>2.0299699610447368E-3</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="45">
         <f t="shared" si="7"/>
         <v>3.6979051185813075E-4</v>
       </c>
-      <c r="F35" s="55">
+      <c r="F35" s="45">
         <f t="shared" si="7"/>
         <v>-3.2608048082341745E-2</v>
       </c>
-      <c r="G35" s="55">
+      <c r="G35" s="45">
         <f t="shared" si="7"/>
         <v>7.2243810072294117E-3</v>
       </c>
-      <c r="H35" s="55">
+      <c r="H35" s="45">
         <f t="shared" ref="H35" si="8">(H34-G34)/G34</f>
         <v>5.0678536711124744E-3</v>
       </c>
-      <c r="I35" s="55">
+      <c r="I35" s="45">
         <f t="shared" ref="I35" si="9">(I34-H34)/H34</f>
         <v>-8.920847941377142E-3</v>
       </c>
-      <c r="J35" s="55">
+      <c r="J35" s="45">
         <f t="shared" ref="J35" si="10">(J34-I34)/I34</f>
         <v>-1.6245367177126757E-3</v>
       </c>
-      <c r="K35" s="55">
+      <c r="K35" s="45">
         <f t="shared" ref="K35" si="11">(K34-J34)/J34</f>
         <v>1.032282955856368E-2</v>
       </c>
-      <c r="L35" s="55">
+      <c r="L35" s="45">
         <f t="shared" ref="L35" si="12">(L34-K34)/K34</f>
         <v>2.5988666516375443E-2</v>
       </c>
-      <c r="M35" s="55">
+      <c r="M35" s="45">
         <f t="shared" ref="M35" si="13">(M34-L34)/L34</f>
         <v>2.036226624522814E-2</v>
       </c>
-      <c r="N35" s="55">
+      <c r="N35" s="45">
         <f t="shared" ref="N35" si="14">(N34-M34)/M34</f>
         <v>1.9663203997837232E-3</v>
       </c>
-      <c r="O35" s="55">
+      <c r="O35" s="45">
         <f t="shared" ref="O35" si="15">(O34-N34)/N34</f>
         <v>1.2802337037974656E-3</v>
       </c>
-      <c r="P35" s="55">
+      <c r="P35" s="45">
         <f t="shared" ref="P35" si="16">(P34-O34)/O34</f>
         <v>2.0505883505941899E-3</v>
       </c>
-      <c r="Q35" s="55">
+      <c r="Q35" s="45">
         <f t="shared" ref="Q35" si="17">(Q34-P34)/P34</f>
         <v>-5.0403950765631159E-4</v>
       </c>
-      <c r="R35" s="55">
+      <c r="R35" s="45">
         <f t="shared" ref="R35" si="18">(R34-Q34)/Q34</f>
         <v>-1.248746486258249E-3</v>
       </c>
-      <c r="S35" s="55">
+      <c r="S35" s="45">
         <f t="shared" ref="S35" si="19">(S34-R34)/R34</f>
         <v>-1.8283555245898739E-4</v>
       </c>
-      <c r="T35" s="55">
+      <c r="T35" s="45">
         <f t="shared" ref="T35" si="20">(T34-S34)/S34</f>
         <v>-1.5597374605327762E-4</v>
       </c>
-      <c r="U35" s="55">
+      <c r="U35" s="45">
         <f t="shared" ref="U35" si="21">(U34-T34)/T34</f>
         <v>7.3553377436183834E-4</v>
       </c>
-      <c r="V35" s="55">
+      <c r="V35" s="45">
         <f t="shared" ref="V35" si="22">(V34-U34)/U34</f>
         <v>0</v>
       </c>
-      <c r="W35" s="55">
+      <c r="W35" s="45">
         <f t="shared" ref="W35" si="23">(W34-V34)/V34</f>
         <v>0</v>
       </c>
@@ -8456,76 +8912,76 @@
       <c r="A79" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="33">
+      <c r="B79" s="23">
         <v>0</v>
       </c>
-      <c r="C79" s="33">
+      <c r="C79" s="23">
         <v>0</v>
       </c>
-      <c r="D79" s="33">
+      <c r="D79" s="23">
         <v>0</v>
       </c>
-      <c r="E79" s="33">
+      <c r="E79" s="23">
         <v>0</v>
       </c>
-      <c r="F79" s="33">
+      <c r="F79" s="23">
         <v>0</v>
       </c>
-      <c r="G79" s="33">
+      <c r="G79" s="23">
         <v>0</v>
       </c>
-      <c r="H79" s="33">
+      <c r="H79" s="23">
         <v>0</v>
       </c>
-      <c r="I79" s="33">
+      <c r="I79" s="23">
         <v>0</v>
       </c>
-      <c r="J79" s="33">
+      <c r="J79" s="23">
         <v>0</v>
       </c>
-      <c r="K79" s="33">
+      <c r="K79" s="23">
         <v>0</v>
       </c>
-      <c r="L79" s="33">
+      <c r="L79" s="23">
         <v>0</v>
       </c>
-      <c r="M79" s="33">
+      <c r="M79" s="23">
         <v>0</v>
       </c>
-      <c r="N79" s="33">
+      <c r="N79" s="23">
         <v>0</v>
       </c>
-      <c r="O79" s="33">
+      <c r="O79" s="23">
         <v>0</v>
       </c>
-      <c r="P79" s="33">
+      <c r="P79" s="23">
         <v>0</v>
       </c>
-      <c r="Q79" s="33">
+      <c r="Q79" s="23">
         <v>0</v>
       </c>
-      <c r="R79" s="33">
+      <c r="R79" s="23">
         <v>0</v>
       </c>
-      <c r="S79" s="33">
+      <c r="S79" s="23">
         <v>0</v>
       </c>
-      <c r="T79" s="33">
+      <c r="T79" s="23">
         <v>0</v>
       </c>
-      <c r="U79" s="33">
+      <c r="U79" s="23">
         <v>0</v>
       </c>
-      <c r="V79" s="33">
+      <c r="V79" s="23">
         <v>0</v>
       </c>
-      <c r="W79" s="33">
+      <c r="W79" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B80" s="18">
         <f>B79/B3</f>
@@ -8834,10 +9290,10 @@
       <c r="W83" s="1">
         <v>-4169000000</v>
       </c>
-      <c r="AD83" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE83" s="65"/>
+      <c r="AD83" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE83" s="57"/>
     </row>
     <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -8909,10 +9365,10 @@
       <c r="W84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD84" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE84" s="67"/>
+      <c r="AD84" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE84" s="59"/>
     </row>
     <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -8984,10 +9440,10 @@
       <c r="W85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD85" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE85" s="22">
+      <c r="AD85" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE85" s="61">
         <f>W17</f>
         <v>382000000</v>
       </c>
@@ -9062,10 +9518,10 @@
       <c r="W86" s="1">
         <v>-6375000000</v>
       </c>
-      <c r="AD86" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE86" s="22">
+      <c r="AD86" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE86" s="61">
         <f>W56</f>
         <v>11991000000</v>
       </c>
@@ -9140,10 +9596,10 @@
       <c r="W87" s="10">
         <v>17835000000</v>
       </c>
-      <c r="AD87" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE87" s="22">
+      <c r="AD87" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE87" s="61">
         <f>W61</f>
         <v>23155000000</v>
       </c>
@@ -9218,17 +9674,17 @@
       <c r="W88" s="1">
         <v>-4397000000</v>
       </c>
-      <c r="AD88" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE88" s="25">
+      <c r="AD88" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE88" s="63">
         <f>AE85/(AE86+AE87)</f>
         <v>1.0868946679565242E-2</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B89" s="18">
         <f>(-1*B88)/B3</f>
@@ -9324,10 +9780,10 @@
       <c r="AA89" s="18"/>
       <c r="AB89" s="18"/>
       <c r="AC89" s="18"/>
-      <c r="AD89" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE89" s="22">
+      <c r="AD89" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE89" s="61">
         <f>W27</f>
         <v>5362000000</v>
       </c>
@@ -9402,10 +9858,10 @@
       <c r="W90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD90" s="21" t="s">
+      <c r="AD90" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="AE90" s="22">
+      <c r="AE90" s="61">
         <f>W25</f>
         <v>20115000000</v>
       </c>
@@ -9480,10 +9936,10 @@
       <c r="W91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD91" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE91" s="25">
+      <c r="AD91" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE91" s="63">
         <f>AE89/AE90</f>
         <v>0.26656723837931889</v>
       </c>
@@ -9558,10 +10014,10 @@
       <c r="W92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD92" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE92" s="27">
+      <c r="AD92" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE92" s="65">
         <f>AE88*(1-AE91)</f>
         <v>7.9716415791014662E-3</v>
       </c>
@@ -9637,7 +10093,7 @@
         <v>-1523000000</v>
       </c>
       <c r="AD93" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AE93" s="67"/>
     </row>
@@ -9711,10 +10167,10 @@
       <c r="W94" s="10">
         <v>-5920000000</v>
       </c>
-      <c r="AD94" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE94" s="23">
+      <c r="AD94" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE94" s="68">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -9788,11 +10244,12 @@
       <c r="W95" s="1">
         <v>-3891000000</v>
       </c>
-      <c r="AD95" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE95" s="28">
-        <v>1.02</v>
+      <c r="AD95" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE95" s="69" cm="1">
+        <f t="array" ref="AE95">_FV(A1,"Beta")</f>
+        <v>1.0044999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -9865,10 +10322,10 @@
       <c r="W96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD96" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE96" s="23">
+      <c r="AD96" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE96" s="68">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -9942,12 +10399,12 @@
       <c r="W97" s="1">
         <v>-1616000000</v>
       </c>
-      <c r="AD97" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE97" s="27">
+      <c r="AD97" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE97" s="65">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>8.4861000000000006E-2</v>
+        <v>8.4193724999999997E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10021,7 +10478,7 @@
         <v>-6025000000</v>
       </c>
       <c r="AD98" s="66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE98" s="67"/>
     </row>
@@ -10095,10 +10552,10 @@
       <c r="W99" s="1">
         <v>-1154000000</v>
       </c>
-      <c r="AD99" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE99" s="22">
+      <c r="AD99" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE99" s="61">
         <f>AE86+AE87</f>
         <v>35146000000</v>
       </c>
@@ -10173,12 +10630,12 @@
       <c r="W100" s="10">
         <v>-12686000000</v>
       </c>
-      <c r="AD100" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE100" s="25">
+      <c r="AD100" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE100" s="63">
         <f>AE99/AE103</f>
-        <v>8.021527070885047E-2</v>
+        <v>7.6541440201264827E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10251,11 +10708,12 @@
       <c r="W101" s="1">
         <v>55000000</v>
       </c>
-      <c r="AD101" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE101" s="29">
-        <v>403000000000</v>
+      <c r="AD101" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE101" s="37" cm="1">
+        <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
+        <v>424030100000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10328,12 +10786,12 @@
       <c r="W102" s="10">
         <v>-717000000</v>
       </c>
-      <c r="AD102" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE102" s="25">
+      <c r="AD102" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE102" s="63">
         <f>AE101/AE103</f>
-        <v>0.91978472929114952</v>
+        <v>0.92345855979873515</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10406,12 +10864,12 @@
       <c r="W103" s="1">
         <v>7817000000</v>
       </c>
-      <c r="AD103" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE103" s="30">
+      <c r="AD103" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE103" s="70">
         <f>AE99+AE101</f>
-        <v>438146000000</v>
+        <v>459176100000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -10484,14 +10942,14 @@
       <c r="W104" s="11">
         <v>7100000000</v>
       </c>
-      <c r="AD104" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE104" s="35"/>
+      <c r="AD104" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE104" s="25"/>
     </row>
     <row r="105" spans="1:31" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="18">
@@ -10584,12 +11042,12 @@
       <c r="AA105" s="18"/>
       <c r="AB105" s="18"/>
       <c r="AC105" s="18"/>
-      <c r="AD105" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE105" s="32">
+      <c r="AD105" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE105" s="22">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.8693299299637809E-2</v>
+        <v>7.8359576959823471E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10662,170 +11120,171 @@
       <c r="W106" s="1">
         <v>12753000000</v>
       </c>
-      <c r="X106" s="36">
+      <c r="X106" s="26">
         <f>W106*(1+$AE$106)</f>
         <v>13635205221.069305</v>
       </c>
-      <c r="Y106" s="36">
+      <c r="Y106" s="26">
         <f t="shared" ref="Y106:AB106" si="27">X106*(1+$AE$106)</f>
         <v>14578438125.984133</v>
       </c>
-      <c r="Z106" s="36">
+      <c r="Z106" s="26">
         <f t="shared" si="27"/>
         <v>15586920383.474842</v>
       </c>
-      <c r="AA106" s="36">
+      <c r="AA106" s="26">
         <f t="shared" si="27"/>
         <v>16665165701.650415</v>
       </c>
-      <c r="AB106" s="36">
+      <c r="AB106" s="26">
         <f t="shared" si="27"/>
         <v>17818000030.199081</v>
       </c>
-      <c r="AC106" s="37" t="s">
+      <c r="AC106" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD106" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="AD106" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE106" s="39">
+      <c r="AE106" s="29">
         <f>(SUM(X4,Y4,Z4,AA4,AB4)/5)</f>
         <v>6.9176289584357023E-2</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X107" s="37"/>
-      <c r="Y107" s="37"/>
-      <c r="Z107" s="37"/>
-      <c r="AA107" s="37"/>
-      <c r="AB107" s="40">
+      <c r="X107" s="27"/>
+      <c r="Y107" s="27"/>
+      <c r="Z107" s="27"/>
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="30">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>340143933585.34503</v>
-      </c>
-      <c r="AC107" s="41" t="s">
+        <v>342271267343.54224</v>
+      </c>
+      <c r="AC107" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD107" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="AD107" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE107" s="43">
+      <c r="AE107" s="33">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X108" s="40">
+      <c r="X108" s="30">
         <f t="shared" ref="X108:Z108" si="28">X107+X106</f>
         <v>13635205221.069305</v>
       </c>
-      <c r="Y108" s="40">
+      <c r="Y108" s="30">
         <f t="shared" si="28"/>
         <v>14578438125.984133</v>
       </c>
-      <c r="Z108" s="40">
+      <c r="Z108" s="30">
         <f t="shared" si="28"/>
         <v>15586920383.474842</v>
       </c>
-      <c r="AA108" s="40">
+      <c r="AA108" s="30">
         <f>AA107+AA106</f>
         <v>16665165701.650415</v>
       </c>
-      <c r="AB108" s="40">
+      <c r="AB108" s="30">
         <f>AB107+AB106</f>
-        <v>357961933615.54413</v>
-      </c>
-      <c r="AC108" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD108" s="44" t="s">
+        <v>360089267373.74133</v>
+      </c>
+      <c r="AC108" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD108" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE108" s="35">
+        <f>AE105</f>
+        <v>7.8359576959823471E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="X109" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="AE108" s="45">
-        <f>AE105</f>
-        <v>7.8693299299637809E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="62" t="s">
+      <c r="Y109" s="55"/>
+    </row>
+    <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="X110" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="Y109" s="63"/>
-    </row>
-    <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X110" s="46" t="s">
+      <c r="Y110" s="37">
+        <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
+        <v>296875584563.72681</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="X111" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="Y110" s="47">
-        <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>294998769954.19012</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X111" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y111" s="47">
+      <c r="Y111" s="37">
         <f>W40</f>
         <v>10852000000</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X112" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y112" s="47">
+      <c r="X112" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y112" s="37">
         <f>AE99</f>
         <v>35146000000</v>
       </c>
     </row>
     <row r="113" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X113" s="46" t="s">
+      <c r="X113" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y113" s="37">
+        <f>Y110+Y111-Y112</f>
+        <v>272581584563.72681</v>
+      </c>
+    </row>
+    <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X114" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="Y113" s="47">
-        <f>Y110+Y111-Y112</f>
-        <v>270704769954.19012</v>
-      </c>
-    </row>
-    <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X114" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y114" s="69">
+      <c r="Y114" s="53">
         <f>W34*(1+(5*AC16))</f>
         <v>504410165.50073248</v>
       </c>
     </row>
     <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="49" t="s">
+      <c r="X115" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y115" s="40">
+        <f>Y113/Y114</f>
+        <v>540.39669143688377</v>
+      </c>
+    </row>
+    <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X116" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="Y115" s="50">
-        <f>Y113/Y114</f>
-        <v>536.67588099747968</v>
-      </c>
-    </row>
-    <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X116" s="48" t="s">
+      <c r="Y116" s="41" cm="1">
+        <f t="array" ref="Y116">_FV(A1,"Price")</f>
+        <v>829.1</v>
+      </c>
+    </row>
+    <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X117" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="Y116" s="51">
-        <v>860.34</v>
-      </c>
-    </row>
-    <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="52" t="s">
+      <c r="Y117" s="43">
+        <f>Y115/Y116-1</f>
+        <v>-0.3482128917659103</v>
+      </c>
+    </row>
+    <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X118" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="Y117" s="53">
-        <f>Y115/Y116-1</f>
-        <v>-0.37620489457949224</v>
-      </c>
-    </row>
-    <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y118" s="54" t="str">
+      <c r="Y118" s="44" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Consumer/Louis Vuitton Moet Hennessy.xlsx
+++ b/Consumer/Louis Vuitton Moet Hennessy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F817425C-1067-4B4C-AF21-B4566F47B588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20556685-0762-3E4A-95B2-FA9F41D64835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -889,7 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -960,14 +960,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1000,6 +996,22 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1018,27 +1030,12 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2397,11 +2394,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>855.2</v>
+    <v>904.6</v>
     <v>535</v>
-    <v>1.0044999999999999</v>
-    <v>-15.5</v>
-    <v>-1.8352E-2</v>
+    <v>1.0072000000000001</v>
+    <v>-6.7</v>
+    <v>-7.6039999999999996E-3</v>
     <v>EUR</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2409,24 +2406,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>842.8</v>
+    <v>878.2</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45022.666666666664</v>
+    <v>45062.346215277779</v>
     <v>0</v>
-    <v>826.7</v>
-    <v>424030100000</v>
+    <v>872.7</v>
+    <v>444513700000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>841.6</v>
-    <v>30.109100000000002</v>
-    <v>844.6</v>
-    <v>829.1</v>
+    <v>877</v>
+    <v>31.410299999999999</v>
+    <v>881.1</v>
+    <v>874.4</v>
     <v>502048400</v>
     <v>MC</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
-    <v>369459</v>
-    <v>340870</v>
+    <v>35257</v>
+    <v>308990</v>
     <v>1971</v>
   </rv>
   <rv s="2">
@@ -2994,10 +2991,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z98" sqref="Z98"/>
+      <selection pane="bottomRight" activeCell="W123" sqref="W123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3272,16 +3269,16 @@
       <c r="AB3" s="15">
         <v>110600000000</v>
       </c>
-      <c r="AC3" s="46" t="s">
+      <c r="AC3" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="AD3" s="47" t="s">
+      <c r="AD3" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="AE3" s="47" t="s">
+      <c r="AE3" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="AF3" s="47" t="s">
+      <c r="AF3" s="45" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3394,19 +3391,19 @@
         <f t="shared" ref="AB4" si="2">(AB3/AA3)-1</f>
         <v>4.933586337760909E-2</v>
       </c>
-      <c r="AC4" s="48">
+      <c r="AC4" s="46">
         <f>(W4+V4+U4)/3</f>
         <v>0.16774310808440043</v>
       </c>
-      <c r="AD4" s="48">
+      <c r="AD4" s="46">
         <f>(W20+V20+U20)/3</f>
         <v>0.22931209935446953</v>
       </c>
-      <c r="AE4" s="48">
+      <c r="AE4" s="46">
         <f>(W29+V29+U29)/3</f>
         <v>0.46187151904379231</v>
       </c>
-      <c r="AF4" s="48">
+      <c r="AF4" s="46">
         <f>(W105+V105+U105)/3</f>
         <v>0.21835462766282479</v>
       </c>
@@ -3555,16 +3552,16 @@
       <c r="W6" s="10">
         <v>54196000000</v>
       </c>
-      <c r="AC6" s="46" t="s">
+      <c r="AC6" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="AD6" s="47" t="s">
+      <c r="AD6" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="AE6" s="47" t="s">
+      <c r="AE6" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="AF6" s="47" t="s">
+      <c r="AF6" s="45" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3638,19 +3635,19 @@
       <c r="W7" s="2">
         <v>0.68440000000000001</v>
       </c>
-      <c r="AC7" s="48">
+      <c r="AC7" s="46">
         <f>W7</f>
         <v>0.68440000000000001</v>
       </c>
-      <c r="AD7" s="49">
+      <c r="AD7" s="47">
         <f>W21</f>
         <v>0.32900000000000001</v>
       </c>
-      <c r="AE7" s="49">
+      <c r="AE7" s="47">
         <f>W30</f>
         <v>0.1779</v>
       </c>
-      <c r="AF7" s="49">
+      <c r="AF7" s="47">
         <f>W106/W3</f>
         <v>0.16105526368963427</v>
       </c>
@@ -3823,16 +3820,16 @@
       <c r="Z9" s="18"/>
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
-      <c r="AC9" s="46" t="s">
+      <c r="AC9" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="AD9" s="47" t="s">
+      <c r="AD9" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="AE9" s="47" t="s">
+      <c r="AE9" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="AF9" s="47" t="s">
+      <c r="AF9" s="45" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3906,19 +3903,19 @@
       <c r="W10" s="1">
         <v>5027000000</v>
       </c>
-      <c r="AC10" s="48">
+      <c r="AC10" s="46">
         <f>W9</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="49">
+      <c r="AD10" s="47">
         <f>W13</f>
         <v>0.41899878763386544</v>
       </c>
-      <c r="AE10" s="49">
+      <c r="AE10" s="47">
         <f>W80</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="49">
+      <c r="AF10" s="47">
         <f>W89</f>
         <v>5.5528894726207312E-2</v>
       </c>
@@ -4064,16 +4061,16 @@
       <c r="W12" s="1">
         <v>33178000000</v>
       </c>
-      <c r="AC12" s="46" t="s">
+      <c r="AC12" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="AD12" s="47" t="s">
+      <c r="AD12" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="AE12" s="47" t="s">
+      <c r="AE12" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="AF12" s="47" t="s">
+      <c r="AF12" s="45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4174,15 +4171,15 @@
       <c r="Z13" s="18"/>
       <c r="AA13" s="18"/>
       <c r="AB13" s="18"/>
-      <c r="AC13" s="48">
+      <c r="AC13" s="46">
         <f>W28/W72</f>
         <v>0.25555696684872348</v>
       </c>
-      <c r="AD13" s="49">
+      <c r="AD13" s="47">
         <f>W28/W54</f>
         <v>0.10460021092345854</v>
       </c>
-      <c r="AE13" s="49">
+      <c r="AE13" s="47">
         <f>W22/(W72+W56+W61)</f>
         <v>0.2326800137385466</v>
       </c>
@@ -4332,16 +4329,16 @@
       <c r="W15" s="1">
         <v>33181000000</v>
       </c>
-      <c r="AC15" s="46" t="s">
+      <c r="AC15" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="AD15" s="47" t="s">
+      <c r="AD15" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="AE15" s="47" t="s">
+      <c r="AE15" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="AF15" s="47" t="s">
+      <c r="AF15" s="45" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4419,17 +4416,17 @@
         <f>(W35+V35+U35+T35+S35)/5</f>
         <v>7.9344895169914653E-5</v>
       </c>
-      <c r="AD16" s="50">
+      <c r="AD16" s="48">
         <f>AE101/W3</f>
-        <v>5.3549972216609412</v>
-      </c>
-      <c r="AE16" s="50">
+        <v>5.6136807940998183</v>
+      </c>
+      <c r="AE16" s="48">
         <f>AE101/W28</f>
-        <v>30.107220959954557</v>
-      </c>
-      <c r="AF16" s="51">
+        <v>31.561608917921046</v>
+      </c>
+      <c r="AF16" s="49">
         <f>AE101/W106</f>
-        <v>33.249439347604486</v>
+        <v>34.855618285893513</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -4573,7 +4570,7 @@
       <c r="W18" s="1">
         <v>6226000000</v>
       </c>
-      <c r="AC18" s="46" t="s">
+      <c r="AC18" s="44" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4647,7 +4644,7 @@
       <c r="W19" s="10">
         <v>26054000000</v>
       </c>
-      <c r="AC19" s="52">
+      <c r="AC19" s="50">
         <f>W40-W56-W61</f>
         <v>-24294000000</v>
       </c>
@@ -5770,87 +5767,87 @@
         <v>153</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="45">
+      <c r="C35" s="43">
         <f>(C34-B34)/B34</f>
         <v>1.5984924399757156E-3</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="43">
         <f t="shared" ref="D35:G35" si="7">(D34-C34)/C34</f>
         <v>2.0299699610447368E-3</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="43">
         <f t="shared" si="7"/>
         <v>3.6979051185813075E-4</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="43">
         <f t="shared" si="7"/>
         <v>-3.2608048082341745E-2</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G35" s="43">
         <f t="shared" si="7"/>
         <v>7.2243810072294117E-3</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="43">
         <f t="shared" ref="H35" si="8">(H34-G34)/G34</f>
         <v>5.0678536711124744E-3</v>
       </c>
-      <c r="I35" s="45">
+      <c r="I35" s="43">
         <f t="shared" ref="I35" si="9">(I34-H34)/H34</f>
         <v>-8.920847941377142E-3</v>
       </c>
-      <c r="J35" s="45">
+      <c r="J35" s="43">
         <f t="shared" ref="J35" si="10">(J34-I34)/I34</f>
         <v>-1.6245367177126757E-3</v>
       </c>
-      <c r="K35" s="45">
+      <c r="K35" s="43">
         <f t="shared" ref="K35" si="11">(K34-J34)/J34</f>
         <v>1.032282955856368E-2</v>
       </c>
-      <c r="L35" s="45">
+      <c r="L35" s="43">
         <f t="shared" ref="L35" si="12">(L34-K34)/K34</f>
         <v>2.5988666516375443E-2</v>
       </c>
-      <c r="M35" s="45">
+      <c r="M35" s="43">
         <f t="shared" ref="M35" si="13">(M34-L34)/L34</f>
         <v>2.036226624522814E-2</v>
       </c>
-      <c r="N35" s="45">
+      <c r="N35" s="43">
         <f t="shared" ref="N35" si="14">(N34-M34)/M34</f>
         <v>1.9663203997837232E-3</v>
       </c>
-      <c r="O35" s="45">
+      <c r="O35" s="43">
         <f t="shared" ref="O35" si="15">(O34-N34)/N34</f>
         <v>1.2802337037974656E-3</v>
       </c>
-      <c r="P35" s="45">
+      <c r="P35" s="43">
         <f t="shared" ref="P35" si="16">(P34-O34)/O34</f>
         <v>2.0505883505941899E-3</v>
       </c>
-      <c r="Q35" s="45">
+      <c r="Q35" s="43">
         <f t="shared" ref="Q35" si="17">(Q34-P34)/P34</f>
         <v>-5.0403950765631159E-4</v>
       </c>
-      <c r="R35" s="45">
+      <c r="R35" s="43">
         <f t="shared" ref="R35" si="18">(R34-Q34)/Q34</f>
         <v>-1.248746486258249E-3</v>
       </c>
-      <c r="S35" s="45">
+      <c r="S35" s="43">
         <f t="shared" ref="S35" si="19">(S34-R34)/R34</f>
         <v>-1.8283555245898739E-4</v>
       </c>
-      <c r="T35" s="45">
+      <c r="T35" s="43">
         <f t="shared" ref="T35" si="20">(T34-S34)/S34</f>
         <v>-1.5597374605327762E-4</v>
       </c>
-      <c r="U35" s="45">
+      <c r="U35" s="43">
         <f t="shared" ref="U35" si="21">(U34-T34)/T34</f>
         <v>7.3553377436183834E-4</v>
       </c>
-      <c r="V35" s="45">
+      <c r="V35" s="43">
         <f t="shared" ref="V35" si="22">(V34-U34)/U34</f>
         <v>0</v>
       </c>
-      <c r="W35" s="45">
+      <c r="W35" s="43">
         <f t="shared" ref="W35" si="23">(W34-V34)/V34</f>
         <v>0</v>
       </c>
@@ -9290,10 +9287,10 @@
       <c r="W83" s="1">
         <v>-4169000000</v>
       </c>
-      <c r="AD83" s="56" t="s">
+      <c r="AD83" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="AE83" s="57"/>
+      <c r="AE83" s="65"/>
     </row>
     <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9365,10 +9362,10 @@
       <c r="W84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD84" s="58" t="s">
+      <c r="AD84" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="AE84" s="59"/>
+      <c r="AE84" s="67"/>
     </row>
     <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9440,10 +9437,10 @@
       <c r="W85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD85" s="60" t="s">
+      <c r="AD85" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="AE85" s="61">
+      <c r="AE85" s="53">
         <f>W17</f>
         <v>382000000</v>
       </c>
@@ -9518,10 +9515,10 @@
       <c r="W86" s="1">
         <v>-6375000000</v>
       </c>
-      <c r="AD86" s="60" t="s">
+      <c r="AD86" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="AE86" s="61">
+      <c r="AE86" s="53">
         <f>W56</f>
         <v>11991000000</v>
       </c>
@@ -9596,10 +9593,10 @@
       <c r="W87" s="10">
         <v>17835000000</v>
       </c>
-      <c r="AD87" s="60" t="s">
+      <c r="AD87" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="AE87" s="61">
+      <c r="AE87" s="53">
         <f>W61</f>
         <v>23155000000</v>
       </c>
@@ -9674,10 +9671,10 @@
       <c r="W88" s="1">
         <v>-4397000000</v>
       </c>
-      <c r="AD88" s="62" t="s">
+      <c r="AD88" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="AE88" s="63">
+      <c r="AE88" s="55">
         <f>AE85/(AE86+AE87)</f>
         <v>1.0868946679565242E-2</v>
       </c>
@@ -9780,10 +9777,10 @@
       <c r="AA89" s="18"/>
       <c r="AB89" s="18"/>
       <c r="AC89" s="18"/>
-      <c r="AD89" s="60" t="s">
+      <c r="AD89" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="AE89" s="61">
+      <c r="AE89" s="53">
         <f>W27</f>
         <v>5362000000</v>
       </c>
@@ -9858,10 +9855,10 @@
       <c r="W90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD90" s="60" t="s">
+      <c r="AD90" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AE90" s="61">
+      <c r="AE90" s="53">
         <f>W25</f>
         <v>20115000000</v>
       </c>
@@ -9936,10 +9933,10 @@
       <c r="W91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD91" s="62" t="s">
+      <c r="AD91" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="AE91" s="63">
+      <c r="AE91" s="55">
         <f>AE89/AE90</f>
         <v>0.26656723837931889</v>
       </c>
@@ -10014,10 +10011,10 @@
       <c r="W92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD92" s="64" t="s">
+      <c r="AD92" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="AE92" s="65">
+      <c r="AE92" s="57">
         <f>AE88*(1-AE91)</f>
         <v>7.9716415791014662E-3</v>
       </c>
@@ -10092,10 +10089,10 @@
       <c r="W93" s="1">
         <v>-1523000000</v>
       </c>
-      <c r="AD93" s="66" t="s">
+      <c r="AD93" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="AE93" s="67"/>
+      <c r="AE93" s="69"/>
     </row>
     <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10167,10 +10164,10 @@
       <c r="W94" s="10">
         <v>-5920000000</v>
       </c>
-      <c r="AD94" s="60" t="s">
+      <c r="AD94" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="AE94" s="68">
+      <c r="AE94" s="58">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -10244,12 +10241,12 @@
       <c r="W95" s="1">
         <v>-3891000000</v>
       </c>
-      <c r="AD95" s="60" t="s">
+      <c r="AD95" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="AE95" s="69" cm="1">
+      <c r="AE95" s="59" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.0044999999999999</v>
+        <v>1.0072000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10322,10 +10319,10 @@
       <c r="W96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD96" s="60" t="s">
+      <c r="AD96" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="AE96" s="68">
+      <c r="AE96" s="58">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10399,12 +10396,12 @@
       <c r="W97" s="1">
         <v>-1616000000</v>
       </c>
-      <c r="AD97" s="64" t="s">
+      <c r="AD97" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="AE97" s="65">
+      <c r="AE97" s="57">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>8.4193724999999997E-2</v>
+        <v>8.4309960000000017E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10477,10 +10474,10 @@
       <c r="W98" s="1">
         <v>-6025000000</v>
       </c>
-      <c r="AD98" s="66" t="s">
+      <c r="AD98" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="AE98" s="67"/>
+      <c r="AE98" s="69"/>
     </row>
     <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10552,10 +10549,10 @@
       <c r="W99" s="1">
         <v>-1154000000</v>
       </c>
-      <c r="AD99" s="60" t="s">
+      <c r="AD99" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="AE99" s="61">
+      <c r="AE99" s="53">
         <f>AE86+AE87</f>
         <v>35146000000</v>
       </c>
@@ -10630,12 +10627,12 @@
       <c r="W100" s="10">
         <v>-12686000000</v>
       </c>
-      <c r="AD100" s="62" t="s">
+      <c r="AD100" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="AE100" s="63">
+      <c r="AE100" s="55">
         <f>AE99/AE103</f>
-        <v>7.6541440201264827E-2</v>
+        <v>7.3272780681804206E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10708,12 +10705,12 @@
       <c r="W101" s="1">
         <v>55000000</v>
       </c>
-      <c r="AD101" s="60" t="s">
+      <c r="AD101" s="52" t="s">
         <v>135</v>
       </c>
       <c r="AE101" s="37" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>424030100000</v>
+        <v>444513700000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10786,12 +10783,12 @@
       <c r="W102" s="10">
         <v>-717000000</v>
       </c>
-      <c r="AD102" s="62" t="s">
+      <c r="AD102" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="AE102" s="63">
+      <c r="AE102" s="55">
         <f>AE101/AE103</f>
-        <v>0.92345855979873515</v>
+        <v>0.92672721931819579</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10864,12 +10861,12 @@
       <c r="W103" s="1">
         <v>7817000000</v>
       </c>
-      <c r="AD103" s="64" t="s">
+      <c r="AD103" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="AE103" s="70">
+      <c r="AE103" s="60">
         <f>AE99+AE101</f>
-        <v>459176100000</v>
+        <v>479659700000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -11047,7 +11044,7 @@
       </c>
       <c r="AE105" s="22">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.8359576959823471E-2</v>
+        <v>7.8716439136727781E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11158,7 +11155,7 @@
       <c r="AA107" s="27"/>
       <c r="AB107" s="30">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>342271267343.54224</v>
+        <v>339997407208.37738</v>
       </c>
       <c r="AC107" s="31" t="s">
         <v>141</v>
@@ -11189,7 +11186,7 @@
       </c>
       <c r="AB108" s="30">
         <f>AB107+AB106</f>
-        <v>360089267373.74133</v>
+        <v>357815407238.57648</v>
       </c>
       <c r="AC108" s="31" t="s">
         <v>137</v>
@@ -11199,14 +11196,14 @@
       </c>
       <c r="AE108" s="35">
         <f>AE105</f>
-        <v>7.8359576959823471E-2</v>
+        <v>7.8716439136727781E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="54" t="s">
+      <c r="X109" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="Y109" s="55"/>
+      <c r="Y109" s="63"/>
     </row>
     <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="X110" s="36" t="s">
@@ -11214,7 +11211,7 @@
       </c>
       <c r="Y110" s="37">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>296875584563.72681</v>
+        <v>294869500268.44019</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11241,50 +11238,50 @@
       </c>
       <c r="Y113" s="37">
         <f>Y110+Y111-Y112</f>
-        <v>272581584563.72681</v>
+        <v>270575500268.44019</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
       <c r="X114" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="Y114" s="53">
+      <c r="Y114" s="51">
         <f>W34*(1+(5*AC16))</f>
         <v>504410165.50073248</v>
       </c>
     </row>
     <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="39" t="s">
+      <c r="X115" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="Y115" s="40">
+      <c r="Y115" s="39">
         <f>Y113/Y114</f>
-        <v>540.39669143688377</v>
+        <v>536.41960209076569</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X116" s="38" t="s">
+      <c r="X116" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="Y116" s="41" cm="1">
+      <c r="Y116" s="61" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>829.1</v>
+        <v>874.4</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="42" t="s">
+      <c r="X117" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="Y117" s="43">
+      <c r="Y117" s="41">
         <f>Y115/Y116-1</f>
-        <v>-0.3482128917659103</v>
+        <v>-0.38652835991449486</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="42" t="s">
+      <c r="X118" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="Y118" s="44" t="str">
+      <c r="Y118" s="42" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Consumer/Louis Vuitton Moet Hennessy.xlsx
+++ b/Consumer/Louis Vuitton Moet Hennessy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20556685-0762-3E4A-95B2-FA9F41D64835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F85A340-4698-024A-A1DB-E08CD7A216B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2396,9 +2396,9 @@
     <v>Powered by Refinitiv</v>
     <v>904.6</v>
     <v>535</v>
-    <v>1.0072000000000001</v>
-    <v>-6.7</v>
-    <v>-7.6039999999999996E-3</v>
+    <v>1.0135000000000001</v>
+    <v>-4</v>
+    <v>-4.7619999999999997E-3</v>
     <v>EUR</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2406,24 +2406,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>878.2</v>
+    <v>848.7</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45062.346215277779</v>
+    <v>45076.666666666664</v>
     <v>0</v>
-    <v>872.7</v>
-    <v>444513700000</v>
+    <v>835</v>
+    <v>421720700000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>877</v>
-    <v>31.410299999999999</v>
-    <v>881.1</v>
-    <v>874.4</v>
+    <v>841.7</v>
+    <v>29.802499999999998</v>
+    <v>840</v>
+    <v>836</v>
     <v>502048400</v>
     <v>MC</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
-    <v>35257</v>
-    <v>308990</v>
+    <v>350267</v>
+    <v>352300</v>
     <v>1971</v>
   </rv>
   <rv s="2">
@@ -2991,10 +2991,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W123" sqref="W123"/>
+      <selection pane="bottomRight" activeCell="V125" sqref="V125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4418,15 +4418,15 @@
       </c>
       <c r="AD16" s="48">
         <f>AE101/W3</f>
-        <v>5.6136807940998183</v>
+        <v>5.3258322388361288</v>
       </c>
       <c r="AE16" s="48">
         <f>AE101/W28</f>
-        <v>31.561608917921046</v>
+        <v>29.943247656915648</v>
       </c>
       <c r="AF16" s="49">
         <f>AE101/W106</f>
-        <v>34.855618285893513</v>
+        <v>33.068352544499334</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10246,7 +10246,7 @@
       </c>
       <c r="AE95" s="59" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.0072000000000001</v>
+        <v>1.0135000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10401,7 +10401,7 @@
       </c>
       <c r="AE97" s="57">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>8.4309960000000017E-2</v>
+        <v>8.4581175000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="AE100" s="55">
         <f>AE99/AE103</f>
-        <v>7.3272780681804206E-2</v>
+        <v>7.6928346933580402E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="AE101" s="37" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>444513700000</v>
+        <v>421720700000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="AE102" s="55">
         <f>AE101/AE103</f>
-        <v>0.92672721931819579</v>
+        <v>0.92307165306641958</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="AE103" s="60">
         <f>AE99+AE101</f>
-        <v>479659700000</v>
+        <v>456866700000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -11044,7 +11044,7 @@
       </c>
       <c r="AE105" s="22">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.8716439136727781E-2</v>
+        <v>7.8687730234577397E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11155,7 +11155,7 @@
       <c r="AA107" s="27"/>
       <c r="AB107" s="30">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>339997407208.37738</v>
+        <v>340179216948.74603</v>
       </c>
       <c r="AC107" s="31" t="s">
         <v>141</v>
@@ -11186,7 +11186,7 @@
       </c>
       <c r="AB108" s="30">
         <f>AB107+AB106</f>
-        <v>357815407238.57648</v>
+        <v>357997216978.94513</v>
       </c>
       <c r="AC108" s="31" t="s">
         <v>137</v>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="AE108" s="35">
         <f>AE105</f>
-        <v>7.8716439136727781E-2</v>
+        <v>7.8687730234577397E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11211,7 +11211,7 @@
       </c>
       <c r="Y110" s="37">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>294869500268.44019</v>
+        <v>295029897956.52643</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11238,7 +11238,7 @@
       </c>
       <c r="Y113" s="37">
         <f>Y110+Y111-Y112</f>
-        <v>270575500268.44019</v>
+        <v>270735897956.52643</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="Y115" s="39">
         <f>Y113/Y114</f>
-        <v>536.41960209076569</v>
+        <v>536.73759268464482</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11265,7 +11265,7 @@
       </c>
       <c r="Y116" s="61" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>874.4</v>
+        <v>836</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11274,7 +11274,7 @@
       </c>
       <c r="Y117" s="41">
         <f>Y115/Y116-1</f>
-        <v>-0.38652835991449486</v>
+        <v>-0.35796938674085543</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Louis Vuitton Moet Hennessy.xlsx
+++ b/Consumer/Louis Vuitton Moet Hennessy.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F85A340-4698-024A-A1DB-E08CD7A216B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4909C98-86AD-2E4D-BFCC-87B4D7641155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23640" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="164">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -489,9 +489,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -547,17 +544,39 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -720,7 +739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -884,12 +903,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -942,7 +970,6 @@
     <xf numFmtId="10" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -984,12 +1011,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1012,6 +1033,22 @@
     <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1403,11 +1440,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1447,7 +1484,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$W$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$W$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="22"/>
@@ -2274,6 +2311,64 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7280000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2396,9 +2491,9 @@
     <v>Powered by Refinitiv</v>
     <v>904.6</v>
     <v>535</v>
-    <v>1.0135000000000001</v>
-    <v>-4</v>
-    <v>-4.7619999999999997E-3</v>
+    <v>1.0119</v>
+    <v>24.9</v>
+    <v>2.9512999999999998E-2</v>
     <v>EUR</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2406,24 +2501,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>848.7</v>
+    <v>872.4</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45076.666666666664</v>
+    <v>45093.666666666664</v>
     <v>0</v>
-    <v>835</v>
-    <v>421720700000</v>
+    <v>845.5</v>
+    <v>423578300000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>841.7</v>
-    <v>29.802499999999998</v>
-    <v>840</v>
-    <v>836</v>
+    <v>848.5</v>
+    <v>30.077000000000002</v>
+    <v>843.7</v>
+    <v>868.6</v>
     <v>502048400</v>
     <v>MC</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
-    <v>350267</v>
-    <v>352300</v>
+    <v>1017309</v>
+    <v>279930</v>
     <v>1971</v>
   </rv>
   <rv s="2">
@@ -2991,10 +3086,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V125" sqref="V125"/>
+      <selection pane="bottomRight" activeCell="X100" sqref="X100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3099,85 +3194,85 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
@@ -3255,36 +3350,36 @@
         <v>79184000000</v>
       </c>
       <c r="X3" s="15">
-        <v>85313000000</v>
+        <v>88158000000</v>
       </c>
       <c r="Y3" s="15">
-        <v>91613000000</v>
+        <v>95168000000</v>
       </c>
       <c r="Z3" s="15">
-        <v>97429000000</v>
+        <v>101800000000</v>
       </c>
       <c r="AA3" s="15">
-        <v>105400000000</v>
+        <v>110300000000</v>
       </c>
       <c r="AB3" s="15">
-        <v>110600000000</v>
-      </c>
-      <c r="AC3" s="44" t="s">
+        <v>117600000000</v>
+      </c>
+      <c r="AC3" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD3" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="AD3" s="45" t="s">
+      <c r="AE3" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="AE3" s="45" t="s">
+      <c r="AF3" s="44" t="s">
         <v>110</v>
-      </c>
-      <c r="AF3" s="45" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="18">
@@ -3373,38 +3468,38 @@
       </c>
       <c r="X4" s="16">
         <f t="shared" si="0"/>
-        <v>7.740200040412204E-2</v>
+        <v>0.11333097595473829</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>7.3845721050719071E-2</v>
+        <v>7.9516322965584418E-2</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>6.3484439981225327E-2</v>
+        <v>6.9687289845326239E-2</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" ref="AA4" si="1">(AA3/Z3)-1</f>
-        <v>8.1813423108109573E-2</v>
+        <v>8.349705304518662E-2</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" ref="AB4" si="2">(AB3/AA3)-1</f>
-        <v>4.933586337760909E-2</v>
-      </c>
-      <c r="AC4" s="46">
+        <v>6.618313689936528E-2</v>
+      </c>
+      <c r="AC4" s="45">
         <f>(W4+V4+U4)/3</f>
         <v>0.16774310808440043</v>
       </c>
-      <c r="AD4" s="46">
+      <c r="AD4" s="45">
         <f>(W20+V20+U20)/3</f>
         <v>0.22931209935446953</v>
       </c>
-      <c r="AE4" s="46">
+      <c r="AE4" s="45">
         <f>(W29+V29+U29)/3</f>
         <v>0.46187151904379231</v>
       </c>
-      <c r="AF4" s="46">
-        <f>(W105+V105+U105)/3</f>
+      <c r="AF4" s="45">
+        <f>(W106+V106+U106)/3</f>
         <v>0.21835462766282479</v>
       </c>
     </row>
@@ -3552,17 +3647,17 @@
       <c r="W6" s="10">
         <v>54196000000</v>
       </c>
-      <c r="AC6" s="44" t="s">
+      <c r="AC6" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD6" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="AD6" s="45" t="s">
+      <c r="AE6" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="AE6" s="45" t="s">
+      <c r="AF6" s="44" t="s">
         <v>114</v>
-      </c>
-      <c r="AF6" s="45" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3635,20 +3730,20 @@
       <c r="W7" s="2">
         <v>0.68440000000000001</v>
       </c>
-      <c r="AC7" s="46">
+      <c r="AC7" s="45">
         <f>W7</f>
         <v>0.68440000000000001</v>
       </c>
-      <c r="AD7" s="47">
+      <c r="AD7" s="46">
         <f>W21</f>
         <v>0.32900000000000001</v>
       </c>
-      <c r="AE7" s="47">
+      <c r="AE7" s="46">
         <f>W30</f>
         <v>0.1779</v>
       </c>
-      <c r="AF7" s="47">
-        <f>W106/W3</f>
+      <c r="AF7" s="46">
+        <f>W107/W3</f>
         <v>0.16105526368963427</v>
       </c>
     </row>
@@ -3725,7 +3820,7 @@
     </row>
     <row r="9" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="18">
         <f>B8/B3</f>
@@ -3820,17 +3915,17 @@
       <c r="Z9" s="18"/>
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
-      <c r="AC9" s="44" t="s">
+      <c r="AC9" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD9" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="AD9" s="45" t="s">
+      <c r="AE9" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="AE9" s="45" t="s">
+      <c r="AF9" s="44" t="s">
         <v>98</v>
-      </c>
-      <c r="AF9" s="45" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3903,19 +3998,19 @@
       <c r="W10" s="1">
         <v>5027000000</v>
       </c>
-      <c r="AC10" s="46">
+      <c r="AC10" s="45">
         <f>W9</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="47">
+      <c r="AD10" s="46">
         <f>W13</f>
         <v>0.41899878763386544</v>
       </c>
-      <c r="AE10" s="47">
+      <c r="AE10" s="46">
         <f>W80</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="47">
+      <c r="AF10" s="46">
         <f>W89</f>
         <v>5.5528894726207312E-2</v>
       </c>
@@ -4061,22 +4156,22 @@
       <c r="W12" s="1">
         <v>33178000000</v>
       </c>
-      <c r="AC12" s="44" t="s">
+      <c r="AC12" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD12" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="AD12" s="45" t="s">
+      <c r="AE12" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="AE12" s="45" t="s">
+      <c r="AF12" s="44" t="s">
         <v>118</v>
-      </c>
-      <c r="AF12" s="45" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="18">
         <f>B12/B3</f>
@@ -4171,15 +4266,15 @@
       <c r="Z13" s="18"/>
       <c r="AA13" s="18"/>
       <c r="AB13" s="18"/>
-      <c r="AC13" s="46">
+      <c r="AC13" s="45">
         <f>W28/W72</f>
         <v>0.25555696684872348</v>
       </c>
-      <c r="AD13" s="47">
+      <c r="AD13" s="46">
         <f>W28/W54</f>
         <v>0.10460021092345854</v>
       </c>
-      <c r="AE13" s="47">
+      <c r="AE13" s="46">
         <f>W22/(W72+W56+W61)</f>
         <v>0.2326800137385466</v>
       </c>
@@ -4193,16 +4288,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1">
         <v>221000000</v>
@@ -4329,17 +4424,17 @@
       <c r="W15" s="1">
         <v>33181000000</v>
       </c>
-      <c r="AC15" s="44" t="s">
+      <c r="AC15" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD15" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE15" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="AD15" s="45" t="s">
+      <c r="AF15" s="44" t="s">
         <v>155</v>
-      </c>
-      <c r="AE15" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF15" s="45" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4416,20 +4511,20 @@
         <f>(W35+V35+U35+T35+S35)/5</f>
         <v>7.9344895169914653E-5</v>
       </c>
-      <c r="AD16" s="48">
+      <c r="AD16" s="64">
         <f>AE101/W3</f>
-        <v>5.3258322388361288</v>
-      </c>
-      <c r="AE16" s="48">
+        <v>5.3492915235401091</v>
+      </c>
+      <c r="AE16" s="64">
         <f>AE101/W28</f>
-        <v>29.943247656915648</v>
-      </c>
-      <c r="AF16" s="49">
-        <f>AE101/W106</f>
-        <v>33.068352544499334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+        <v>30.075142005112184</v>
+      </c>
+      <c r="AF16" s="65">
+        <f>AE101/W107</f>
+        <v>33.214012389241745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4500,7 +4595,7 @@
         <v>382000000</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4570,11 +4665,20 @@
       <c r="W18" s="1">
         <v>6226000000</v>
       </c>
-      <c r="AC18" s="44" t="s">
+      <c r="AC18" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD18" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE18" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF18" s="44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4644,14 +4748,41 @@
       <c r="W19" s="10">
         <v>26054000000</v>
       </c>
-      <c r="AC19" s="50">
+      <c r="X19" s="62">
+        <v>30860000000</v>
+      </c>
+      <c r="Y19" s="62">
+        <v>33810000000</v>
+      </c>
+      <c r="Z19" s="62">
+        <v>36513000000</v>
+      </c>
+      <c r="AA19" s="62">
+        <v>32962000000</v>
+      </c>
+      <c r="AB19" s="62">
+        <v>35046000000</v>
+      </c>
+      <c r="AC19" s="47">
         <f>W40-W56-W61</f>
         <v>-24294000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD19" s="64">
+        <f>AE101/X3</f>
+        <v>4.8047630390889084</v>
+      </c>
+      <c r="AE19" s="64">
+        <f>AE101/X28</f>
+        <v>25.694771003942979</v>
+      </c>
+      <c r="AF19" s="65">
+        <f>AE101/X106</f>
+        <v>23.562235078155421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="18">
@@ -4738,13 +4869,28 @@
         <f t="shared" si="5"/>
         <v>0.15191440445662741</v>
       </c>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-    </row>
-    <row r="21" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="X20" s="16">
+        <f t="shared" ref="X20" si="6">(X19/W19)-1</f>
+        <v>0.18446303830505872</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" ref="Y20" si="7">(Y19/X19)-1</f>
+        <v>9.5593000648088067E-2</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" ref="Z20" si="8">(Z19/Y19)-1</f>
+        <v>7.9946761313220982E-2</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" ref="AA20" si="9">(AA19/Z19)-1</f>
+        <v>-9.7253033166269542E-2</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" ref="AB20" si="10">(AB19/AA19)-1</f>
+        <v>6.3224318912687316E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4814,8 +4960,28 @@
       <c r="W21" s="2">
         <v>0.32900000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="X21" s="63">
+        <f>X19/X3</f>
+        <v>0.35005331336917805</v>
+      </c>
+      <c r="Y21" s="63">
+        <f t="shared" ref="Y21:AB21" si="11">Y19/Y3</f>
+        <v>0.35526647612642903</v>
+      </c>
+      <c r="Z21" s="63">
+        <f t="shared" si="11"/>
+        <v>0.35867387033398823</v>
+      </c>
+      <c r="AA21" s="63">
+        <f t="shared" si="11"/>
+        <v>0.2988395285584769</v>
+      </c>
+      <c r="AB21" s="63">
+        <f t="shared" si="11"/>
+        <v>0.29801020408163265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4886,7 +5052,7 @@
         <v>21001000000</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4957,7 +5123,7 @@
         <v>0.26519999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5028,7 +5194,7 @@
         <v>-886000000</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5099,7 +5265,7 @@
         <v>20115000000</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5170,7 +5336,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5241,7 +5407,7 @@
         <v>5362000000</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5311,10 +5477,25 @@
       <c r="W28" s="11">
         <v>14084000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="59">
+        <v>16485000000</v>
+      </c>
+      <c r="Y28" s="59">
+        <v>18257000000</v>
+      </c>
+      <c r="Z28" s="59">
+        <v>19971000000</v>
+      </c>
+      <c r="AA28" s="59">
+        <v>20828000000</v>
+      </c>
+      <c r="AB28" s="59">
+        <v>22574000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="18">
@@ -5330,84 +5511,99 @@
         <v>0.39695712309820186</v>
       </c>
       <c r="F29" s="18">
-        <f t="shared" ref="F29:W29" si="6">(F28/E28)-1</f>
+        <f t="shared" ref="F29:W29" si="12">(F28/E28)-1</f>
         <v>0.6514851485148514</v>
       </c>
       <c r="G29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.29496402877697836</v>
       </c>
       <c r="H29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.9166666666666607E-2</v>
       </c>
       <c r="I29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-5.5770055770055782E-3</v>
       </c>
       <c r="J29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-0.14883520276100082</v>
       </c>
       <c r="K29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.68220983274201719</v>
       </c>
       <c r="L29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.3989153359445643E-2</v>
       </c>
       <c r="M29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.1832611832611861E-2</v>
       </c>
       <c r="N29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.5046728971963592E-3</v>
       </c>
       <c r="O29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.64377182770663555</v>
       </c>
       <c r="P29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-0.36738668555240794</v>
       </c>
       <c r="Q29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.11418975650713681</v>
       </c>
       <c r="R29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.28836975634262751</v>
       </c>
       <c r="S29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.23883798011308244</v>
       </c>
       <c r="T29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.12858042178155493</v>
       </c>
       <c r="U29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-0.34430344442894989</v>
       </c>
       <c r="V29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.5597618034878775</v>
       </c>
       <c r="W29" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.17015619807244931</v>
       </c>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-    </row>
-    <row r="30" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="X29" s="16">
+        <f t="shared" ref="X29" si="13">(X28/W28)-1</f>
+        <v>0.17047713717693846</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" ref="Y29" si="14">(Y28/X28)-1</f>
+        <v>0.10749165908401581</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" ref="Z29" si="15">(Z28/Y28)-1</f>
+        <v>9.3881798762118551E-2</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" ref="AA29" si="16">(AA28/Z28)-1</f>
+        <v>4.2912222722948368E-2</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" ref="AB29" si="17">(AB28/AA28)-1</f>
+        <v>8.3829460341847462E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5477,8 +5673,28 @@
       <c r="W30" s="2">
         <v>0.1779</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="X30" s="60">
+        <f>X28/X3</f>
+        <v>0.1869938065745593</v>
+      </c>
+      <c r="Y30" s="60">
+        <f t="shared" ref="Y30:AB30" si="18">Y28/Y3</f>
+        <v>0.19183969401479489</v>
+      </c>
+      <c r="Z30" s="60">
+        <f t="shared" si="18"/>
+        <v>0.1961787819253438</v>
+      </c>
+      <c r="AA30" s="60">
+        <f t="shared" si="18"/>
+        <v>0.18883046237533999</v>
+      </c>
+      <c r="AB30" s="60">
+        <f t="shared" si="18"/>
+        <v>0.19195578231292518</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5548,8 +5764,23 @@
       <c r="W31" s="12">
         <v>27.96</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="X31" s="61">
+        <v>32.9</v>
+      </c>
+      <c r="Y31" s="61">
+        <v>36.44</v>
+      </c>
+      <c r="Z31" s="61">
+        <v>39.86</v>
+      </c>
+      <c r="AA31" s="61">
+        <v>41.57</v>
+      </c>
+      <c r="AB31" s="61">
+        <v>45.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5764,91 +5995,91 @@
     </row>
     <row r="35" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="43">
+      <c r="C35" s="42">
         <f>(C34-B34)/B34</f>
         <v>1.5984924399757156E-3</v>
       </c>
-      <c r="D35" s="43">
-        <f t="shared" ref="D35:G35" si="7">(D34-C34)/C34</f>
+      <c r="D35" s="42">
+        <f t="shared" ref="D35:G35" si="19">(D34-C34)/C34</f>
         <v>2.0299699610447368E-3</v>
       </c>
-      <c r="E35" s="43">
-        <f t="shared" si="7"/>
+      <c r="E35" s="42">
+        <f t="shared" si="19"/>
         <v>3.6979051185813075E-4</v>
       </c>
-      <c r="F35" s="43">
-        <f t="shared" si="7"/>
+      <c r="F35" s="42">
+        <f t="shared" si="19"/>
         <v>-3.2608048082341745E-2</v>
       </c>
-      <c r="G35" s="43">
-        <f t="shared" si="7"/>
+      <c r="G35" s="42">
+        <f t="shared" si="19"/>
         <v>7.2243810072294117E-3</v>
       </c>
-      <c r="H35" s="43">
-        <f t="shared" ref="H35" si="8">(H34-G34)/G34</f>
+      <c r="H35" s="42">
+        <f t="shared" ref="H35" si="20">(H34-G34)/G34</f>
         <v>5.0678536711124744E-3</v>
       </c>
-      <c r="I35" s="43">
-        <f t="shared" ref="I35" si="9">(I34-H34)/H34</f>
+      <c r="I35" s="42">
+        <f t="shared" ref="I35" si="21">(I34-H34)/H34</f>
         <v>-8.920847941377142E-3</v>
       </c>
-      <c r="J35" s="43">
-        <f t="shared" ref="J35" si="10">(J34-I34)/I34</f>
+      <c r="J35" s="42">
+        <f t="shared" ref="J35" si="22">(J34-I34)/I34</f>
         <v>-1.6245367177126757E-3</v>
       </c>
-      <c r="K35" s="43">
-        <f t="shared" ref="K35" si="11">(K34-J34)/J34</f>
+      <c r="K35" s="42">
+        <f t="shared" ref="K35" si="23">(K34-J34)/J34</f>
         <v>1.032282955856368E-2</v>
       </c>
-      <c r="L35" s="43">
-        <f t="shared" ref="L35" si="12">(L34-K34)/K34</f>
+      <c r="L35" s="42">
+        <f t="shared" ref="L35" si="24">(L34-K34)/K34</f>
         <v>2.5988666516375443E-2</v>
       </c>
-      <c r="M35" s="43">
-        <f t="shared" ref="M35" si="13">(M34-L34)/L34</f>
+      <c r="M35" s="42">
+        <f t="shared" ref="M35" si="25">(M34-L34)/L34</f>
         <v>2.036226624522814E-2</v>
       </c>
-      <c r="N35" s="43">
-        <f t="shared" ref="N35" si="14">(N34-M34)/M34</f>
+      <c r="N35" s="42">
+        <f t="shared" ref="N35" si="26">(N34-M34)/M34</f>
         <v>1.9663203997837232E-3</v>
       </c>
-      <c r="O35" s="43">
-        <f t="shared" ref="O35" si="15">(O34-N34)/N34</f>
+      <c r="O35" s="42">
+        <f t="shared" ref="O35" si="27">(O34-N34)/N34</f>
         <v>1.2802337037974656E-3</v>
       </c>
-      <c r="P35" s="43">
-        <f t="shared" ref="P35" si="16">(P34-O34)/O34</f>
+      <c r="P35" s="42">
+        <f t="shared" ref="P35" si="28">(P34-O34)/O34</f>
         <v>2.0505883505941899E-3</v>
       </c>
-      <c r="Q35" s="43">
-        <f t="shared" ref="Q35" si="17">(Q34-P34)/P34</f>
+      <c r="Q35" s="42">
+        <f t="shared" ref="Q35" si="29">(Q34-P34)/P34</f>
         <v>-5.0403950765631159E-4</v>
       </c>
-      <c r="R35" s="43">
-        <f t="shared" ref="R35" si="18">(R34-Q34)/Q34</f>
+      <c r="R35" s="42">
+        <f t="shared" ref="R35" si="30">(R34-Q34)/Q34</f>
         <v>-1.248746486258249E-3</v>
       </c>
-      <c r="S35" s="43">
-        <f t="shared" ref="S35" si="19">(S34-R34)/R34</f>
+      <c r="S35" s="42">
+        <f t="shared" ref="S35" si="31">(S34-R34)/R34</f>
         <v>-1.8283555245898739E-4</v>
       </c>
-      <c r="T35" s="43">
-        <f t="shared" ref="T35" si="20">(T34-S34)/S34</f>
+      <c r="T35" s="42">
+        <f t="shared" ref="T35" si="32">(T34-S34)/S34</f>
         <v>-1.5597374605327762E-4</v>
       </c>
-      <c r="U35" s="43">
-        <f t="shared" ref="U35" si="21">(U34-T34)/T34</f>
+      <c r="U35" s="42">
+        <f t="shared" ref="U35" si="33">(U34-T34)/T34</f>
         <v>7.3553377436183834E-4</v>
       </c>
-      <c r="V35" s="43">
-        <f t="shared" ref="V35" si="22">(V34-U34)/U34</f>
+      <c r="V35" s="42">
+        <f t="shared" ref="V35" si="34">(V34-U34)/U34</f>
         <v>0</v>
       </c>
-      <c r="W35" s="43">
-        <f t="shared" ref="W35" si="23">(W34-V34)/V34</f>
+      <c r="W35" s="42">
+        <f t="shared" ref="W35" si="35">(W34-V34)/V34</f>
         <v>0</v>
       </c>
     </row>
@@ -5857,70 +6088,70 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="21" x14ac:dyDescent="0.25">
@@ -5928,70 +6159,70 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -5999,7 +6230,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>812000000</v>
@@ -6070,7 +6301,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1">
         <v>60000000</v>
@@ -6082,25 +6313,25 @@
         <v>211000000</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1">
         <v>177000000</v>
@@ -6141,7 +6372,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>872000000</v>
@@ -6212,70 +6443,70 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -6283,7 +6514,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
         <v>3427000000</v>
@@ -6354,7 +6585,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>3628000000</v>
@@ -6425,7 +6656,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>7927000000</v>
@@ -6496,7 +6727,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>3850000000</v>
@@ -6567,7 +6798,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1">
         <v>3631000000</v>
@@ -6638,7 +6869,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>4199000000</v>
@@ -6709,7 +6940,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>7830000000</v>
@@ -6780,7 +7011,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1">
         <v>877000000</v>
@@ -6792,25 +7023,25 @@
         <v>609000000</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1">
         <v>5990000000</v>
@@ -6851,16 +7082,16 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1">
         <v>306000000</v>
@@ -6922,7 +7153,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>933000000</v>
@@ -6993,7 +7224,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>13490000000</v>
@@ -7064,70 +7295,70 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7135,7 +7366,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>21417000000</v>
@@ -7206,7 +7437,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>1429000000</v>
@@ -7277,7 +7508,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1">
         <v>2578000000</v>
@@ -7348,7 +7579,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1">
         <v>61000000</v>
@@ -7419,70 +7650,70 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7490,7 +7721,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>2533000000</v>
@@ -7561,7 +7792,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>6601000000</v>
@@ -7632,7 +7863,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1">
         <v>4776000000</v>
@@ -7703,70 +7934,70 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7774,13 +8005,13 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1">
         <v>125000000</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1">
         <v>196000000</v>
@@ -7845,7 +8076,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>1073000000</v>
@@ -7916,7 +8147,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>5974000000</v>
@@ -7987,70 +8218,70 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -8058,7 +8289,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>12575000000</v>
@@ -8129,7 +8360,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>147000000</v>
@@ -8200,10 +8431,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1">
         <v>5774000000</v>
@@ -8271,70 +8502,70 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -8342,7 +8573,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>6923000000</v>
@@ -8405,7 +8636,7 @@
         <v>3568000000</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -8413,7 +8644,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>7070000000</v>
@@ -8484,7 +8715,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>19645000000</v>
@@ -8555,70 +8786,70 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="21" x14ac:dyDescent="0.25">
@@ -8626,70 +8857,70 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -8839,70 +9070,70 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -8978,94 +9209,94 @@
     </row>
     <row r="80" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="18">
         <f>B79/B3</f>
         <v>0</v>
       </c>
       <c r="C80" s="18">
-        <f t="shared" ref="C80:W80" si="24">C79/C3</f>
+        <f t="shared" ref="C80:W80" si="36">C79/C3</f>
         <v>0</v>
       </c>
       <c r="D80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="E80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="F80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W80" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X80" s="18"/>
@@ -9151,70 +9382,70 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="21" x14ac:dyDescent="0.25">
@@ -9287,160 +9518,160 @@
       <c r="W83" s="1">
         <v>-4169000000</v>
       </c>
-      <c r="AD83" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE83" s="65"/>
+      <c r="AD83" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE83" s="72"/>
     </row>
     <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD84" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE84" s="67"/>
+        <v>91</v>
+      </c>
+      <c r="AD84" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE84" s="74"/>
     </row>
     <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD85" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE85" s="53">
+        <v>91</v>
+      </c>
+      <c r="AD85" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE85" s="50">
         <f>W17</f>
         <v>382000000</v>
       </c>
@@ -9515,10 +9746,10 @@
       <c r="W86" s="1">
         <v>-6375000000</v>
       </c>
-      <c r="AD86" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE86" s="53">
+      <c r="AD86" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE86" s="50">
         <f>W56</f>
         <v>11991000000</v>
       </c>
@@ -9593,10 +9824,10 @@
       <c r="W87" s="10">
         <v>17835000000</v>
       </c>
-      <c r="AD87" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE87" s="53">
+      <c r="AD87" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE87" s="50">
         <f>W61</f>
         <v>23155000000</v>
       </c>
@@ -9671,104 +9902,104 @@
       <c r="W88" s="1">
         <v>-4397000000</v>
       </c>
-      <c r="AD88" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE88" s="55">
+      <c r="AD88" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE88" s="52">
         <f>AE85/(AE86+AE87)</f>
         <v>1.0868946679565242E-2</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="18">
         <f>(-1*B88)/B3</f>
         <v>7.3922642898029273E-2</v>
       </c>
       <c r="C89" s="18">
-        <f t="shared" ref="C89:W89" si="25">(-1*C88)/C3</f>
+        <f t="shared" ref="C89:W89" si="37">(-1*C88)/C3</f>
         <v>3.7737335539273616E-2</v>
       </c>
       <c r="D89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>4.2467814746697877E-2</v>
       </c>
       <c r="E89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>4.5868652459795614E-2</v>
       </c>
       <c r="F89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>5.0826743350107839E-2</v>
       </c>
       <c r="G89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>5.0372402979223831E-2</v>
       </c>
       <c r="H89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>6.0069170560038833E-2</v>
       </c>
       <c r="I89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>6.0431570988192872E-2</v>
       </c>
       <c r="J89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>4.3863249868058403E-2</v>
       </c>
       <c r="K89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>4.9311023622047243E-2</v>
       </c>
       <c r="L89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>7.3925356101272238E-2</v>
       </c>
       <c r="M89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>5.7396007543678608E-2</v>
       </c>
       <c r="N89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>5.4444406326117536E-2</v>
       </c>
       <c r="O89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>5.0003263920621453E-2</v>
       </c>
       <c r="P89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>4.8760655002243157E-2</v>
       </c>
       <c r="Q89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>5.7180851063829786E-2</v>
       </c>
       <c r="R89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>4.4305281921380994E-2</v>
       </c>
       <c r="S89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>5.5610131123734675E-2</v>
       </c>
       <c r="T89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>5.0251537171604251E-2</v>
       </c>
       <c r="U89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>4.4434490481522954E-2</v>
       </c>
       <c r="V89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>4.1656933738223156E-2</v>
       </c>
       <c r="W89" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>5.5528894726207312E-2</v>
       </c>
       <c r="X89" s="18"/>
@@ -9777,10 +10008,10 @@
       <c r="AA89" s="18"/>
       <c r="AB89" s="18"/>
       <c r="AC89" s="18"/>
-      <c r="AD89" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE89" s="53">
+      <c r="AD89" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE89" s="50">
         <f>W27</f>
         <v>5362000000</v>
       </c>
@@ -9802,25 +10033,25 @@
         <v>-244000000</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1">
         <v>-45000000</v>
@@ -9844,21 +10075,21 @@
         <v>-17000000</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD90" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD90" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE90" s="53">
+      <c r="AE90" s="50">
         <f>W25</f>
         <v>20115000000</v>
       </c>
@@ -9922,21 +10153,21 @@
         <v>-445000000</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD91" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE91" s="55">
+        <v>91</v>
+      </c>
+      <c r="AD91" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE91" s="52">
         <f>AE89/AE90</f>
         <v>0.26656723837931889</v>
       </c>
@@ -10000,21 +10231,21 @@
         <v>45000000</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD92" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE92" s="57">
+        <v>91</v>
+      </c>
+      <c r="AD92" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE92" s="54">
         <f>AE88*(1-AE91)</f>
         <v>7.9716415791014662E-3</v>
       </c>
@@ -10089,10 +10320,10 @@
       <c r="W93" s="1">
         <v>-1523000000</v>
       </c>
-      <c r="AD93" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE93" s="69"/>
+      <c r="AD93" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE93" s="76"/>
     </row>
     <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10164,11 +10395,12 @@
       <c r="W94" s="10">
         <v>-5920000000</v>
       </c>
-      <c r="AD94" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE94" s="58">
-        <v>4.095E-2</v>
+      <c r="AD94" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE94" s="55">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7280000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10241,12 +10473,12 @@
       <c r="W95" s="1">
         <v>-3891000000</v>
       </c>
-      <c r="AD95" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE95" s="59" cm="1">
+      <c r="AD95" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE95" s="56" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.0135000000000001</v>
+        <v>1.0119</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10254,7 +10486,7 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1">
         <v>529000000</v>
@@ -10263,13 +10495,13 @@
         <v>196000000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>32000000</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1">
         <v>14000000</v>
@@ -10308,21 +10540,21 @@
         <v>49000000</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD96" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE96" s="58">
+        <v>91</v>
+      </c>
+      <c r="AD96" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE96" s="55">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10334,46 +10566,46 @@
         <v>-13000000</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1">
         <v>-131000000</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1">
         <v>-48000000</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1">
         <v>-143000000</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1">
         <v>-113000000</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1">
         <v>-352000000</v>
@@ -10385,7 +10617,7 @@
         <v>-295000000</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="1">
         <v>-12000000</v>
@@ -10396,12 +10628,12 @@
       <c r="W97" s="1">
         <v>-1616000000</v>
       </c>
-      <c r="AD97" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE97" s="57">
+      <c r="AD97" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE97" s="54">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>8.4581175000000008E-2</v>
+        <v>8.4555968000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10474,10 +10706,10 @@
       <c r="W98" s="1">
         <v>-6025000000</v>
       </c>
-      <c r="AD98" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE98" s="69"/>
+      <c r="AD98" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE98" s="76"/>
     </row>
     <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10549,10 +10781,10 @@
       <c r="W99" s="1">
         <v>-1154000000</v>
       </c>
-      <c r="AD99" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE99" s="53">
+      <c r="AD99" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE99" s="50">
         <f>AE86+AE87</f>
         <v>35146000000</v>
       </c>
@@ -10627,12 +10859,12 @@
       <c r="W100" s="10">
         <v>-12686000000</v>
       </c>
-      <c r="AD100" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE100" s="55">
+      <c r="AD100" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE100" s="52">
         <f>AE99/AE103</f>
-        <v>7.6928346933580402E-2</v>
+        <v>7.6616826272338304E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10705,12 +10937,12 @@
       <c r="W101" s="1">
         <v>55000000</v>
       </c>
-      <c r="AD101" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE101" s="37" cm="1">
+      <c r="AD101" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE101" s="36" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>421720700000</v>
+        <v>423578300000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10783,12 +11015,12 @@
       <c r="W102" s="10">
         <v>-717000000</v>
       </c>
-      <c r="AD102" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE102" s="55">
+      <c r="AD102" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE102" s="52">
         <f>AE101/AE103</f>
-        <v>0.92307165306641958</v>
+        <v>0.92338317372766165</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10861,12 +11093,12 @@
       <c r="W103" s="1">
         <v>7817000000</v>
       </c>
-      <c r="AD103" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE103" s="60">
+      <c r="AD103" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE103" s="57">
         <f>AE99+AE101</f>
-        <v>456866700000</v>
+        <v>458724300000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -10940,348 +11172,451 @@
         <v>7100000000</v>
       </c>
       <c r="AD104" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE104" s="25"/>
     </row>
     <row r="105" spans="1:31" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="18">
-        <f t="shared" ref="C105:W105" si="26">(C106/B106)-1</f>
-        <v>-4.4024390243902438</v>
-      </c>
-      <c r="D105" s="18">
-        <f t="shared" si="26"/>
-        <v>-9.3906810035842336E-2</v>
-      </c>
-      <c r="E105" s="18">
-        <f t="shared" si="26"/>
-        <v>5.6170886075949333E-2</v>
-      </c>
-      <c r="F105" s="18">
-        <f t="shared" si="26"/>
-        <v>-3.5955056179775235E-2</v>
-      </c>
-      <c r="G105" s="18">
-        <f t="shared" si="26"/>
-        <v>0.1787101787101788</v>
-      </c>
-      <c r="H105" s="18">
-        <f t="shared" si="26"/>
-        <v>-3.2300593276203049E-2</v>
-      </c>
-      <c r="I105" s="18">
-        <f t="shared" si="26"/>
-        <v>-0.15599455040871935</v>
-      </c>
-      <c r="J105" s="18">
-        <f t="shared" si="26"/>
-        <v>0.76432606941081516</v>
-      </c>
-      <c r="K105" s="18">
-        <f t="shared" si="26"/>
-        <v>0.39387008234217746</v>
-      </c>
-      <c r="L105" s="18">
-        <f t="shared" si="26"/>
-        <v>-0.29176238923531339</v>
-      </c>
-      <c r="M105" s="18">
-        <f t="shared" si="26"/>
-        <v>7.7386468952733933E-2</v>
-      </c>
-      <c r="N105" s="18">
-        <f t="shared" si="26"/>
-        <v>0.19612903225806444</v>
-      </c>
-      <c r="O105" s="18">
-        <f t="shared" si="26"/>
-        <v>-7.9108234448039827E-3</v>
-      </c>
-      <c r="P105" s="18">
-        <f t="shared" si="26"/>
-        <v>0.29720913374411029</v>
-      </c>
-      <c r="Q105" s="18">
-        <f t="shared" si="26"/>
-        <v>1.9558535903883678E-2</v>
-      </c>
-      <c r="R105" s="18">
-        <f t="shared" si="26"/>
-        <v>0.28391340093176209</v>
-      </c>
-      <c r="S105" s="18">
-        <f t="shared" si="26"/>
-        <v>0.14172892209178234</v>
-      </c>
-      <c r="T105" s="18">
-        <f t="shared" si="26"/>
-        <v>0.57449990652458394</v>
-      </c>
-      <c r="U105" s="18">
-        <f t="shared" si="26"/>
-        <v>1.3061030634053949E-3</v>
-      </c>
-      <c r="V105" s="18">
-        <f t="shared" si="26"/>
-        <v>0.82521048262777175</v>
-      </c>
-      <c r="W105" s="18">
-        <f t="shared" si="26"/>
-        <v>-0.17145270270270274</v>
-      </c>
-      <c r="X105" s="18"/>
-      <c r="Y105" s="18"/>
-      <c r="Z105" s="18"/>
-      <c r="AA105" s="18"/>
-      <c r="AB105" s="18"/>
-      <c r="AC105" s="18"/>
+        <v>161</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:V105" si="38">(B22*(1-$AE$91))+B77+B88+B81</f>
+        <v>1251155108.1282625</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="38"/>
+        <v>2448732985.3343277</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="38"/>
+        <v>1899350285.8563261</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="38"/>
+        <v>1692907283.1220484</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="38"/>
+        <v>1524717424.8073578</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="38"/>
+        <v>1683436788.4663186</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="38"/>
+        <v>1688940939.5973153</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="38"/>
+        <v>1482013174.2480736</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="38"/>
+        <v>2487380959.4829726</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="38"/>
+        <v>3090681183.1966195</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="38"/>
+        <v>2496112453.3929901</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="38"/>
+        <v>3107840765.5978127</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="38"/>
+        <v>3599256276.4106388</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="38"/>
+        <v>3663478100.9197121</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="38"/>
+        <v>4677379219.4879436</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="38"/>
+        <v>4513815610.2411137</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="38"/>
+        <v>6058758488.690032</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="38"/>
+        <v>5934326124.7825012</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="38"/>
+        <v>9596597365.1503849</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="38"/>
+        <v>9795559681.8294792</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="38"/>
+        <v>16162039025.602783</v>
+      </c>
+      <c r="W105" s="1">
+        <f>(W22*(1-$AE$91))+W77+W88+W81</f>
+        <v>14214821426.795921</v>
+      </c>
+      <c r="X105" s="26">
+        <f>W105*(1+$AE$106)</f>
+        <v>15386733320.566261</v>
+      </c>
+      <c r="Y105" s="26">
+        <f t="shared" ref="Y105:AB105" si="39">X105*(1+$AE$106)</f>
+        <v>16655261094.728279</v>
+      </c>
+      <c r="Z105" s="26">
+        <f t="shared" si="39"/>
+        <v>18028370048.033085</v>
+      </c>
+      <c r="AA105" s="26">
+        <f t="shared" si="39"/>
+        <v>19514682162.004196</v>
+      </c>
+      <c r="AB105" s="26">
+        <f t="shared" si="39"/>
+        <v>21123530239.806286</v>
+      </c>
+      <c r="AC105" s="27" t="s">
+        <v>162</v>
+      </c>
       <c r="AD105" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE105" s="22">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.8687730234577397E-2</v>
+        <v>7.8688319967425965E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-410000000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>1395000000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>1264000000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>1335000000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>1287000000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>1517000000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>1468000000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>1239000000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>2186000000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>3047000000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>2158000000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>2325000000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>2781000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>2759000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>3579000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>3649000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>4685000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>5349000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>8422000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>8433000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>15392000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>12753000000</v>
-      </c>
-      <c r="X106" s="26">
-        <f>W106*(1+$AE$106)</f>
-        <v>13635205221.069305</v>
-      </c>
-      <c r="Y106" s="26">
-        <f t="shared" ref="Y106:AB106" si="27">X106*(1+$AE$106)</f>
-        <v>14578438125.984133</v>
-      </c>
-      <c r="Z106" s="26">
-        <f t="shared" si="27"/>
-        <v>15586920383.474842</v>
-      </c>
-      <c r="AA106" s="26">
-        <f t="shared" si="27"/>
-        <v>16665165701.650415</v>
-      </c>
-      <c r="AB106" s="26">
-        <f t="shared" si="27"/>
-        <v>17818000030.199081</v>
+      <c r="A106" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="18">
+        <f t="shared" ref="C106:W106" si="40">(C107/B107)-1</f>
+        <v>-4.4024390243902438</v>
+      </c>
+      <c r="D106" s="18">
+        <f t="shared" si="40"/>
+        <v>-9.3906810035842336E-2</v>
+      </c>
+      <c r="E106" s="18">
+        <f t="shared" si="40"/>
+        <v>5.6170886075949333E-2</v>
+      </c>
+      <c r="F106" s="18">
+        <f t="shared" si="40"/>
+        <v>-3.5955056179775235E-2</v>
+      </c>
+      <c r="G106" s="18">
+        <f t="shared" si="40"/>
+        <v>0.1787101787101788</v>
+      </c>
+      <c r="H106" s="18">
+        <f t="shared" si="40"/>
+        <v>-3.2300593276203049E-2</v>
+      </c>
+      <c r="I106" s="18">
+        <f t="shared" si="40"/>
+        <v>-0.15599455040871935</v>
+      </c>
+      <c r="J106" s="18">
+        <f t="shared" si="40"/>
+        <v>0.76432606941081516</v>
+      </c>
+      <c r="K106" s="18">
+        <f t="shared" si="40"/>
+        <v>0.39387008234217746</v>
+      </c>
+      <c r="L106" s="18">
+        <f t="shared" si="40"/>
+        <v>-0.29176238923531339</v>
+      </c>
+      <c r="M106" s="18">
+        <f t="shared" si="40"/>
+        <v>7.7386468952733933E-2</v>
+      </c>
+      <c r="N106" s="18">
+        <f t="shared" si="40"/>
+        <v>0.19612903225806444</v>
+      </c>
+      <c r="O106" s="18">
+        <f t="shared" si="40"/>
+        <v>-7.9108234448039827E-3</v>
+      </c>
+      <c r="P106" s="18">
+        <f t="shared" si="40"/>
+        <v>0.29720913374411029</v>
+      </c>
+      <c r="Q106" s="18">
+        <f t="shared" si="40"/>
+        <v>1.9558535903883678E-2</v>
+      </c>
+      <c r="R106" s="18">
+        <f t="shared" si="40"/>
+        <v>0.28391340093176209</v>
+      </c>
+      <c r="S106" s="18">
+        <f t="shared" si="40"/>
+        <v>0.14172892209178234</v>
+      </c>
+      <c r="T106" s="18">
+        <f t="shared" si="40"/>
+        <v>0.57449990652458394</v>
+      </c>
+      <c r="U106" s="18">
+        <f t="shared" si="40"/>
+        <v>1.3061030634053949E-3</v>
+      </c>
+      <c r="V106" s="18">
+        <f t="shared" si="40"/>
+        <v>0.82521048262777175</v>
+      </c>
+      <c r="W106" s="18">
+        <f t="shared" si="40"/>
+        <v>-0.17145270270270274</v>
+      </c>
+      <c r="X106" s="66">
+        <v>17977000000</v>
+      </c>
+      <c r="Y106" s="66">
+        <v>20160000000</v>
+      </c>
+      <c r="Z106" s="66">
+        <v>21886000000</v>
+      </c>
+      <c r="AA106" s="66">
+        <v>23916666666.666698</v>
+      </c>
+      <c r="AB106" s="66">
+        <v>25871166666.666698</v>
       </c>
       <c r="AC106" s="27" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="AD106" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AE106" s="29">
         <f>(SUM(X4,Y4,Z4,AA4,AB4)/5)</f>
-        <v>6.9176289584357023E-2</v>
+        <v>8.2442955742040164E-2</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-410000000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1395000000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1264000000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1335000000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1287000000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1517000000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1468000000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1239000000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>2186000000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>3047000000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>2158000000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>2325000000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>2781000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>2759000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>3579000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>3649000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>4685000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>5349000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>8422000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>8433000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>15392000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>12753000000</v>
+      </c>
       <c r="X107" s="27"/>
       <c r="Y107" s="27"/>
       <c r="Z107" s="27"/>
       <c r="AA107" s="27"/>
-      <c r="AB107" s="30">
+      <c r="AB107" s="67">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>340179216948.74603</v>
-      </c>
-      <c r="AC107" s="31" t="s">
+        <v>493923927018.4364</v>
+      </c>
+      <c r="AC107" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD107" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE107" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="X108" s="67">
+        <f t="shared" ref="X108:AA108" si="41">X107+X106</f>
+        <v>17977000000</v>
+      </c>
+      <c r="Y108" s="67">
+        <f t="shared" si="41"/>
+        <v>20160000000</v>
+      </c>
+      <c r="Z108" s="67">
+        <f t="shared" si="41"/>
+        <v>21886000000</v>
+      </c>
+      <c r="AA108" s="67">
+        <f t="shared" si="41"/>
+        <v>23916666666.666698</v>
+      </c>
+      <c r="AB108" s="67">
+        <f>AB107+AB106</f>
+        <v>519795093685.10309</v>
+      </c>
+      <c r="AC108" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD108" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AD107" s="32" t="s">
+      <c r="AE108" s="34">
+        <f>AE105</f>
+        <v>7.8688319967425965E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="X109" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="AE107" s="33">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X108" s="30">
-        <f t="shared" ref="X108:Z108" si="28">X107+X106</f>
-        <v>13635205221.069305</v>
-      </c>
-      <c r="Y108" s="30">
-        <f t="shared" si="28"/>
-        <v>14578438125.984133</v>
-      </c>
-      <c r="Z108" s="30">
-        <f t="shared" si="28"/>
-        <v>15586920383.474842</v>
-      </c>
-      <c r="AA108" s="30">
-        <f>AA107+AA106</f>
-        <v>16665165701.650415</v>
-      </c>
-      <c r="AB108" s="30">
-        <f>AB107+AB106</f>
-        <v>357997216978.94513</v>
-      </c>
-      <c r="AC108" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD108" s="34" t="s">
+      <c r="Y109" s="70"/>
+    </row>
+    <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="X110" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="AE108" s="35">
-        <f>AE105</f>
-        <v>7.8687730234577397E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="62" t="s">
+      <c r="Y110" s="36">
+        <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
+        <v>425013936601.14966</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="X111" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="Y109" s="63"/>
-    </row>
-    <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X110" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y110" s="37">
-        <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>295029897956.52643</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X111" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y111" s="37">
+      <c r="Y111" s="36">
         <f>W40</f>
         <v>10852000000</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X112" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y112" s="37">
+      <c r="X112" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y112" s="36">
         <f>AE99</f>
         <v>35146000000</v>
       </c>
     </row>
     <row r="113" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X113" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y113" s="37">
+      <c r="X113" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y113" s="36">
         <f>Y110+Y111-Y112</f>
-        <v>270735897956.52643</v>
+        <v>400719936601.14966</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X114" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y114" s="51">
+      <c r="X114" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y114" s="48">
         <f>W34*(1+(5*AC16))</f>
         <v>504410165.50073248</v>
       </c>
     </row>
     <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="38" t="s">
+      <c r="X115" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y115" s="38">
+        <f>Y113/Y114</f>
+        <v>794.4327137089939</v>
+      </c>
+    </row>
+    <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X116" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y116" s="58" cm="1">
+        <f t="array" ref="Y116">_FV(A1,"Price")</f>
+        <v>868.6</v>
+      </c>
+    </row>
+    <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X117" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="Y115" s="39">
-        <f>Y113/Y114</f>
-        <v>536.73759268464482</v>
-      </c>
-    </row>
-    <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X116" s="36" t="s">
+      <c r="Y117" s="40">
+        <f>Y115/Y116-1</f>
+        <v>-8.5387158981126032E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X118" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="Y116" s="61" cm="1">
-        <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>836</v>
-      </c>
-    </row>
-    <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y117" s="41">
-        <f>Y115/Y116-1</f>
-        <v>-0.35796938674085543</v>
-      </c>
-    </row>
-    <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y118" s="42" t="str">
+      <c r="Y118" s="41" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -11340,9 +11675,10 @@
     <hyperlink ref="V74" r:id="rId43" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="W36" r:id="rId44" location="phrase=M.C" tooltip="https://www.infogreffe.com/recherche-entreprise-dirigeants/resultats-entreprise-dirigeants.html?ga_cat=globale&amp;ga_q=M.C#phrase=M.C" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="W74" r:id="rId45" location="phrase=M.C" tooltip="https://www.infogreffe.com/recherche-entreprise-dirigeants/resultats-entreprise-dirigeants.html?ga_cat=globale&amp;ga_q=M.C#phrase=M.C" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="X1" r:id="rId46" display="https://finbox.com/OTCPK:LVMU.Y/explorer/revenue_proj" xr:uid="{C3F15A0D-8FE9-8043-8D68-4296404C5141}"/>
+    <hyperlink ref="X1" r:id="rId46" display="https://finbox.com/ENXTPA:MC/explorer/revenue_proj" xr:uid="{C3F15A0D-8FE9-8043-8D68-4296404C5141}"/>
+    <hyperlink ref="AC106" r:id="rId47" xr:uid="{1BAD05AD-4F44-E345-8B2F-0F047132F963}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId47"/>
+  <drawing r:id="rId48"/>
 </worksheet>
 </file>
--- a/Consumer/Louis Vuitton Moet Hennessy.xlsx
+++ b/Consumer/Louis Vuitton Moet Hennessy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4909C98-86AD-2E4D-BFCC-87B4D7641155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19FE998-80B2-A143-BB16-1FAFF873B98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23640" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2334,6 +2334,7 @@
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2354,7 +2355,7 @@
       <sheetData sheetId="12">
         <row r="8">
           <cell r="C8">
-            <v>3.7280000000000001E-2</v>
+            <v>3.7229999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2364,6 +2365,7 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2490,10 +2492,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>904.6</v>
-    <v>535</v>
-    <v>1.0119</v>
-    <v>24.9</v>
-    <v>2.9512999999999998E-2</v>
+    <v>537.29999999999995</v>
+    <v>1.0127999999999999</v>
+    <v>-9.1</v>
+    <v>-1.0843999999999999E-2</v>
     <v>EUR</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2501,24 +2503,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>872.4</v>
+    <v>838.1</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45093.666666666664</v>
+    <v>45100.666666666664</v>
     <v>0</v>
-    <v>845.5</v>
-    <v>423578300000</v>
+    <v>825</v>
+    <v>421319000000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>848.5</v>
-    <v>30.077000000000002</v>
-    <v>843.7</v>
-    <v>868.6</v>
+    <v>836.5</v>
+    <v>29.916599999999999</v>
+    <v>839.2</v>
+    <v>830.1</v>
     <v>502048400</v>
     <v>MC</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
-    <v>1017309</v>
-    <v>279930</v>
+    <v>333101</v>
+    <v>337020</v>
     <v>1971</v>
   </rv>
   <rv s="2">
@@ -3089,7 +3091,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="V82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X100" sqref="X100"/>
+      <selection pane="bottomRight" activeCell="X99" sqref="X99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4513,15 +4515,15 @@
       </c>
       <c r="AD16" s="64">
         <f>AE101/W3</f>
-        <v>5.3492915235401091</v>
+        <v>5.3207592442917759</v>
       </c>
       <c r="AE16" s="64">
         <f>AE101/W28</f>
-        <v>30.075142005112184</v>
+        <v>29.914725930133486</v>
       </c>
       <c r="AF16" s="65">
         <f>AE101/W107</f>
-        <v>33.214012389241745</v>
+        <v>33.036854073551318</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4769,15 +4771,15 @@
       </c>
       <c r="AD19" s="64">
         <f>AE101/X3</f>
-        <v>4.8047630390889084</v>
+        <v>4.7791351890923117</v>
       </c>
       <c r="AE19" s="64">
         <f>AE101/X28</f>
-        <v>25.694771003942979</v>
+        <v>25.557719138610857</v>
       </c>
       <c r="AF19" s="65">
         <f>AE101/X106</f>
-        <v>23.562235078155421</v>
+        <v>23.436557823886076</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -10400,7 +10402,7 @@
       </c>
       <c r="AE94" s="55">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7280000000000001E-2</v>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10478,7 +10480,7 @@
       </c>
       <c r="AE95" s="56" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.0119</v>
+        <v>1.0127999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10633,7 +10635,7 @@
       </c>
       <c r="AE97" s="54">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>8.4555968000000009E-2</v>
+        <v>8.4598655999999994E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10864,7 +10866,7 @@
       </c>
       <c r="AE100" s="52">
         <f>AE99/AE103</f>
-        <v>7.6616826272338304E-2</v>
+        <v>7.6996045699013069E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10942,7 +10944,7 @@
       </c>
       <c r="AE101" s="36" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>423578300000</v>
+        <v>421319000000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11020,7 +11022,7 @@
       </c>
       <c r="AE102" s="52">
         <f>AE101/AE103</f>
-        <v>0.92338317372766165</v>
+        <v>0.92300395430098692</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11098,7 +11100,7 @@
       </c>
       <c r="AE103" s="57">
         <f>AE99+AE101</f>
-        <v>458724300000</v>
+        <v>456465000000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -11296,7 +11298,7 @@
       </c>
       <c r="AE105" s="22">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.8688319967425965E-2</v>
+        <v>7.8698678895869553E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11490,7 +11492,7 @@
       <c r="AA107" s="27"/>
       <c r="AB107" s="67">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>493923927018.4364</v>
+        <v>493828644923.57367</v>
       </c>
       <c r="AC107" s="30" t="s">
         <v>139</v>
@@ -11521,7 +11523,7 @@
       </c>
       <c r="AB108" s="67">
         <f>AB107+AB106</f>
-        <v>519795093685.10309</v>
+        <v>519699811590.24036</v>
       </c>
       <c r="AC108" s="30" t="s">
         <v>136</v>
@@ -11531,7 +11533,7 @@
       </c>
       <c r="AE108" s="34">
         <f>AE105</f>
-        <v>7.8688319967425965E-2</v>
+        <v>7.8698678895869553E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11546,7 +11548,7 @@
       </c>
       <c r="Y110" s="36">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>425013936601.14966</v>
+        <v>424929933918.33734</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11573,7 +11575,7 @@
       </c>
       <c r="Y113" s="36">
         <f>Y110+Y111-Y112</f>
-        <v>400719936601.14966</v>
+        <v>400635933918.33734</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11591,7 +11593,7 @@
       </c>
       <c r="Y115" s="38">
         <f>Y113/Y114</f>
-        <v>794.4327137089939</v>
+        <v>794.26617725006088</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11600,7 +11602,7 @@
       </c>
       <c r="Y116" s="58" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>868.6</v>
+        <v>830.1</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11609,7 +11611,7 @@
       </c>
       <c r="Y117" s="40">
         <f>Y115/Y116-1</f>
-        <v>-8.5387158981126032E-2</v>
+        <v>-4.3168079448185903E-2</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Louis Vuitton Moet Hennessy.xlsx
+++ b/Consumer/Louis Vuitton Moet Hennessy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19FE998-80B2-A143-BB16-1FAFF873B98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8930260-8D5E-EA40-934C-26BB5DFA7DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23640" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="166">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -565,18 +565,25 @@
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -917,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1072,6 +1079,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2329,12 +2342,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2351,14 +2365,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2366,6 +2380,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2493,9 +2508,9 @@
     <v>Powered by Refinitiv</v>
     <v>904.6</v>
     <v>537.29999999999995</v>
-    <v>1.0127999999999999</v>
-    <v>-9.1</v>
-    <v>-1.0843999999999999E-2</v>
+    <v>1.0128999999999999</v>
+    <v>6.6</v>
+    <v>7.9509999999999997E-3</v>
     <v>EUR</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2503,24 +2518,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>838.1</v>
+    <v>837.1</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45100.666666666664</v>
+    <v>45103.463792071096</v>
     <v>0</v>
-    <v>825</v>
-    <v>421319000000</v>
+    <v>826.9</v>
+    <v>416750400000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>836.5</v>
-    <v>29.916599999999999</v>
-    <v>839.2</v>
+    <v>837.1</v>
+    <v>29.592199999999998</v>
     <v>830.1</v>
+    <v>836.7</v>
     <v>502048400</v>
     <v>MC</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
-    <v>333101</v>
-    <v>337020</v>
+    <v>61836</v>
+    <v>346720</v>
     <v>1971</v>
   </rv>
   <rv s="2">
@@ -3088,10 +3103,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X99" sqref="X99"/>
+      <selection pane="bottomRight" activeCell="AB97" sqref="AB97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4515,15 +4530,15 @@
       </c>
       <c r="AD16" s="64">
         <f>AE101/W3</f>
-        <v>5.3207592442917759</v>
+        <v>5.2630632451000201</v>
       </c>
       <c r="AE16" s="64">
         <f>AE101/W28</f>
-        <v>29.914725930133486</v>
+        <v>29.590343652371484</v>
       </c>
       <c r="AF16" s="65">
         <f>AE101/W107</f>
-        <v>33.036854073551318</v>
+        <v>32.67861679604799</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4771,15 +4786,15 @@
       </c>
       <c r="AD19" s="64">
         <f>AE101/X3</f>
-        <v>4.7791351890923117</v>
+        <v>4.7273123255972234</v>
       </c>
       <c r="AE19" s="64">
         <f>AE101/X28</f>
-        <v>25.557719138610857</v>
+        <v>25.280582347588716</v>
       </c>
       <c r="AF19" s="65">
         <f>AE101/X106</f>
-        <v>23.436557823886076</v>
+        <v>23.182421983645771</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -4892,7 +4907,7 @@
         <v>6.3224318912687316E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4981,6 +4996,12 @@
       <c r="AB21" s="63">
         <f t="shared" si="11"/>
         <v>0.29801020408163265</v>
+      </c>
+      <c r="AE21" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF21" s="44" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5052,6 +5073,14 @@
       </c>
       <c r="W22" s="10">
         <v>21001000000</v>
+      </c>
+      <c r="AE22" s="77">
+        <f>(-1*W98)/AE101</f>
+        <v>1.4457094702248636E-2</v>
+      </c>
+      <c r="AF22" s="78">
+        <f>W107/AE101</f>
+        <v>3.0601050412909021E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10402,7 +10431,7 @@
       </c>
       <c r="AE94" s="55">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10480,7 +10509,7 @@
       </c>
       <c r="AE95" s="56" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.0127999999999999</v>
+        <v>1.0128999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10635,7 +10664,7 @@
       </c>
       <c r="AE97" s="54">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>8.4598655999999994E-2</v>
+        <v>8.4601269000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10866,7 +10895,7 @@
       </c>
       <c r="AE100" s="52">
         <f>AE99/AE103</f>
-        <v>7.6996045699013069E-2</v>
+        <v>7.7774463350449352E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10944,7 +10973,7 @@
       </c>
       <c r="AE101" s="36" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>421319000000</v>
+        <v>416750400000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11022,7 +11051,7 @@
       </c>
       <c r="AE102" s="52">
         <f>AE101/AE103</f>
-        <v>0.92300395430098692</v>
+        <v>0.92222553664955065</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11100,7 +11129,7 @@
       </c>
       <c r="AE103" s="57">
         <f>AE99+AE101</f>
-        <v>456465000000</v>
+        <v>451896400000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -11298,7 +11327,7 @@
       </c>
       <c r="AE105" s="22">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.8698678895869553E-2</v>
+        <v>7.864144085059474E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11492,7 +11521,7 @@
       <c r="AA107" s="27"/>
       <c r="AB107" s="67">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>493828644923.57367</v>
+        <v>494355584280.30835</v>
       </c>
       <c r="AC107" s="30" t="s">
         <v>139</v>
@@ -11523,7 +11552,7 @@
       </c>
       <c r="AB108" s="67">
         <f>AB107+AB106</f>
-        <v>519699811590.24036</v>
+        <v>520226750946.97504</v>
       </c>
       <c r="AC108" s="30" t="s">
         <v>136</v>
@@ -11533,7 +11562,7 @@
       </c>
       <c r="AE108" s="34">
         <f>AE105</f>
-        <v>7.8698678895869553E-2</v>
+        <v>7.864144085059474E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11548,7 +11577,7 @@
       </c>
       <c r="Y110" s="36">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>424929933918.33734</v>
+        <v>425394495589.61713</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11575,7 +11604,7 @@
       </c>
       <c r="Y113" s="36">
         <f>Y110+Y111-Y112</f>
-        <v>400635933918.33734</v>
+        <v>401100495589.61713</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11593,7 +11622,7 @@
       </c>
       <c r="Y115" s="38">
         <f>Y113/Y114</f>
-        <v>794.26617725006088</v>
+        <v>795.18717706936195</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11602,7 +11631,7 @@
       </c>
       <c r="Y116" s="58" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>830.1</v>
+        <v>836.7</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11611,7 +11640,7 @@
       </c>
       <c r="Y117" s="40">
         <f>Y115/Y116-1</f>
-        <v>-4.3168079448185903E-2</v>
+        <v>-4.9614943146453983E-2</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Louis Vuitton Moet Hennessy.xlsx
+++ b/Consumer/Louis Vuitton Moet Hennessy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8930260-8D5E-EA40-934C-26BB5DFA7DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E213C44-FC45-9345-95D3-AFF3BC6B373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,7 +583,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -746,7 +746,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -795,19 +795,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -840,46 +827,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -924,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -952,103 +899,43 @@
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1056,35 +943,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2368,7 +2290,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2507,10 +2429,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>904.6</v>
-    <v>537.29999999999995</v>
-    <v>1.0128999999999999</v>
-    <v>6.6</v>
-    <v>7.9509999999999997E-3</v>
+    <v>565.70000000000005</v>
+    <v>1.0144</v>
+    <v>8</v>
+    <v>9.356999999999999E-3</v>
     <v>EUR</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2518,24 +2440,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>837.1</v>
+    <v>864.7</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45103.463792071096</v>
+    <v>45107.666666666664</v>
     <v>0</v>
-    <v>826.9</v>
-    <v>416750400000</v>
+    <v>850.8</v>
+    <v>429251400000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>837.1</v>
-    <v>29.592199999999998</v>
-    <v>830.1</v>
-    <v>836.7</v>
+    <v>855.1</v>
+    <v>30.479900000000001</v>
+    <v>855</v>
+    <v>863</v>
     <v>502048400</v>
     <v>MC</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
-    <v>61836</v>
-    <v>346720</v>
+    <v>457169</v>
+    <v>330440</v>
     <v>1971</v>
   </rv>
   <rv s="2">
@@ -3103,17 +3025,17 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB97" sqref="AB97"/>
+      <selection pane="bottomRight" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="23" width="15" customWidth="1"/>
-    <col min="24" max="28" width="19" customWidth="1"/>
+    <col min="24" max="28" width="21.1640625" customWidth="1"/>
     <col min="29" max="29" width="21" customWidth="1"/>
     <col min="30" max="30" width="21.33203125" customWidth="1"/>
     <col min="31" max="31" width="21" customWidth="1"/>
@@ -3381,16 +3303,16 @@
       <c r="AB3" s="15">
         <v>117600000000</v>
       </c>
-      <c r="AC3" s="43" t="s">
+      <c r="AC3" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="AD3" s="44" t="s">
+      <c r="AD3" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="AE3" s="44" t="s">
+      <c r="AE3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="AF3" s="44" t="s">
+      <c r="AF3" s="27" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3503,19 +3425,19 @@
         <f t="shared" ref="AB4" si="2">(AB3/AA3)-1</f>
         <v>6.618313689936528E-2</v>
       </c>
-      <c r="AC4" s="45">
+      <c r="AC4" s="28">
         <f>(W4+V4+U4)/3</f>
         <v>0.16774310808440043</v>
       </c>
-      <c r="AD4" s="45">
+      <c r="AD4" s="28">
         <f>(W20+V20+U20)/3</f>
         <v>0.22931209935446953</v>
       </c>
-      <c r="AE4" s="45">
+      <c r="AE4" s="28">
         <f>(W29+V29+U29)/3</f>
         <v>0.46187151904379231</v>
       </c>
-      <c r="AF4" s="45">
+      <c r="AF4" s="28">
         <f>(W106+V106+U106)/3</f>
         <v>0.21835462766282479</v>
       </c>
@@ -3664,16 +3586,16 @@
       <c r="W6" s="10">
         <v>54196000000</v>
       </c>
-      <c r="AC6" s="43" t="s">
+      <c r="AC6" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="AD6" s="44" t="s">
+      <c r="AD6" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AE6" s="44" t="s">
+      <c r="AE6" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="AF6" s="44" t="s">
+      <c r="AF6" s="27" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3747,19 +3669,19 @@
       <c r="W7" s="2">
         <v>0.68440000000000001</v>
       </c>
-      <c r="AC7" s="45">
+      <c r="AC7" s="28">
         <f>W7</f>
         <v>0.68440000000000001</v>
       </c>
-      <c r="AD7" s="46">
+      <c r="AD7" s="29">
         <f>W21</f>
         <v>0.32900000000000001</v>
       </c>
-      <c r="AE7" s="46">
+      <c r="AE7" s="29">
         <f>W30</f>
         <v>0.1779</v>
       </c>
-      <c r="AF7" s="46">
+      <c r="AF7" s="29">
         <f>W107/W3</f>
         <v>0.16105526368963427</v>
       </c>
@@ -3768,70 +3690,70 @@
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="21">
         <v>0</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="21">
         <v>0</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="21">
         <v>0</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="21">
         <v>0</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="21">
         <v>0</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="21">
         <v>0</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="21">
         <v>0</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="21">
         <v>0</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="21">
         <v>0</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="21">
         <v>0</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="21">
         <v>0</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="21">
         <v>0</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="21">
         <v>0</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="21">
         <v>0</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="21">
         <v>0</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="21">
         <v>0</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="21">
         <v>0</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="21">
         <v>0</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="21">
         <v>0</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="21">
         <v>0</v>
       </c>
-      <c r="V8" s="23">
+      <c r="V8" s="21">
         <v>0</v>
       </c>
-      <c r="W8" s="23">
+      <c r="W8" s="21">
         <v>0</v>
       </c>
     </row>
@@ -3932,16 +3854,16 @@
       <c r="Z9" s="18"/>
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
-      <c r="AC9" s="43" t="s">
+      <c r="AC9" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="AD9" s="44" t="s">
+      <c r="AD9" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="AE9" s="44" t="s">
+      <c r="AE9" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="AF9" s="44" t="s">
+      <c r="AF9" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4015,19 +3937,19 @@
       <c r="W10" s="1">
         <v>5027000000</v>
       </c>
-      <c r="AC10" s="45">
+      <c r="AC10" s="28">
         <f>W9</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="46">
+      <c r="AD10" s="29">
         <f>W13</f>
         <v>0.41899878763386544</v>
       </c>
-      <c r="AE10" s="46">
+      <c r="AE10" s="29">
         <f>W80</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="46">
+      <c r="AF10" s="29">
         <f>W89</f>
         <v>5.5528894726207312E-2</v>
       </c>
@@ -4173,16 +4095,16 @@
       <c r="W12" s="1">
         <v>33178000000</v>
       </c>
-      <c r="AC12" s="43" t="s">
+      <c r="AC12" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="AD12" s="44" t="s">
+      <c r="AD12" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="AE12" s="44" t="s">
+      <c r="AE12" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="AF12" s="44" t="s">
+      <c r="AF12" s="27" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4283,15 +4205,15 @@
       <c r="Z13" s="18"/>
       <c r="AA13" s="18"/>
       <c r="AB13" s="18"/>
-      <c r="AC13" s="45">
+      <c r="AC13" s="28">
         <f>W28/W72</f>
         <v>0.25555696684872348</v>
       </c>
-      <c r="AD13" s="46">
+      <c r="AD13" s="29">
         <f>W28/W54</f>
         <v>0.10460021092345854</v>
       </c>
-      <c r="AE13" s="46">
+      <c r="AE13" s="29">
         <f>W22/(W72+W56+W61)</f>
         <v>0.2326800137385466</v>
       </c>
@@ -4441,16 +4363,16 @@
       <c r="W15" s="1">
         <v>33181000000</v>
       </c>
-      <c r="AC15" s="43" t="s">
+      <c r="AC15" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="AD15" s="44" t="s">
+      <c r="AD15" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="AE15" s="44" t="s">
+      <c r="AE15" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="AF15" s="44" t="s">
+      <c r="AF15" s="27" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4528,17 +4450,17 @@
         <f>(W35+V35+U35+T35+S35)/5</f>
         <v>7.9344895169914653E-5</v>
       </c>
-      <c r="AD16" s="64">
+      <c r="AD16" s="36">
         <f>AE101/W3</f>
-        <v>5.2630632451000201</v>
-      </c>
-      <c r="AE16" s="64">
+        <v>5.4209360476864017</v>
+      </c>
+      <c r="AE16" s="36">
         <f>AE101/W28</f>
-        <v>29.590343652371484</v>
-      </c>
-      <c r="AF16" s="65">
+        <v>30.477946606077818</v>
+      </c>
+      <c r="AF16" s="37">
         <f>AE101/W107</f>
-        <v>32.67861679604799</v>
+        <v>33.658856739590682</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4682,16 +4604,16 @@
       <c r="W18" s="1">
         <v>6226000000</v>
       </c>
-      <c r="AC18" s="43" t="s">
+      <c r="AC18" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD18" s="44" t="s">
+      <c r="AD18" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AE18" s="44" t="s">
+      <c r="AE18" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AF18" s="44" t="s">
+      <c r="AF18" s="27" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4765,36 +4687,36 @@
       <c r="W19" s="10">
         <v>26054000000</v>
       </c>
-      <c r="X19" s="62">
+      <c r="X19" s="34">
         <v>30860000000</v>
       </c>
-      <c r="Y19" s="62">
+      <c r="Y19" s="34">
         <v>33810000000</v>
       </c>
-      <c r="Z19" s="62">
+      <c r="Z19" s="34">
         <v>36513000000</v>
       </c>
-      <c r="AA19" s="62">
+      <c r="AA19" s="34">
         <v>32962000000</v>
       </c>
-      <c r="AB19" s="62">
+      <c r="AB19" s="34">
         <v>35046000000</v>
       </c>
-      <c r="AC19" s="47">
+      <c r="AC19" s="30">
         <f>W40-W56-W61</f>
         <v>-24294000000</v>
       </c>
-      <c r="AD19" s="64">
+      <c r="AD19" s="36">
         <f>AE101/X3</f>
-        <v>4.7273123255972234</v>
-      </c>
-      <c r="AE19" s="64">
+        <v>4.8691145443408423</v>
+      </c>
+      <c r="AE19" s="36">
         <f>AE101/X28</f>
-        <v>25.280582347588716</v>
-      </c>
-      <c r="AF19" s="65">
+        <v>26.038908098271154</v>
+      </c>
+      <c r="AF19" s="37">
         <f>AE101/X106</f>
-        <v>23.182421983645771</v>
+        <v>23.877810535684485</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -4977,30 +4899,30 @@
       <c r="W21" s="2">
         <v>0.32900000000000001</v>
       </c>
-      <c r="X21" s="63">
+      <c r="X21" s="35">
         <f>X19/X3</f>
         <v>0.35005331336917805</v>
       </c>
-      <c r="Y21" s="63">
+      <c r="Y21" s="35">
         <f t="shared" ref="Y21:AB21" si="11">Y19/Y3</f>
         <v>0.35526647612642903</v>
       </c>
-      <c r="Z21" s="63">
+      <c r="Z21" s="35">
         <f t="shared" si="11"/>
         <v>0.35867387033398823</v>
       </c>
-      <c r="AA21" s="63">
+      <c r="AA21" s="35">
         <f t="shared" si="11"/>
         <v>0.2988395285584769</v>
       </c>
-      <c r="AB21" s="63">
+      <c r="AB21" s="35">
         <f t="shared" si="11"/>
         <v>0.29801020408163265</v>
       </c>
-      <c r="AE21" s="43" t="s">
+      <c r="AE21" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="AF21" s="44" t="s">
+      <c r="AF21" s="27" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5074,13 +4996,13 @@
       <c r="W22" s="10">
         <v>21001000000</v>
       </c>
-      <c r="AE22" s="77">
+      <c r="AE22" s="41">
         <f>(-1*W98)/AE101</f>
-        <v>1.4457094702248636E-2</v>
-      </c>
-      <c r="AF22" s="78">
+        <v>1.4036063714643679E-2</v>
+      </c>
+      <c r="AF22" s="42">
         <f>W107/AE101</f>
-        <v>3.0601050412909021E-2</v>
+        <v>2.9709862332423377E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5508,19 +5430,19 @@
       <c r="W28" s="11">
         <v>14084000000</v>
       </c>
-      <c r="X28" s="59">
+      <c r="X28" s="31">
         <v>16485000000</v>
       </c>
-      <c r="Y28" s="59">
+      <c r="Y28" s="31">
         <v>18257000000</v>
       </c>
-      <c r="Z28" s="59">
+      <c r="Z28" s="31">
         <v>19971000000</v>
       </c>
-      <c r="AA28" s="59">
+      <c r="AA28" s="31">
         <v>20828000000</v>
       </c>
-      <c r="AB28" s="59">
+      <c r="AB28" s="31">
         <v>22574000000</v>
       </c>
     </row>
@@ -5704,23 +5626,23 @@
       <c r="W30" s="2">
         <v>0.1779</v>
       </c>
-      <c r="X30" s="60">
+      <c r="X30" s="32">
         <f>X28/X3</f>
         <v>0.1869938065745593</v>
       </c>
-      <c r="Y30" s="60">
+      <c r="Y30" s="32">
         <f t="shared" ref="Y30:AB30" si="18">Y28/Y3</f>
         <v>0.19183969401479489</v>
       </c>
-      <c r="Z30" s="60">
+      <c r="Z30" s="32">
         <f t="shared" si="18"/>
         <v>0.1961787819253438</v>
       </c>
-      <c r="AA30" s="60">
+      <c r="AA30" s="32">
         <f t="shared" si="18"/>
         <v>0.18883046237533999</v>
       </c>
-      <c r="AB30" s="60">
+      <c r="AB30" s="32">
         <f t="shared" si="18"/>
         <v>0.19195578231292518</v>
       </c>
@@ -5795,19 +5717,19 @@
       <c r="W31" s="12">
         <v>27.96</v>
       </c>
-      <c r="X31" s="61">
+      <c r="X31" s="33">
         <v>32.9</v>
       </c>
-      <c r="Y31" s="61">
+      <c r="Y31" s="33">
         <v>36.44</v>
       </c>
-      <c r="Z31" s="61">
+      <c r="Z31" s="33">
         <v>39.86</v>
       </c>
-      <c r="AA31" s="61">
+      <c r="AA31" s="33">
         <v>41.57</v>
       </c>
-      <c r="AB31" s="61">
+      <c r="AB31" s="33">
         <v>45.05</v>
       </c>
     </row>
@@ -6029,87 +5951,87 @@
         <v>151</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="42">
+      <c r="C35" s="25">
         <f>(C34-B34)/B34</f>
         <v>1.5984924399757156E-3</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D35" s="25">
         <f t="shared" ref="D35:G35" si="19">(D34-C34)/C34</f>
         <v>2.0299699610447368E-3</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="25">
         <f t="shared" si="19"/>
         <v>3.6979051185813075E-4</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="25">
         <f t="shared" si="19"/>
         <v>-3.2608048082341745E-2</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="25">
         <f t="shared" si="19"/>
         <v>7.2243810072294117E-3</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="25">
         <f t="shared" ref="H35" si="20">(H34-G34)/G34</f>
         <v>5.0678536711124744E-3</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="25">
         <f t="shared" ref="I35" si="21">(I34-H34)/H34</f>
         <v>-8.920847941377142E-3</v>
       </c>
-      <c r="J35" s="42">
+      <c r="J35" s="25">
         <f t="shared" ref="J35" si="22">(J34-I34)/I34</f>
         <v>-1.6245367177126757E-3</v>
       </c>
-      <c r="K35" s="42">
+      <c r="K35" s="25">
         <f t="shared" ref="K35" si="23">(K34-J34)/J34</f>
         <v>1.032282955856368E-2</v>
       </c>
-      <c r="L35" s="42">
+      <c r="L35" s="25">
         <f t="shared" ref="L35" si="24">(L34-K34)/K34</f>
         <v>2.5988666516375443E-2</v>
       </c>
-      <c r="M35" s="42">
+      <c r="M35" s="25">
         <f t="shared" ref="M35" si="25">(M34-L34)/L34</f>
         <v>2.036226624522814E-2</v>
       </c>
-      <c r="N35" s="42">
+      <c r="N35" s="25">
         <f t="shared" ref="N35" si="26">(N34-M34)/M34</f>
         <v>1.9663203997837232E-3</v>
       </c>
-      <c r="O35" s="42">
+      <c r="O35" s="25">
         <f t="shared" ref="O35" si="27">(O34-N34)/N34</f>
         <v>1.2802337037974656E-3</v>
       </c>
-      <c r="P35" s="42">
+      <c r="P35" s="25">
         <f t="shared" ref="P35" si="28">(P34-O34)/O34</f>
         <v>2.0505883505941899E-3</v>
       </c>
-      <c r="Q35" s="42">
+      <c r="Q35" s="25">
         <f t="shared" ref="Q35" si="29">(Q34-P34)/P34</f>
         <v>-5.0403950765631159E-4</v>
       </c>
-      <c r="R35" s="42">
+      <c r="R35" s="25">
         <f t="shared" ref="R35" si="30">(R34-Q34)/Q34</f>
         <v>-1.248746486258249E-3</v>
       </c>
-      <c r="S35" s="42">
+      <c r="S35" s="25">
         <f t="shared" ref="S35" si="31">(S34-R34)/R34</f>
         <v>-1.8283555245898739E-4</v>
       </c>
-      <c r="T35" s="42">
+      <c r="T35" s="25">
         <f t="shared" ref="T35" si="32">(T34-S34)/S34</f>
         <v>-1.5597374605327762E-4</v>
       </c>
-      <c r="U35" s="42">
+      <c r="U35" s="25">
         <f t="shared" ref="U35" si="33">(U34-T34)/T34</f>
         <v>7.3553377436183834E-4</v>
       </c>
-      <c r="V35" s="42">
+      <c r="V35" s="25">
         <f t="shared" ref="V35" si="34">(V34-U34)/U34</f>
         <v>0</v>
       </c>
-      <c r="W35" s="42">
+      <c r="W35" s="25">
         <f t="shared" ref="W35" si="35">(W34-V34)/V34</f>
         <v>0</v>
       </c>
@@ -9171,70 +9093,70 @@
       <c r="A79" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="23">
+      <c r="B79" s="21">
         <v>0</v>
       </c>
-      <c r="C79" s="23">
+      <c r="C79" s="21">
         <v>0</v>
       </c>
-      <c r="D79" s="23">
+      <c r="D79" s="21">
         <v>0</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="21">
         <v>0</v>
       </c>
-      <c r="F79" s="23">
+      <c r="F79" s="21">
         <v>0</v>
       </c>
-      <c r="G79" s="23">
+      <c r="G79" s="21">
         <v>0</v>
       </c>
-      <c r="H79" s="23">
+      <c r="H79" s="21">
         <v>0</v>
       </c>
-      <c r="I79" s="23">
+      <c r="I79" s="21">
         <v>0</v>
       </c>
-      <c r="J79" s="23">
+      <c r="J79" s="21">
         <v>0</v>
       </c>
-      <c r="K79" s="23">
+      <c r="K79" s="21">
         <v>0</v>
       </c>
-      <c r="L79" s="23">
+      <c r="L79" s="21">
         <v>0</v>
       </c>
-      <c r="M79" s="23">
+      <c r="M79" s="21">
         <v>0</v>
       </c>
-      <c r="N79" s="23">
+      <c r="N79" s="21">
         <v>0</v>
       </c>
-      <c r="O79" s="23">
+      <c r="O79" s="21">
         <v>0</v>
       </c>
-      <c r="P79" s="23">
+      <c r="P79" s="21">
         <v>0</v>
       </c>
-      <c r="Q79" s="23">
+      <c r="Q79" s="21">
         <v>0</v>
       </c>
-      <c r="R79" s="23">
+      <c r="R79" s="21">
         <v>0</v>
       </c>
-      <c r="S79" s="23">
+      <c r="S79" s="21">
         <v>0</v>
       </c>
-      <c r="T79" s="23">
+      <c r="T79" s="21">
         <v>0</v>
       </c>
-      <c r="U79" s="23">
+      <c r="U79" s="21">
         <v>0</v>
       </c>
-      <c r="V79" s="23">
+      <c r="V79" s="21">
         <v>0</v>
       </c>
-      <c r="W79" s="23">
+      <c r="W79" s="21">
         <v>0</v>
       </c>
     </row>
@@ -9549,10 +9471,10 @@
       <c r="W83" s="1">
         <v>-4169000000</v>
       </c>
-      <c r="AD83" s="71" t="s">
+      <c r="AD83" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="AE83" s="72"/>
+      <c r="AE83" s="67"/>
     </row>
     <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9624,10 +9546,10 @@
       <c r="W84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD84" s="73" t="s">
+      <c r="AD84" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="AE84" s="74"/>
+      <c r="AE84" s="68"/>
     </row>
     <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9699,10 +9621,10 @@
       <c r="W85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD85" s="49" t="s">
+      <c r="AD85" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="AE85" s="50">
+      <c r="AE85" s="45">
         <f>W17</f>
         <v>382000000</v>
       </c>
@@ -9777,10 +9699,10 @@
       <c r="W86" s="1">
         <v>-6375000000</v>
       </c>
-      <c r="AD86" s="49" t="s">
+      <c r="AD86" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="AE86" s="50">
+      <c r="AE86" s="45">
         <f>W56</f>
         <v>11991000000</v>
       </c>
@@ -9855,10 +9777,10 @@
       <c r="W87" s="10">
         <v>17835000000</v>
       </c>
-      <c r="AD87" s="49" t="s">
+      <c r="AD87" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="AE87" s="50">
+      <c r="AE87" s="45">
         <f>W61</f>
         <v>23155000000</v>
       </c>
@@ -9933,10 +9855,10 @@
       <c r="W88" s="1">
         <v>-4397000000</v>
       </c>
-      <c r="AD88" s="51" t="s">
+      <c r="AD88" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="AE88" s="52">
+      <c r="AE88" s="47">
         <f>AE85/(AE86+AE87)</f>
         <v>1.0868946679565242E-2</v>
       </c>
@@ -10039,10 +9961,10 @@
       <c r="AA89" s="18"/>
       <c r="AB89" s="18"/>
       <c r="AC89" s="18"/>
-      <c r="AD89" s="49" t="s">
+      <c r="AD89" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="AE89" s="50">
+      <c r="AE89" s="45">
         <f>W27</f>
         <v>5362000000</v>
       </c>
@@ -10117,10 +10039,10 @@
       <c r="W90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD90" s="49" t="s">
+      <c r="AD90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AE90" s="50">
+      <c r="AE90" s="45">
         <f>W25</f>
         <v>20115000000</v>
       </c>
@@ -10195,10 +10117,10 @@
       <c r="W91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD91" s="51" t="s">
+      <c r="AD91" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="AE91" s="52">
+      <c r="AE91" s="47">
         <f>AE89/AE90</f>
         <v>0.26656723837931889</v>
       </c>
@@ -10273,10 +10195,10 @@
       <c r="W92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD92" s="53" t="s">
+      <c r="AD92" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="AE92" s="54">
+      <c r="AE92" s="47">
         <f>AE88*(1-AE91)</f>
         <v>7.9716415791014662E-3</v>
       </c>
@@ -10351,10 +10273,10 @@
       <c r="W93" s="1">
         <v>-1523000000</v>
       </c>
-      <c r="AD93" s="75" t="s">
+      <c r="AD93" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="AE93" s="76"/>
+      <c r="AE93" s="69"/>
     </row>
     <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10426,12 +10348,12 @@
       <c r="W94" s="10">
         <v>-5920000000</v>
       </c>
-      <c r="AD94" s="49" t="s">
+      <c r="AD94" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="AE94" s="55">
+      <c r="AE94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10504,12 +10426,12 @@
       <c r="W95" s="1">
         <v>-3891000000</v>
       </c>
-      <c r="AD95" s="49" t="s">
+      <c r="AD95" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AE95" s="56" cm="1">
+      <c r="AE95" s="49" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.0128999999999999</v>
+        <v>1.0144</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10582,10 +10504,10 @@
       <c r="W96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD96" s="49" t="s">
+      <c r="AD96" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AE96" s="55">
+      <c r="AE96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10659,12 +10581,12 @@
       <c r="W97" s="1">
         <v>-1616000000</v>
       </c>
-      <c r="AD97" s="53" t="s">
+      <c r="AD97" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="AE97" s="54">
+      <c r="AE97" s="47">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>8.4601269000000007E-2</v>
+        <v>8.4654624000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10737,10 +10659,10 @@
       <c r="W98" s="1">
         <v>-6025000000</v>
       </c>
-      <c r="AD98" s="75" t="s">
+      <c r="AD98" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="AE98" s="76"/>
+      <c r="AE98" s="69"/>
     </row>
     <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10812,10 +10734,10 @@
       <c r="W99" s="1">
         <v>-1154000000</v>
       </c>
-      <c r="AD99" s="49" t="s">
+      <c r="AD99" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="AE99" s="50">
+      <c r="AE99" s="45">
         <f>AE86+AE87</f>
         <v>35146000000</v>
       </c>
@@ -10890,12 +10812,12 @@
       <c r="W100" s="10">
         <v>-12686000000</v>
       </c>
-      <c r="AD100" s="51" t="s">
+      <c r="AD100" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="AE100" s="52">
+      <c r="AE100" s="47">
         <f>AE99/AE103</f>
-        <v>7.7774463350449352E-2</v>
+        <v>7.5680871598333671E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10968,12 +10890,12 @@
       <c r="W101" s="1">
         <v>55000000</v>
       </c>
-      <c r="AD101" s="49" t="s">
+      <c r="AD101" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="AE101" s="36" cm="1">
+      <c r="AE101" s="50" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>416750400000</v>
+        <v>429251400000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11046,12 +10968,12 @@
       <c r="W102" s="10">
         <v>-717000000</v>
       </c>
-      <c r="AD102" s="51" t="s">
+      <c r="AD102" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="AE102" s="52">
+      <c r="AE102" s="47">
         <f>AE101/AE103</f>
-        <v>0.92222553664955065</v>
+        <v>0.9243191284016663</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11124,12 +11046,12 @@
       <c r="W103" s="1">
         <v>7817000000</v>
       </c>
-      <c r="AD103" s="53" t="s">
+      <c r="AD103" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="AE103" s="57">
+      <c r="AE103" s="51">
         <f>AE99+AE101</f>
-        <v>451896400000</v>
+        <v>464397400000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -11202,10 +11124,10 @@
       <c r="W104" s="11">
         <v>7100000000</v>
       </c>
-      <c r="AD104" s="24" t="s">
+      <c r="AD104" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="AE104" s="25"/>
+      <c r="AE104" s="43"/>
     </row>
     <row r="105" spans="1:31" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
@@ -11299,35 +11221,35 @@
         <f>(W22*(1-$AE$91))+W77+W88+W81</f>
         <v>14214821426.795921</v>
       </c>
-      <c r="X105" s="26">
+      <c r="X105" s="22">
         <f>W105*(1+$AE$106)</f>
         <v>15386733320.566261</v>
       </c>
-      <c r="Y105" s="26">
+      <c r="Y105" s="22">
         <f t="shared" ref="Y105:AB105" si="39">X105*(1+$AE$106)</f>
         <v>16655261094.728279</v>
       </c>
-      <c r="Z105" s="26">
+      <c r="Z105" s="22">
         <f t="shared" si="39"/>
         <v>18028370048.033085</v>
       </c>
-      <c r="AA105" s="26">
+      <c r="AA105" s="22">
         <f t="shared" si="39"/>
         <v>19514682162.004196</v>
       </c>
-      <c r="AB105" s="26">
+      <c r="AB105" s="22">
         <f t="shared" si="39"/>
         <v>21123530239.806286</v>
       </c>
-      <c r="AC105" s="27" t="s">
+      <c r="AC105" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="AD105" s="21" t="s">
+      <c r="AD105" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="AE105" s="22">
+      <c r="AE105" s="53">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.864144085059474E-2</v>
+        <v>7.8851189053626702E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11419,34 +11341,34 @@
         <f t="shared" si="40"/>
         <v>-0.17145270270270274</v>
       </c>
-      <c r="X106" s="66">
+      <c r="X106" s="38">
         <v>17977000000</v>
       </c>
-      <c r="Y106" s="66">
+      <c r="Y106" s="38">
         <v>20160000000</v>
       </c>
-      <c r="Z106" s="66">
+      <c r="Z106" s="38">
         <v>21886000000</v>
       </c>
-      <c r="AA106" s="66">
+      <c r="AA106" s="38">
         <v>23916666666.666698</v>
       </c>
-      <c r="AB106" s="66">
+      <c r="AB106" s="38">
         <v>25871166666.666698</v>
       </c>
-      <c r="AC106" s="27" t="s">
+      <c r="AC106" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="AD106" s="28" t="s">
+      <c r="AD106" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="AE106" s="29">
+      <c r="AE106" s="55">
         <f>(SUM(X4,Y4,Z4,AA4,AB4)/5)</f>
         <v>8.2442955742040164E-2</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="68" t="s">
+      <c r="A107" s="40" t="s">
         <v>160</v>
       </c>
       <c r="B107" s="1">
@@ -11515,139 +11437,139 @@
       <c r="W107" s="1">
         <v>12753000000</v>
       </c>
-      <c r="X107" s="27"/>
-      <c r="Y107" s="27"/>
-      <c r="Z107" s="27"/>
-      <c r="AA107" s="27"/>
-      <c r="AB107" s="67">
+      <c r="X107" s="23"/>
+      <c r="Y107" s="23"/>
+      <c r="Z107" s="23"/>
+      <c r="AA107" s="23"/>
+      <c r="AB107" s="39">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>494355584280.30835</v>
-      </c>
-      <c r="AC107" s="30" t="s">
+        <v>492430089276.69104</v>
+      </c>
+      <c r="AC107" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="AD107" s="31" t="s">
+      <c r="AD107" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="AE107" s="32">
+      <c r="AE107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X108" s="67">
+      <c r="X108" s="39">
         <f t="shared" ref="X108:AA108" si="41">X107+X106</f>
         <v>17977000000</v>
       </c>
-      <c r="Y108" s="67">
+      <c r="Y108" s="39">
         <f t="shared" si="41"/>
         <v>20160000000</v>
       </c>
-      <c r="Z108" s="67">
+      <c r="Z108" s="39">
         <f t="shared" si="41"/>
         <v>21886000000</v>
       </c>
-      <c r="AA108" s="67">
+      <c r="AA108" s="39">
         <f t="shared" si="41"/>
         <v>23916666666.666698</v>
       </c>
-      <c r="AB108" s="67">
+      <c r="AB108" s="39">
         <f>AB107+AB106</f>
-        <v>520226750946.97504</v>
-      </c>
-      <c r="AC108" s="30" t="s">
+        <v>518301255943.35773</v>
+      </c>
+      <c r="AC108" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="AD108" s="33" t="s">
+      <c r="AD108" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="AE108" s="34">
+      <c r="AE108" s="55">
         <f>AE105</f>
-        <v>7.864144085059474E-2</v>
+        <v>7.8851189053626702E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="69" t="s">
+      <c r="X109" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="Y109" s="70"/>
+      <c r="Y109" s="65"/>
     </row>
     <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X110" s="35" t="s">
+      <c r="X110" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="Y110" s="36">
+      <c r="Y110" s="50">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>425394495589.61713</v>
+        <v>423696946747.32288</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X111" s="35" t="s">
+      <c r="X111" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="Y111" s="36">
+      <c r="Y111" s="50">
         <f>W40</f>
         <v>10852000000</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X112" s="35" t="s">
+      <c r="X112" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="Y112" s="36">
+      <c r="Y112" s="50">
         <f>AE99</f>
         <v>35146000000</v>
       </c>
     </row>
     <row r="113" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X113" s="35" t="s">
+      <c r="X113" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="Y113" s="36">
+      <c r="Y113" s="50">
         <f>Y110+Y111-Y112</f>
-        <v>401100495589.61713</v>
+        <v>399402946747.32288</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X114" s="35" t="s">
+      <c r="X114" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="Y114" s="48">
+      <c r="Y114" s="59">
         <f>W34*(1+(5*AC16))</f>
         <v>504410165.50073248</v>
       </c>
     </row>
     <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="37" t="s">
+      <c r="X115" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="Y115" s="38">
+      <c r="Y115" s="61">
         <f>Y113/Y114</f>
-        <v>795.18717706936195</v>
+        <v>791.8217634468806</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X116" s="35" t="s">
+      <c r="X116" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="Y116" s="58" cm="1">
+      <c r="Y116" s="62" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>836.7</v>
+        <v>863</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="39" t="s">
+      <c r="X117" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="Y117" s="40">
+      <c r="Y117" s="63">
         <f>Y115/Y116-1</f>
-        <v>-4.9614943146453983E-2</v>
+        <v>-8.2477678508828922E-2</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="39" t="s">
+      <c r="X118" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="Y118" s="41" t="str">
+      <c r="Y118" s="64" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Consumer/Louis Vuitton Moet Hennessy.xlsx
+++ b/Consumer/Louis Vuitton Moet Hennessy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E213C44-FC45-9345-95D3-AFF3BC6B373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A814A53-5648-784D-85D7-575298D04120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2253,9 +2253,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2264,19 +2262,18 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2287,22 +2284,7 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>3.8539999999999998E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2429,10 +2411,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>904.6</v>
-    <v>565.70000000000005</v>
-    <v>1.0144</v>
-    <v>8</v>
-    <v>9.356999999999999E-3</v>
+    <v>567.6</v>
+    <v>1.0178</v>
+    <v>9.4</v>
+    <v>1.1519999999999999E-2</v>
     <v>EUR</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2440,24 +2422,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>864.7</v>
+    <v>832.5</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45107.666666666664</v>
+    <v>45114.666666666664</v>
     <v>0</v>
-    <v>850.8</v>
-    <v>429251400000</v>
+    <v>814.6</v>
+    <v>414390800000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>855.1</v>
-    <v>30.479900000000001</v>
-    <v>855</v>
-    <v>863</v>
+    <v>820</v>
+    <v>29.424700000000001</v>
+    <v>816</v>
+    <v>825.4</v>
     <v>502048400</v>
     <v>MC</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
-    <v>457169</v>
-    <v>330440</v>
+    <v>380704</v>
+    <v>281850</v>
     <v>1971</v>
   </rv>
   <rv s="2">
@@ -3028,7 +3010,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z14" sqref="Z14"/>
+      <selection pane="bottomRight" activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4452,15 +4434,15 @@
       </c>
       <c r="AD16" s="36">
         <f>AE101/W3</f>
-        <v>5.4209360476864017</v>
+        <v>5.233264295817337</v>
       </c>
       <c r="AE16" s="36">
         <f>AE101/W28</f>
-        <v>30.477946606077818</v>
+        <v>29.422806021016758</v>
       </c>
       <c r="AF16" s="37">
         <f>AE101/W107</f>
-        <v>33.658856739590682</v>
+        <v>32.493593664235867</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4708,15 +4690,15 @@
       </c>
       <c r="AD19" s="36">
         <f>AE101/X3</f>
-        <v>4.8691145443408423</v>
+        <v>4.7005467456158261</v>
       </c>
       <c r="AE19" s="36">
         <f>AE101/X28</f>
-        <v>26.038908098271154</v>
+        <v>25.137446163178648</v>
       </c>
       <c r="AF19" s="37">
         <f>AE101/X106</f>
-        <v>23.877810535684485</v>
+        <v>23.051165377982979</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -4998,11 +4980,11 @@
       </c>
       <c r="AE22" s="41">
         <f>(-1*W98)/AE101</f>
-        <v>1.4036063714643679E-2</v>
+        <v>1.4539415450343009E-2</v>
       </c>
       <c r="AF22" s="42">
         <f>W107/AE101</f>
-        <v>2.9709862332423377E-2</v>
+        <v>3.0775297134975003E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10353,7 +10335,7 @@
       </c>
       <c r="AE94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10431,7 +10413,7 @@
       </c>
       <c r="AE95" s="49" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.0144</v>
+        <v>1.0178</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10586,7 +10568,7 @@
       </c>
       <c r="AE97" s="47">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>8.4654624000000012E-2</v>
+        <v>8.4774656000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10817,7 +10799,7 @@
       </c>
       <c r="AE100" s="47">
         <f>AE99/AE103</f>
-        <v>7.5680871598333671E-2</v>
+        <v>7.8182698279651408E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10895,7 +10877,7 @@
       </c>
       <c r="AE101" s="50" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>429251400000</v>
+        <v>414390800000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10973,7 +10955,7 @@
       </c>
       <c r="AE102" s="47">
         <f>AE101/AE103</f>
-        <v>0.9243191284016663</v>
+        <v>0.92181730172034859</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11051,7 +11033,7 @@
       </c>
       <c r="AE103" s="51">
         <f>AE99+AE101</f>
-        <v>464397400000</v>
+        <v>449536800000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -11249,7 +11231,7 @@
       </c>
       <c r="AE105" s="53">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.8851189053626702E-2</v>
+        <v>7.8769989096563187E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11443,7 +11425,7 @@
       <c r="AA107" s="23"/>
       <c r="AB107" s="39">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>492430089276.69104</v>
+        <v>493173725323.07819</v>
       </c>
       <c r="AC107" s="24" t="s">
         <v>139</v>
@@ -11474,7 +11456,7 @@
       </c>
       <c r="AB108" s="39">
         <f>AB107+AB106</f>
-        <v>518301255943.35773</v>
+        <v>519044891989.74487</v>
       </c>
       <c r="AC108" s="24" t="s">
         <v>136</v>
@@ -11484,7 +11466,7 @@
       </c>
       <c r="AE108" s="55">
         <f>AE105</f>
-        <v>7.8851189053626702E-2</v>
+        <v>7.8769989096563187E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11499,7 +11481,7 @@
       </c>
       <c r="Y110" s="50">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>423696946747.32288</v>
+        <v>424352545169.59583</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11526,7 +11508,7 @@
       </c>
       <c r="Y113" s="50">
         <f>Y110+Y111-Y112</f>
-        <v>399402946747.32288</v>
+        <v>400058545169.59583</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11544,7 +11526,7 @@
       </c>
       <c r="Y115" s="61">
         <f>Y113/Y114</f>
-        <v>791.8217634468806</v>
+        <v>793.12149621817025</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11553,7 +11535,7 @@
       </c>
       <c r="Y116" s="62" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>863</v>
+        <v>825.4</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11562,7 +11544,7 @@
       </c>
       <c r="Y117" s="63">
         <f>Y115/Y116-1</f>
-        <v>-8.2477678508828922E-2</v>
+        <v>-3.9106498402992185E-2</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Louis Vuitton Moet Hennessy.xlsx
+++ b/Consumer/Louis Vuitton Moet Hennessy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A814A53-5648-784D-85D7-575298D04120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15626DF6-F902-924C-90F3-22620580A6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,8 +1057,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2800"/>
-              <a:t>LVMH</a:t>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Louis Vuitton Moet Hennessy</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1067,8 +1067,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.45983960130429163"/>
-          <c:y val="2.4258760107816711E-2"/>
+          <c:x val="0.30478048982379174"/>
+          <c:y val="2.4258788517577037E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1107,7 +1107,7 @@
           <c:x val="0.10028510334996436"/>
           <c:y val="0.1460377358490566"/>
           <c:w val="0.84554526015680675"/>
-          <c:h val="0.70594562472143807"/>
+          <c:h val="0.6823235579804493"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1627,8 +1627,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33082786604632369"/>
-          <c:y val="0.92206422310418745"/>
+          <c:x val="0.33082785808147175"/>
+          <c:y val="0.89844214355095398"/>
           <c:w val="0.38110977040200694"/>
           <c:h val="5.9363143078617765E-2"/>
         </c:manualLayout>
@@ -2263,8 +2263,12 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Compounders"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2285,6 +2289,10 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2411,10 +2419,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>904.6</v>
-    <v>567.6</v>
+    <v>585.29999999999995</v>
     <v>1.0178</v>
-    <v>9.4</v>
-    <v>1.1519999999999999E-2</v>
+    <v>11.9</v>
+    <v>1.4322E-2</v>
     <v>EUR</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2422,23 +2430,23 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>832.5</v>
+    <v>844</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45114.666666666664</v>
+    <v>45118.359668981248</v>
     <v>0</v>
-    <v>814.6</v>
+    <v>837</v>
     <v>414390800000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>820</v>
-    <v>29.424700000000001</v>
-    <v>816</v>
-    <v>825.4</v>
+    <v>840</v>
+    <v>29.620699999999999</v>
+    <v>830.9</v>
+    <v>842.8</v>
     <v>502048400</v>
     <v>MC</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
-    <v>380704</v>
+    <v>32822</v>
     <v>281850</v>
     <v>1971</v>
   </rv>
@@ -3007,10 +3015,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD26" sqref="AD26"/>
+      <selection pane="bottomRight" activeCell="Z99" sqref="Z99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3271,19 +3279,19 @@
         <v>79184000000</v>
       </c>
       <c r="X3" s="15">
-        <v>88158000000</v>
+        <v>88355000000</v>
       </c>
       <c r="Y3" s="15">
-        <v>95168000000</v>
+        <v>95285000000</v>
       </c>
       <c r="Z3" s="15">
-        <v>101800000000</v>
+        <v>102000000000</v>
       </c>
       <c r="AA3" s="15">
-        <v>110300000000</v>
+        <v>109300000000</v>
       </c>
       <c r="AB3" s="15">
-        <v>117600000000</v>
+        <v>117100000000</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>107</v>
@@ -3389,23 +3397,23 @@
       </c>
       <c r="X4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11333097595473829</v>
+        <v>0.1158188522933925</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>7.9516322965584418E-2</v>
+        <v>7.8433591760511678E-2</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>6.9687289845326239E-2</v>
+        <v>7.0472792149866237E-2</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" ref="AA4" si="1">(AA3/Z3)-1</f>
-        <v>8.349705304518662E-2</v>
+        <v>7.156862745098036E-2</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" ref="AB4" si="2">(AB3/AA3)-1</f>
-        <v>6.618313689936528E-2</v>
+        <v>7.1363220494053081E-2</v>
       </c>
       <c r="AC4" s="28">
         <f>(W4+V4+U4)/3</f>
@@ -4670,13 +4678,13 @@
         <v>26054000000</v>
       </c>
       <c r="X19" s="34">
-        <v>30860000000</v>
+        <v>31048000000</v>
       </c>
       <c r="Y19" s="34">
-        <v>33810000000</v>
+        <v>33910000000</v>
       </c>
       <c r="Z19" s="34">
-        <v>36513000000</v>
+        <v>36875000000</v>
       </c>
       <c r="AA19" s="34">
         <v>32962000000</v>
@@ -4690,15 +4698,15 @@
       </c>
       <c r="AD19" s="36">
         <f>AE101/X3</f>
-        <v>4.7005467456158261</v>
+        <v>4.6900662101748631</v>
       </c>
       <c r="AE19" s="36">
         <f>AE101/X28</f>
-        <v>25.137446163178648</v>
+        <v>25.198589236850108</v>
       </c>
       <c r="AF19" s="37">
         <f>AE101/X106</f>
-        <v>23.051165377982979</v>
+        <v>22.842776032192273</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -4792,19 +4800,19 @@
       </c>
       <c r="X20" s="16">
         <f t="shared" ref="X20" si="6">(X19/W19)-1</f>
-        <v>0.18446303830505872</v>
+        <v>0.19167882091041677</v>
       </c>
       <c r="Y20" s="16">
         <f t="shared" ref="Y20" si="7">(Y19/X19)-1</f>
-        <v>9.5593000648088067E-2</v>
+        <v>9.2179850553981035E-2</v>
       </c>
       <c r="Z20" s="16">
         <f t="shared" ref="Z20" si="8">(Z19/Y19)-1</f>
-        <v>7.9946761313220982E-2</v>
+        <v>8.743733411972876E-2</v>
       </c>
       <c r="AA20" s="16">
         <f t="shared" ref="AA20" si="9">(AA19/Z19)-1</f>
-        <v>-9.7253033166269542E-2</v>
+        <v>-0.10611525423728818</v>
       </c>
       <c r="AB20" s="16">
         <f t="shared" ref="AB20" si="10">(AB19/AA19)-1</f>
@@ -4883,23 +4891,23 @@
       </c>
       <c r="X21" s="35">
         <f>X19/X3</f>
-        <v>0.35005331336917805</v>
+        <v>0.35140059985286626</v>
       </c>
       <c r="Y21" s="35">
         <f t="shared" ref="Y21:AB21" si="11">Y19/Y3</f>
-        <v>0.35526647612642903</v>
+        <v>0.35587972923335259</v>
       </c>
       <c r="Z21" s="35">
         <f t="shared" si="11"/>
-        <v>0.35867387033398823</v>
+        <v>0.36151960784313725</v>
       </c>
       <c r="AA21" s="35">
         <f t="shared" si="11"/>
-        <v>0.2988395285584769</v>
+        <v>0.30157365050320217</v>
       </c>
       <c r="AB21" s="35">
         <f t="shared" si="11"/>
-        <v>0.29801020408163265</v>
+        <v>0.29928266438941076</v>
       </c>
       <c r="AE21" s="26" t="s">
         <v>164</v>
@@ -5413,13 +5421,13 @@
         <v>14084000000</v>
       </c>
       <c r="X28" s="31">
-        <v>16485000000</v>
+        <v>16445000000</v>
       </c>
       <c r="Y28" s="31">
         <v>18257000000</v>
       </c>
       <c r="Z28" s="31">
-        <v>19971000000</v>
+        <v>19968000000</v>
       </c>
       <c r="AA28" s="31">
         <v>20828000000</v>
@@ -5519,19 +5527,19 @@
       </c>
       <c r="X29" s="16">
         <f t="shared" ref="X29" si="13">(X28/W28)-1</f>
-        <v>0.17047713717693846</v>
+        <v>0.16763703493325766</v>
       </c>
       <c r="Y29" s="16">
         <f t="shared" ref="Y29" si="14">(Y28/X28)-1</f>
-        <v>0.10749165908401581</v>
+        <v>0.11018546670720575</v>
       </c>
       <c r="Z29" s="16">
         <f t="shared" ref="Z29" si="15">(Z28/Y28)-1</f>
-        <v>9.3881798762118551E-2</v>
+        <v>9.3717478227529183E-2</v>
       </c>
       <c r="AA29" s="16">
         <f t="shared" ref="AA29" si="16">(AA28/Z28)-1</f>
-        <v>4.2912222722948368E-2</v>
+        <v>4.3068910256410353E-2</v>
       </c>
       <c r="AB29" s="16">
         <f t="shared" ref="AB29" si="17">(AB28/AA28)-1</f>
@@ -5610,23 +5618,23 @@
       </c>
       <c r="X30" s="32">
         <f>X28/X3</f>
-        <v>0.1869938065745593</v>
+        <v>0.18612415822534095</v>
       </c>
       <c r="Y30" s="32">
         <f t="shared" ref="Y30:AB30" si="18">Y28/Y3</f>
-        <v>0.19183969401479489</v>
+        <v>0.19160413496353046</v>
       </c>
       <c r="Z30" s="32">
         <f t="shared" si="18"/>
-        <v>0.1961787819253438</v>
+        <v>0.19576470588235295</v>
       </c>
       <c r="AA30" s="32">
         <f t="shared" si="18"/>
-        <v>0.18883046237533999</v>
+        <v>0.19055809698078682</v>
       </c>
       <c r="AB30" s="32">
         <f t="shared" si="18"/>
-        <v>0.19195578231292518</v>
+        <v>0.19277540563620837</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5700,13 +5708,13 @@
         <v>27.96</v>
       </c>
       <c r="X31" s="33">
-        <v>32.9</v>
+        <v>32.82</v>
       </c>
       <c r="Y31" s="33">
         <v>36.44</v>
       </c>
       <c r="Z31" s="33">
-        <v>39.86</v>
+        <v>39.85</v>
       </c>
       <c r="AA31" s="33">
         <v>41.57</v>
@@ -11205,23 +11213,23 @@
       </c>
       <c r="X105" s="22">
         <f>W105*(1+$AE$106)</f>
-        <v>15386733320.566261</v>
+        <v>15373775957.704634</v>
       </c>
       <c r="Y105" s="22">
         <f t="shared" ref="Y105:AB105" si="39">X105*(1+$AE$106)</f>
-        <v>16655261094.728279</v>
+        <v>16627221693.559605</v>
       </c>
       <c r="Z105" s="22">
         <f t="shared" si="39"/>
-        <v>18028370048.033085</v>
+        <v>17982862636.178051</v>
       </c>
       <c r="AA105" s="22">
         <f t="shared" si="39"/>
-        <v>19514682162.004196</v>
+        <v>19449030905.560612</v>
       </c>
       <c r="AB105" s="22">
         <f t="shared" si="39"/>
-        <v>21123530239.806286</v>
+        <v>21034737951.256771</v>
       </c>
       <c r="AC105" s="23" t="s">
         <v>162</v>
@@ -11324,19 +11332,19 @@
         <v>-0.17145270270270274</v>
       </c>
       <c r="X106" s="38">
-        <v>17977000000</v>
+        <v>18141000000</v>
       </c>
       <c r="Y106" s="38">
-        <v>20160000000</v>
+        <v>20294000000</v>
       </c>
       <c r="Z106" s="38">
-        <v>21886000000</v>
+        <v>22185000000</v>
       </c>
       <c r="AA106" s="38">
-        <v>23916666666.666698</v>
+        <v>23737000000</v>
       </c>
       <c r="AB106" s="38">
-        <v>25871166666.666698</v>
+        <v>25400000000</v>
       </c>
       <c r="AC106" s="23" t="s">
         <v>163</v>
@@ -11346,7 +11354,7 @@
       </c>
       <c r="AE106" s="55">
         <f>(SUM(X4,Y4,Z4,AA4,AB4)/5)</f>
-        <v>8.2442955742040164E-2</v>
+        <v>8.1531416829760769E-2</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11425,7 +11433,7 @@
       <c r="AA107" s="23"/>
       <c r="AB107" s="39">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>493173725323.07819</v>
+        <v>484192026768.77753</v>
       </c>
       <c r="AC107" s="24" t="s">
         <v>139</v>
@@ -11440,23 +11448,23 @@
     <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="X108" s="39">
         <f t="shared" ref="X108:AA108" si="41">X107+X106</f>
-        <v>17977000000</v>
+        <v>18141000000</v>
       </c>
       <c r="Y108" s="39">
         <f t="shared" si="41"/>
-        <v>20160000000</v>
+        <v>20294000000</v>
       </c>
       <c r="Z108" s="39">
         <f t="shared" si="41"/>
-        <v>21886000000</v>
+        <v>22185000000</v>
       </c>
       <c r="AA108" s="39">
         <f t="shared" si="41"/>
-        <v>23916666666.666698</v>
+        <v>23737000000</v>
       </c>
       <c r="AB108" s="39">
         <f>AB107+AB106</f>
-        <v>519044891989.74487</v>
+        <v>509592026768.77753</v>
       </c>
       <c r="AC108" s="24" t="s">
         <v>136</v>
@@ -11481,7 +11489,7 @@
       </c>
       <c r="Y110" s="50">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>424352545169.59583</v>
+        <v>418254998612.40363</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11508,7 +11516,7 @@
       </c>
       <c r="Y113" s="50">
         <f>Y110+Y111-Y112</f>
-        <v>400058545169.59583</v>
+        <v>393960998612.40363</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11526,7 +11534,7 @@
       </c>
       <c r="Y115" s="61">
         <f>Y113/Y114</f>
-        <v>793.12149621817025</v>
+        <v>781.03302740006245</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11535,7 +11543,7 @@
       </c>
       <c r="Y116" s="62" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>825.4</v>
+        <v>842.8</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11544,7 +11552,7 @@
       </c>
       <c r="Y117" s="63">
         <f>Y115/Y116-1</f>
-        <v>-3.9106498402992185E-2</v>
+        <v>-7.3287817512977638E-2</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Louis Vuitton Moet Hennessy.xlsx
+++ b/Consumer/Louis Vuitton Moet Hennessy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15626DF6-F902-924C-90F3-22620580A6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209EBA8D-13B6-8A4D-9934-195540F35C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2263,6 +2263,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2274,7 +2275,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2293,6 +2294,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2419,10 +2421,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>904.6</v>
-    <v>585.29999999999995</v>
-    <v>1.0178</v>
-    <v>11.9</v>
-    <v>1.4322E-2</v>
+    <v>594.70000000000005</v>
+    <v>1.0145</v>
+    <v>-3.6</v>
+    <v>-4.1980000000000003E-3</v>
     <v>EUR</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2430,24 +2432,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>844</v>
+    <v>870</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45118.359668981248</v>
+    <v>45132.666666666664</v>
     <v>0</v>
-    <v>837</v>
-    <v>414390800000</v>
+    <v>853.3</v>
+    <v>435727800000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>840</v>
-    <v>29.620699999999999</v>
-    <v>830.9</v>
-    <v>842.8</v>
+    <v>864.4</v>
+    <v>30.572600000000001</v>
+    <v>857.6</v>
+    <v>854</v>
     <v>502048400</v>
     <v>MC</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
-    <v>32822</v>
-    <v>281850</v>
+    <v>262867</v>
+    <v>293600</v>
     <v>1971</v>
   </rv>
   <rv s="2">
@@ -3018,7 +3020,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="T86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z99" sqref="Z99"/>
+      <selection pane="bottomRight" activeCell="W117" sqref="W117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4442,15 +4444,15 @@
       </c>
       <c r="AD16" s="36">
         <f>AE101/W3</f>
-        <v>5.233264295817337</v>
+        <v>5.5027252980400077</v>
       </c>
       <c r="AE16" s="36">
         <f>AE101/W28</f>
-        <v>29.422806021016758</v>
+        <v>30.937787560352174</v>
       </c>
       <c r="AF16" s="37">
         <f>AE101/W107</f>
-        <v>32.493593664235867</v>
+        <v>34.166690190543399</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4698,15 +4700,15 @@
       </c>
       <c r="AD19" s="36">
         <f>AE101/X3</f>
-        <v>4.6900662101748631</v>
+        <v>4.9315579197555319</v>
       </c>
       <c r="AE19" s="36">
         <f>AE101/X28</f>
-        <v>25.198589236850108</v>
+        <v>26.496065673456979</v>
       </c>
       <c r="AF19" s="37">
         <f>AE101/X106</f>
-        <v>22.842776032192273</v>
+        <v>24.018951546221267</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -4988,11 +4990,11 @@
       </c>
       <c r="AE22" s="41">
         <f>(-1*W98)/AE101</f>
-        <v>1.4539415450343009E-2</v>
+        <v>1.3827439975140443E-2</v>
       </c>
       <c r="AF22" s="42">
         <f>W107/AE101</f>
-        <v>3.0775297134975003E-2</v>
+        <v>2.9268272531612627E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10343,7 +10345,7 @@
       </c>
       <c r="AE94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10421,7 +10423,7 @@
       </c>
       <c r="AE95" s="49" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.0178</v>
+        <v>1.0145</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10576,7 +10578,7 @@
       </c>
       <c r="AE97" s="47">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>8.4774656000000004E-2</v>
+        <v>8.4650760000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10807,7 +10809,7 @@
       </c>
       <c r="AE100" s="47">
         <f>AE99/AE103</f>
-        <v>7.8182698279651408E-2</v>
+        <v>7.4639956608331143E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10885,7 +10887,7 @@
       </c>
       <c r="AE101" s="50" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>414390800000</v>
+        <v>435727800000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10963,7 +10965,7 @@
       </c>
       <c r="AE102" s="47">
         <f>AE101/AE103</f>
-        <v>0.92181730172034859</v>
+        <v>0.92536004339166888</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11041,7 +11043,7 @@
       </c>
       <c r="AE103" s="51">
         <f>AE99+AE101</f>
-        <v>449536800000</v>
+        <v>470873800000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -11239,7 +11241,7 @@
       </c>
       <c r="AE105" s="53">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.8769989096563187E-2</v>
+        <v>7.8927433928299054E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11433,7 +11435,7 @@
       <c r="AA107" s="23"/>
       <c r="AB107" s="39">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>484192026768.77753</v>
+        <v>482778395030.1745</v>
       </c>
       <c r="AC107" s="24" t="s">
         <v>139</v>
@@ -11464,7 +11466,7 @@
       </c>
       <c r="AB108" s="39">
         <f>AB107+AB106</f>
-        <v>509592026768.77753</v>
+        <v>508178395030.1745</v>
       </c>
       <c r="AC108" s="24" t="s">
         <v>136</v>
@@ -11474,7 +11476,7 @@
       </c>
       <c r="AE108" s="55">
         <f>AE105</f>
-        <v>7.8769989096563187E-2</v>
+        <v>7.8927433928299054E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11489,7 +11491,7 @@
       </c>
       <c r="Y110" s="50">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>418254998612.40363</v>
+        <v>417008182445.25458</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11516,7 +11518,7 @@
       </c>
       <c r="Y113" s="50">
         <f>Y110+Y111-Y112</f>
-        <v>393960998612.40363</v>
+        <v>392714182445.25458</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11534,7 +11536,7 @@
       </c>
       <c r="Y115" s="61">
         <f>Y113/Y114</f>
-        <v>781.03302740006245</v>
+        <v>778.56119742432963</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11543,7 +11545,7 @@
       </c>
       <c r="Y116" s="62" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>842.8</v>
+        <v>854</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11552,7 +11554,7 @@
       </c>
       <c r="Y117" s="63">
         <f>Y115/Y116-1</f>
-        <v>-7.3287817512977638E-2</v>
+        <v>-8.8335834397740509E-2</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Louis Vuitton Moet Hennessy.xlsx
+++ b/Consumer/Louis Vuitton Moet Hennessy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209EBA8D-13B6-8A4D-9934-195540F35C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D102461E-E516-A446-ADDA-DAE127544DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,11 +50,25 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="3">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
         </ext>
       </extLst>
     </bk>
@@ -64,16 +78,22 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="3">
     <bk>
       <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -516,12 +536,6 @@
     <t>Shares</t>
   </si>
   <si>
-    <t>Intrinsic Value</t>
-  </si>
-  <si>
-    <t>Current Price</t>
-  </si>
-  <si>
     <t>Upside/Downside</t>
   </si>
   <si>
@@ -561,31 +575,42 @@
     <t>Unlevered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Intrinsic Value (USD)</t>
+  </si>
+  <si>
+    <t>Current Price (USD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -697,6 +722,13 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -871,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -906,11 +938,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -938,75 +965,134 @@
     <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1047,7 +1133,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1067,8 +1153,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.30478048982379174"/>
-          <c:y val="2.4258788517577037E-2"/>
+          <c:x val="0.30457536739882707"/>
+          <c:y val="2.3922538694130774E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1084,7 +1170,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1104,15 +1190,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10028510334996436"/>
-          <c:y val="0.1460377358490566"/>
-          <c:w val="0.84554526015680675"/>
-          <c:h val="0.6823235579804493"/>
+          <c:x val="0.10055503888445499"/>
+          <c:y val="0.15127805864411875"/>
+          <c:w val="0.83886170258660031"/>
+          <c:h val="0.60361382432668198"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1161,12 +1247,102 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AB$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$W$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AB$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>12229000000</c:v>
                 </c:pt>
@@ -1232,13 +1408,28 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>79184000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88000000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95285000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102000000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>108200000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>115800000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B579-8848-B21B-C8A31328F6A9}"/>
+              <c16:uniqueId val="{00000000-17DA-8F4C-9A1F-F9D30C0A5F41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1247,11 +1438,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1289,84 +1480,189 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AB$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$W$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AB$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>2017000000</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2219000000</c:v>
+                  <c:v>556000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2358000000</c:v>
+                  <c:v>723000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2481000000</c:v>
+                  <c:v>1010000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3213000000</c:v>
+                  <c:v>1668000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3654000000</c:v>
+                  <c:v>2160000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4029000000</c:v>
+                  <c:v>2331000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4163000000</c:v>
+                  <c:v>2318000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3835000000</c:v>
+                  <c:v>1973000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5727000000</c:v>
+                  <c:v>3319000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6068000000</c:v>
+                  <c:v>3465000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6707000000</c:v>
+                  <c:v>3424000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6783000000</c:v>
+                  <c:v>3436000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9960000000</c:v>
+                  <c:v>5648000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7734000000</c:v>
+                  <c:v>3573000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8325000000</c:v>
+                  <c:v>3981000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9932000000</c:v>
+                  <c:v>5129000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11313000000</c:v>
+                  <c:v>6354000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15657000000</c:v>
+                  <c:v>7171000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13527000000</c:v>
+                  <c:v>4702000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22618000000</c:v>
+                  <c:v>12036000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26054000000</c:v>
+                  <c:v>14084000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16503000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18233000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19891000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19816000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21122000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B579-8848-B21B-C8A31328F6A9}"/>
+              <c16:uniqueId val="{00000001-17DA-8F4C-9A1F-F9D30C0A5F41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1417,12 +1713,102 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AB$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$W$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AB$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>-410000000</c:v>
                 </c:pt>
@@ -1488,13 +1874,28 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>12753000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17219000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19707000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22328000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23667680000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25324417600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B579-8848-B21B-C8A31328F6A9}"/>
+              <c16:uniqueId val="{00000002-17DA-8F4C-9A1F-F9D30C0A5F41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1506,13 +1907,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1620210655"/>
-        <c:axId val="1620646591"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="892370767"/>
+        <c:axId val="895313167"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1620210655"/>
+        <c:axId val="892370767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1540,7 +1941,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1552,7 +1953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1620646591"/>
+        <c:crossAx val="895313167"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1560,7 +1961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1620646591"/>
+        <c:axId val="895313167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1609,7 +2010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1620210655"/>
+        <c:crossAx val="892370767"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1627,10 +2028,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33082785808147175"/>
-          <c:y val="0.89844214355095398"/>
-          <c:w val="0.38110977040200694"/>
-          <c:h val="5.9363143078617765E-2"/>
+          <c:x val="0.34373708898376093"/>
+          <c:y val="0.89719881132402823"/>
+          <c:w val="0.31208541033762005"/>
+          <c:h val="5.4486250400540316E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1646,7 +2047,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1737,7 +2138,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1975,7 +2376,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2210,22 +2610,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>34924</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC906BD-7756-20F6-E61F-428CADF7D455}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE601F4E-2157-5D87-D30A-934A476A46A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,38 +2653,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2403,7 +2803,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=ae96u2&amp;q=XPAR%3aMC&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -2421,10 +2821,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>904.6</v>
-    <v>594.70000000000005</v>
-    <v>1.0145</v>
-    <v>-3.6</v>
-    <v>-4.1980000000000003E-3</v>
+    <v>614.1</v>
+    <v>1.0228999999999999</v>
+    <v>2.9</v>
+    <v>4.3430000000000005E-3</v>
     <v>EUR</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2432,34 +2832,117 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>870</v>
+    <v>676.3</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45132.666666666664</v>
+    <v>45218.666666666664</v>
     <v>0</v>
-    <v>853.3</v>
-    <v>435727800000</v>
+    <v>660.5</v>
+    <v>335217700000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>864.4</v>
-    <v>30.572600000000001</v>
-    <v>857.6</v>
-    <v>854</v>
+    <v>662</v>
+    <v>20.9542</v>
+    <v>667.7</v>
+    <v>670.6</v>
     <v>502048400</v>
     <v>MC</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
-    <v>262867</v>
-    <v>293600</v>
+    <v>364426</v>
+    <v>525970</v>
     <v>1971</v>
   </rv>
   <rv s="2">
     <v>1</v>
   </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a2nj52&amp;q=OTCM%3aLVMHF&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>LVMH Moet Hennessy Louis Vuitton SE (OTCM:LVMHF)</v>
+    <v>2</v>
+    <v>5</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a2nj52</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>1003.5</v>
+    <v>605</v>
+    <v>1.0228999999999999</v>
+    <v>-0.432</v>
+    <v>-6.1359999999999995E-4</v>
+    <v>USD</v>
+    <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
+    <v>173492</v>
+    <v>OTC Markets</v>
+    <v>OTCM</v>
+    <v>OTCM</v>
+    <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
+    <v>717.88</v>
+    <v>Textiles &amp; Apparel</v>
+    <v>Stock</v>
+    <v>45218.825189015624</v>
+    <v>3</v>
+    <v>703.56</v>
+    <v>335217700000</v>
+    <v>LVMH Moet Hennessy Louis Vuitton SE</v>
+    <v>LVMH Moet Hennessy Louis Vuitton SE</v>
+    <v>705</v>
+    <v>20.162700000000001</v>
+    <v>703.99199999999996</v>
+    <v>703.56</v>
+    <v>502048400</v>
+    <v>LVMHF</v>
+    <v>LVMH Moet Hennessy Louis Vuitton SE (OTCM:LVMHF)</v>
+    <v>3433</v>
+    <v>525970</v>
+    <v>1971</v>
+  </rv>
+  <rv s="2">
+    <v>4</v>
+  </rv>
+  <rv s="3">
+    <v>6</v>
+    <v>USD/EUR</v>
+    <v>7</v>
+    <v>8</v>
+    <v>Finance</v>
+    <v>9</v>
+    <v>en-US</v>
+    <v>avyn9c</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>1.0303</v>
+    <v>0.88670000000000004</v>
+    <v>6.9999999999999999E-4</v>
+    <v>7.4100000000000001E-4</v>
+    <v>EUR</v>
+    <v>USD</v>
+    <v>0.94620000000000004</v>
+    <v>Currency Pair</v>
+    <v>45219.184918981482</v>
+    <v>0.9446</v>
+    <v>US Dollar/Euro FX Cross Rate</v>
+    <v>0.94489999999999996</v>
+    <v>0.94469999999999998</v>
+    <v>0.94540000000000002</v>
+    <v>USDEUR</v>
+    <v>USD/EUR</v>
+  </rv>
+  <rv s="2">
+    <v>6</v>
+  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2511,12 +2994,41 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="From currency" t="s"/>
+    <k n="High"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="Low"/>
+    <k n="Name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="1">
+  <spbArrays count="2">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2561,8 +3073,37 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
+    <a count="27">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">Price</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">From currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Instrument type</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
   </spbArrays>
-  <spbData count="5">
+  <spbData count="10">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2607,12 +3148,59 @@
       <v>from previous close</v>
       <v>GMT</v>
     </spb>
+    <spb s="3">
+      <v>10</v>
+      <v>2</v>
+      <v>2</v>
+      <v>10</v>
+      <v>3</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+    </spb>
+    <spb s="5">
+      <v>1</v>
+      <v>Name</v>
+    </spb>
+    <spb s="6">
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="7">
+      <v>1</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>7</v>
+      <v>9</v>
+    </spb>
+    <spb s="8">
+      <v>GMT</v>
+    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="9">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2655,6 +3243,31 @@
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+  </s>
+  <s>
     <k n="Last trade time" t="s"/>
   </s>
 </spbStructures>
@@ -2712,6 +3325,9 @@
     </rSty>
     <rSty dxfid="0">
       <rpv i="0">0.00</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -3014,13 +3630,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF118"/>
+  <dimension ref="A1:AF119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W117" sqref="W117"/>
+      <selection pane="bottomRight" activeCell="Y87" sqref="Y87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3281,7 +3897,7 @@
         <v>79184000000</v>
       </c>
       <c r="X3" s="15">
-        <v>88355000000</v>
+        <v>88000000000</v>
       </c>
       <c r="Y3" s="15">
         <v>95285000000</v>
@@ -3290,21 +3906,21 @@
         <v>102000000000</v>
       </c>
       <c r="AA3" s="15">
-        <v>109300000000</v>
+        <v>108200000000</v>
       </c>
       <c r="AB3" s="15">
-        <v>117100000000</v>
-      </c>
-      <c r="AC3" s="26" t="s">
+        <v>115800000000</v>
+      </c>
+      <c r="AC3" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="AD3" s="27" t="s">
+      <c r="AD3" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="AE3" s="27" t="s">
+      <c r="AE3" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="AF3" s="27" t="s">
+      <c r="AF3" s="24" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3313,97 +3929,97 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="18">
+      <c r="C4" s="43">
         <f>(C3/B3)-1</f>
         <v>3.7942595469784957E-2</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="43">
         <f>(D3/C3)-1</f>
         <v>-5.7590798077680638E-2</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="43">
         <f>(E3/D3)-1</f>
         <v>5.52583180070223E-2</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="43">
         <f t="shared" ref="F4:Z4" si="0">(F3/E3)-1</f>
         <v>0.101956745623069</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="43">
         <f t="shared" si="0"/>
         <v>0.10035945363048171</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="43">
         <f t="shared" si="0"/>
         <v>7.6767280804913129E-2</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="43">
         <f t="shared" si="0"/>
         <v>4.3201262059341161E-2</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="43">
         <f t="shared" si="0"/>
         <v>-8.1428488338277649E-3</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="43">
         <f t="shared" si="0"/>
         <v>0.19157919427666692</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="43">
         <f t="shared" si="0"/>
         <v>0.16432086614173236</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="43">
         <f t="shared" si="0"/>
         <v>0.18783549600574845</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="43">
         <f t="shared" si="0"/>
         <v>3.7220225598690426E-2</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="43">
         <f t="shared" si="0"/>
         <v>5.1082369892620605E-2</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="43">
         <f t="shared" si="0"/>
         <v>0.16404465043410155</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="43">
         <f t="shared" si="0"/>
         <v>5.4284432480933065E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="43">
         <f t="shared" si="0"/>
         <v>0.13393617021276594</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="43">
         <f t="shared" si="0"/>
         <v>9.827375926447135E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="43">
         <f t="shared" si="0"/>
         <v>0.14615811728526884</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="43">
         <f t="shared" si="0"/>
         <v>-0.16806409539780143</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="43">
         <f t="shared" si="0"/>
         <v>0.43818589025755883</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="43">
         <f t="shared" si="0"/>
         <v>0.23310752939344392</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" si="0"/>
-        <v>0.1158188522933925</v>
+        <v>0.11133562335825409</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>7.8433591760511678E-2</v>
+        <v>8.2784090909090891E-2</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
@@ -3411,25 +4027,25 @@
       </c>
       <c r="AA4" s="16">
         <f t="shared" ref="AA4" si="1">(AA3/Z3)-1</f>
-        <v>7.156862745098036E-2</v>
+        <v>6.0784313725490202E-2</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" ref="AB4" si="2">(AB3/AA3)-1</f>
-        <v>7.1363220494053081E-2</v>
-      </c>
-      <c r="AC4" s="28">
+        <v>7.0240295748613679E-2</v>
+      </c>
+      <c r="AC4" s="25">
         <f>(W4+V4+U4)/3</f>
         <v>0.16774310808440043</v>
       </c>
-      <c r="AD4" s="28">
+      <c r="AD4" s="25">
         <f>(W20+V20+U20)/3</f>
         <v>0.22931209935446953</v>
       </c>
-      <c r="AE4" s="28">
+      <c r="AE4" s="25">
         <f>(W29+V29+U29)/3</f>
         <v>0.46187151904379231</v>
       </c>
-      <c r="AF4" s="28">
+      <c r="AF4" s="25">
         <f>(W106+V106+U106)/3</f>
         <v>0.21835462766282479</v>
       </c>
@@ -3578,16 +4194,16 @@
       <c r="W6" s="10">
         <v>54196000000</v>
       </c>
-      <c r="AC6" s="26" t="s">
+      <c r="AC6" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AD6" s="27" t="s">
+      <c r="AD6" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="AE6" s="27" t="s">
+      <c r="AE6" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="AF6" s="27" t="s">
+      <c r="AF6" s="54" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3661,21 +4277,21 @@
       <c r="W7" s="2">
         <v>0.68440000000000001</v>
       </c>
-      <c r="AC7" s="28">
+      <c r="AC7" s="25">
         <f>W7</f>
         <v>0.68440000000000001</v>
       </c>
-      <c r="AD7" s="29">
-        <f>W21</f>
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="AE7" s="29">
-        <f>W30</f>
-        <v>0.1779</v>
-      </c>
-      <c r="AF7" s="29">
-        <f>W107/W3</f>
-        <v>0.16105526368963427</v>
+      <c r="AD7" s="26">
+        <f>X21</f>
+        <v>0.34665909090909092</v>
+      </c>
+      <c r="AE7" s="26">
+        <f>X30</f>
+        <v>0.1875340909090909</v>
+      </c>
+      <c r="AF7" s="26">
+        <f>X107/X3</f>
+        <v>0.19567045454545454</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3846,16 +4462,16 @@
       <c r="Z9" s="18"/>
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
-      <c r="AC9" s="26" t="s">
+      <c r="AC9" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="AD9" s="27" t="s">
+      <c r="AD9" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="AE9" s="27" t="s">
+      <c r="AE9" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="AF9" s="27" t="s">
+      <c r="AF9" s="24" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3929,19 +4545,19 @@
       <c r="W10" s="1">
         <v>5027000000</v>
       </c>
-      <c r="AC10" s="28">
+      <c r="AC10" s="25">
         <f>W9</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="29">
+      <c r="AD10" s="26">
         <f>W13</f>
         <v>0.41899878763386544</v>
       </c>
-      <c r="AE10" s="29">
+      <c r="AE10" s="26">
         <f>W80</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="29">
+      <c r="AF10" s="26">
         <f>W89</f>
         <v>5.5528894726207312E-2</v>
       </c>
@@ -4087,16 +4703,16 @@
       <c r="W12" s="1">
         <v>33178000000</v>
       </c>
-      <c r="AC12" s="26" t="s">
+      <c r="AC12" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="AD12" s="27" t="s">
+      <c r="AD12" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="AE12" s="27" t="s">
+      <c r="AE12" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="AF12" s="27" t="s">
+      <c r="AF12" s="24" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4197,15 +4813,15 @@
       <c r="Z13" s="18"/>
       <c r="AA13" s="18"/>
       <c r="AB13" s="18"/>
-      <c r="AC13" s="28">
+      <c r="AC13" s="25">
         <f>W28/W72</f>
         <v>0.25555696684872348</v>
       </c>
-      <c r="AD13" s="29">
+      <c r="AD13" s="26">
         <f>W28/W54</f>
         <v>0.10460021092345854</v>
       </c>
-      <c r="AE13" s="29">
+      <c r="AE13" s="26">
         <f>W22/(W72+W56+W61)</f>
         <v>0.2326800137385466</v>
       </c>
@@ -4355,17 +4971,17 @@
       <c r="W15" s="1">
         <v>33181000000</v>
       </c>
-      <c r="AC15" s="26" t="s">
+      <c r="AC15" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD15" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE15" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="AD15" s="27" t="s">
+      <c r="AF15" s="24" t="s">
         <v>153</v>
-      </c>
-      <c r="AE15" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF15" s="27" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4442,17 +5058,17 @@
         <f>(W35+V35+U35+T35+S35)/5</f>
         <v>7.9344895169914653E-5</v>
       </c>
-      <c r="AD16" s="36">
-        <f>AE101/W3</f>
-        <v>5.5027252980400077</v>
-      </c>
-      <c r="AE16" s="36">
-        <f>AE101/W28</f>
-        <v>30.937787560352174</v>
-      </c>
-      <c r="AF16" s="37">
-        <f>AE101/W107</f>
-        <v>34.166690190543399</v>
+      <c r="AD16" s="33">
+        <f>AE102/W3</f>
+        <v>4.2334019498888669</v>
+      </c>
+      <c r="AE16" s="33">
+        <f>AE102/W28</f>
+        <v>23.801313547287702</v>
+      </c>
+      <c r="AF16" s="34">
+        <f>AE102/W107</f>
+        <v>26.285399513839881</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4596,17 +5212,17 @@
       <c r="W18" s="1">
         <v>6226000000</v>
       </c>
-      <c r="AC18" s="26" t="s">
+      <c r="AC18" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD18" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE18" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="AD18" s="27" t="s">
+      <c r="AF18" s="24" t="s">
         <v>157</v>
-      </c>
-      <c r="AE18" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF18" s="27" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4679,36 +5295,38 @@
       <c r="W19" s="10">
         <v>26054000000</v>
       </c>
-      <c r="X19" s="34">
-        <v>31048000000</v>
-      </c>
-      <c r="Y19" s="34">
+      <c r="X19" s="31">
+        <v>30506000000</v>
+      </c>
+      <c r="Y19" s="31">
         <v>33910000000</v>
       </c>
-      <c r="Z19" s="34">
-        <v>36875000000</v>
-      </c>
-      <c r="AA19" s="34">
-        <v>32962000000</v>
-      </c>
-      <c r="AB19" s="34">
-        <v>35046000000</v>
-      </c>
-      <c r="AC19" s="30">
+      <c r="Z19" s="31">
+        <v>37196000000</v>
+      </c>
+      <c r="AA19" s="31">
+        <f>Z19*(1+AA4)</f>
+        <v>39456933333.333336</v>
+      </c>
+      <c r="AB19" s="31">
+        <f>AA19*(1+AB4)</f>
+        <v>42228400000</v>
+      </c>
+      <c r="AC19" s="27">
         <f>W40-W56-W61</f>
         <v>-24294000000</v>
       </c>
-      <c r="AD19" s="36">
-        <f>AE101/X3</f>
-        <v>4.9315579197555319</v>
-      </c>
-      <c r="AE19" s="36">
-        <f>AE101/X28</f>
-        <v>26.496065673456979</v>
-      </c>
-      <c r="AF19" s="37">
-        <f>AE101/X106</f>
-        <v>24.018951546221267</v>
+      <c r="AD19" s="33">
+        <f>AE102/X3</f>
+        <v>3.8092920454545456</v>
+      </c>
+      <c r="AE19" s="33">
+        <f>AE102/X28</f>
+        <v>20.312531054959706</v>
+      </c>
+      <c r="AF19" s="34">
+        <f>AE102/X107</f>
+        <v>19.467895928915734</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -4802,23 +5420,23 @@
       </c>
       <c r="X20" s="16">
         <f t="shared" ref="X20" si="6">(X19/W19)-1</f>
-        <v>0.19167882091041677</v>
+        <v>0.1708758731864588</v>
       </c>
       <c r="Y20" s="16">
         <f t="shared" ref="Y20" si="7">(Y19/X19)-1</f>
-        <v>9.2179850553981035E-2</v>
+        <v>0.1115846063069561</v>
       </c>
       <c r="Z20" s="16">
         <f t="shared" ref="Z20" si="8">(Z19/Y19)-1</f>
-        <v>8.743733411972876E-2</v>
+        <v>9.6903568268947193E-2</v>
       </c>
       <c r="AA20" s="16">
         <f t="shared" ref="AA20" si="9">(AA19/Z19)-1</f>
-        <v>-0.10611525423728818</v>
+        <v>6.0784313725490202E-2</v>
       </c>
       <c r="AB20" s="16">
         <f t="shared" ref="AB20" si="10">(AB19/AA19)-1</f>
-        <v>6.3224318912687316E-2</v>
+        <v>7.0240295748613679E-2</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -4891,31 +5509,34 @@
       <c r="W21" s="2">
         <v>0.32900000000000001</v>
       </c>
-      <c r="X21" s="35">
+      <c r="X21" s="32">
         <f>X19/X3</f>
-        <v>0.35140059985286626</v>
-      </c>
-      <c r="Y21" s="35">
+        <v>0.34665909090909092</v>
+      </c>
+      <c r="Y21" s="32">
         <f t="shared" ref="Y21:AB21" si="11">Y19/Y3</f>
         <v>0.35587972923335259</v>
       </c>
-      <c r="Z21" s="35">
+      <c r="Z21" s="32">
         <f t="shared" si="11"/>
-        <v>0.36151960784313725</v>
-      </c>
-      <c r="AA21" s="35">
+        <v>0.36466666666666664</v>
+      </c>
+      <c r="AA21" s="32">
         <f t="shared" si="11"/>
-        <v>0.30157365050320217</v>
-      </c>
-      <c r="AB21" s="35">
+        <v>0.36466666666666669</v>
+      </c>
+      <c r="AB21" s="32">
         <f t="shared" si="11"/>
-        <v>0.29928266438941076</v>
-      </c>
-      <c r="AE21" s="26" t="s">
+        <v>0.36466666666666664</v>
+      </c>
+      <c r="AD21" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="AF21" s="27" t="s">
-        <v>165</v>
+      <c r="AE21" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF21" s="24" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4988,13 +5609,17 @@
       <c r="W22" s="10">
         <v>21001000000</v>
       </c>
-      <c r="AE22" s="41">
-        <f>(-1*W98)/AE101</f>
-        <v>1.3827439975140443E-2</v>
-      </c>
-      <c r="AF22" s="42">
-        <f>W107/AE101</f>
-        <v>2.9268272531612627E-2</v>
+      <c r="AD22" s="25">
+        <f>SUM(X29:AB29)/5</f>
+        <v>8.5930883537800457E-2</v>
+      </c>
+      <c r="AE22" s="42">
+        <f>(-1*W98)/AE102</f>
+        <v>1.7973394602969952E-2</v>
+      </c>
+      <c r="AF22" s="36">
+        <f>X107/AE102</f>
+        <v>5.1366619364072962E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5422,20 +6047,20 @@
       <c r="W28" s="11">
         <v>14084000000</v>
       </c>
-      <c r="X28" s="31">
-        <v>16445000000</v>
-      </c>
-      <c r="Y28" s="31">
-        <v>18257000000</v>
-      </c>
-      <c r="Z28" s="31">
-        <v>19968000000</v>
-      </c>
-      <c r="AA28" s="31">
-        <v>20828000000</v>
-      </c>
-      <c r="AB28" s="31">
-        <v>22574000000</v>
+      <c r="X28" s="28">
+        <v>16503000000</v>
+      </c>
+      <c r="Y28" s="28">
+        <v>18233000000</v>
+      </c>
+      <c r="Z28" s="28">
+        <v>19891000000</v>
+      </c>
+      <c r="AA28" s="28">
+        <v>19816000000</v>
+      </c>
+      <c r="AB28" s="28">
+        <v>21122000000</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5529,23 +6154,23 @@
       </c>
       <c r="X29" s="16">
         <f t="shared" ref="X29" si="13">(X28/W28)-1</f>
-        <v>0.16763703493325766</v>
+        <v>0.17175518318659466</v>
       </c>
       <c r="Y29" s="16">
         <f t="shared" ref="Y29" si="14">(Y28/X28)-1</f>
-        <v>0.11018546670720575</v>
+        <v>0.10482942495303882</v>
       </c>
       <c r="Z29" s="16">
         <f t="shared" ref="Z29" si="15">(Z28/Y28)-1</f>
-        <v>9.3717478227529183E-2</v>
+        <v>9.0934020731640475E-2</v>
       </c>
       <c r="AA29" s="16">
         <f t="shared" ref="AA29" si="16">(AA28/Z28)-1</f>
-        <v>4.3068910256410353E-2</v>
+        <v>-3.7705494947464224E-3</v>
       </c>
       <c r="AB29" s="16">
         <f t="shared" ref="AB29" si="17">(AB28/AA28)-1</f>
-        <v>8.3829460341847462E-2</v>
+        <v>6.5906338312474722E-2</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5618,25 +6243,25 @@
       <c r="W30" s="2">
         <v>0.1779</v>
       </c>
-      <c r="X30" s="32">
+      <c r="X30" s="29">
         <f>X28/X3</f>
-        <v>0.18612415822534095</v>
-      </c>
-      <c r="Y30" s="32">
+        <v>0.1875340909090909</v>
+      </c>
+      <c r="Y30" s="29">
         <f t="shared" ref="Y30:AB30" si="18">Y28/Y3</f>
-        <v>0.19160413496353046</v>
-      </c>
-      <c r="Z30" s="32">
+        <v>0.19135225901243638</v>
+      </c>
+      <c r="Z30" s="29">
         <f t="shared" si="18"/>
-        <v>0.19576470588235295</v>
-      </c>
-      <c r="AA30" s="32">
+        <v>0.19500980392156864</v>
+      </c>
+      <c r="AA30" s="29">
         <f t="shared" si="18"/>
-        <v>0.19055809698078682</v>
-      </c>
-      <c r="AB30" s="32">
+        <v>0.18314232902033273</v>
+      </c>
+      <c r="AB30" s="29">
         <f t="shared" si="18"/>
-        <v>0.19277540563620837</v>
+        <v>0.18240069084628671</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5709,20 +6334,20 @@
       <c r="W31" s="12">
         <v>27.96</v>
       </c>
-      <c r="X31" s="33">
-        <v>32.82</v>
-      </c>
-      <c r="Y31" s="33">
-        <v>36.44</v>
-      </c>
-      <c r="Z31" s="33">
-        <v>39.85</v>
-      </c>
-      <c r="AA31" s="33">
-        <v>41.57</v>
-      </c>
-      <c r="AB31" s="33">
-        <v>45.05</v>
+      <c r="X31" s="30">
+        <v>33.04</v>
+      </c>
+      <c r="Y31" s="30">
+        <v>36.51</v>
+      </c>
+      <c r="Z31" s="30">
+        <v>39.83</v>
+      </c>
+      <c r="AA31" s="30">
+        <v>39.68</v>
+      </c>
+      <c r="AB31" s="30">
+        <v>42.29</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5796,7 +6421,7 @@
         <v>27.93</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -5866,8 +6491,12 @@
       <c r="W33" s="1">
         <v>503679272</v>
       </c>
+      <c r="X33" s="1" cm="1">
+        <f t="array" ref="X33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>502048400</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -5937,98 +6566,106 @@
       <c r="W34" s="1">
         <v>504210133</v>
       </c>
+      <c r="X34" s="1" cm="1">
+        <f t="array" ref="X34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>502048400</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="25">
+      <c r="C35" s="22">
         <f>(C34-B34)/B34</f>
         <v>1.5984924399757156E-3</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="22">
         <f t="shared" ref="D35:G35" si="19">(D34-C34)/C34</f>
         <v>2.0299699610447368E-3</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="22">
         <f t="shared" si="19"/>
         <v>3.6979051185813075E-4</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="22">
         <f t="shared" si="19"/>
         <v>-3.2608048082341745E-2</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="22">
         <f t="shared" si="19"/>
         <v>7.2243810072294117E-3</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="22">
         <f t="shared" ref="H35" si="20">(H34-G34)/G34</f>
         <v>5.0678536711124744E-3</v>
       </c>
-      <c r="I35" s="25">
+      <c r="I35" s="22">
         <f t="shared" ref="I35" si="21">(I34-H34)/H34</f>
         <v>-8.920847941377142E-3</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="22">
         <f t="shared" ref="J35" si="22">(J34-I34)/I34</f>
         <v>-1.6245367177126757E-3</v>
       </c>
-      <c r="K35" s="25">
+      <c r="K35" s="22">
         <f t="shared" ref="K35" si="23">(K34-J34)/J34</f>
         <v>1.032282955856368E-2</v>
       </c>
-      <c r="L35" s="25">
+      <c r="L35" s="22">
         <f t="shared" ref="L35" si="24">(L34-K34)/K34</f>
         <v>2.5988666516375443E-2</v>
       </c>
-      <c r="M35" s="25">
+      <c r="M35" s="22">
         <f t="shared" ref="M35" si="25">(M34-L34)/L34</f>
         <v>2.036226624522814E-2</v>
       </c>
-      <c r="N35" s="25">
+      <c r="N35" s="22">
         <f t="shared" ref="N35" si="26">(N34-M34)/M34</f>
         <v>1.9663203997837232E-3</v>
       </c>
-      <c r="O35" s="25">
+      <c r="O35" s="22">
         <f t="shared" ref="O35" si="27">(O34-N34)/N34</f>
         <v>1.2802337037974656E-3</v>
       </c>
-      <c r="P35" s="25">
+      <c r="P35" s="22">
         <f t="shared" ref="P35" si="28">(P34-O34)/O34</f>
         <v>2.0505883505941899E-3</v>
       </c>
-      <c r="Q35" s="25">
+      <c r="Q35" s="22">
         <f t="shared" ref="Q35" si="29">(Q34-P34)/P34</f>
         <v>-5.0403950765631159E-4</v>
       </c>
-      <c r="R35" s="25">
+      <c r="R35" s="22">
         <f t="shared" ref="R35" si="30">(R34-Q34)/Q34</f>
         <v>-1.248746486258249E-3</v>
       </c>
-      <c r="S35" s="25">
+      <c r="S35" s="22">
         <f t="shared" ref="S35" si="31">(S34-R34)/R34</f>
         <v>-1.8283555245898739E-4</v>
       </c>
-      <c r="T35" s="25">
+      <c r="T35" s="22">
         <f t="shared" ref="T35" si="32">(T34-S34)/S34</f>
         <v>-1.5597374605327762E-4</v>
       </c>
-      <c r="U35" s="25">
+      <c r="U35" s="22">
         <f t="shared" ref="U35" si="33">(U34-T34)/T34</f>
         <v>7.3553377436183834E-4</v>
       </c>
-      <c r="V35" s="25">
+      <c r="V35" s="22">
         <f t="shared" ref="V35" si="34">(V34-U34)/U34</f>
         <v>0</v>
       </c>
-      <c r="W35" s="25">
-        <f t="shared" ref="W35" si="35">(W34-V34)/V34</f>
+      <c r="W35" s="22">
+        <f t="shared" ref="W35:X35" si="35">(W34-V34)/V34</f>
         <v>0</v>
       </c>
+      <c r="X35" s="22">
+        <f t="shared" si="35"/>
+        <v>-4.2873652442046422E-3</v>
+      </c>
     </row>
-    <row r="36" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -6099,7 +6736,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -6170,7 +6807,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -6241,7 +6878,7 @@
         <v>7300000000</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -6312,7 +6949,7 @@
         <v>3552000000</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -6383,7 +7020,7 @@
         <v>10852000000</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -6454,7 +7091,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -6525,7 +7162,7 @@
         <v>20320000000</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -6596,7 +7233,7 @@
         <v>8568000000</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -6667,7 +7304,7 @@
         <v>39740000000</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -6738,7 +7375,7 @@
         <v>36951000000</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -6809,7 +7446,7 @@
         <v>24782000000</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -6880,7 +7517,7 @@
         <v>25715000000</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -9393,7 +10030,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -9463,12 +10100,8 @@
       <c r="W83" s="1">
         <v>-4169000000</v>
       </c>
-      <c r="AD83" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE83" s="67"/>
     </row>
-    <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -9538,12 +10171,18 @@
       <c r="W84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD84" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE84" s="68"/>
+      <c r="X84" s="45"/>
+      <c r="Y84" s="45"/>
+      <c r="Z84" s="45"/>
+      <c r="AA84" s="45"/>
+      <c r="AB84" s="45"/>
+      <c r="AC84" s="45"/>
+      <c r="AD84" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE84" s="77"/>
     </row>
-    <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -9613,13 +10252,16 @@
       <c r="W85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD85" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE85" s="45">
-        <f>W17</f>
-        <v>382000000</v>
-      </c>
+      <c r="X85" s="45"/>
+      <c r="Y85" s="45"/>
+      <c r="Z85" s="45"/>
+      <c r="AA85" s="45"/>
+      <c r="AB85" s="45"/>
+      <c r="AC85" s="45"/>
+      <c r="AD85" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE85" s="78"/>
     </row>
     <row r="86" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -9691,12 +10333,18 @@
       <c r="W86" s="1">
         <v>-6375000000</v>
       </c>
-      <c r="AD86" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE86" s="45">
-        <f>W56</f>
-        <v>11991000000</v>
+      <c r="X86" s="45"/>
+      <c r="Y86" s="45"/>
+      <c r="Z86" s="45"/>
+      <c r="AA86" s="45"/>
+      <c r="AB86" s="45"/>
+      <c r="AC86" s="45"/>
+      <c r="AD86" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE86" s="57">
+        <f>W17</f>
+        <v>382000000</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -9769,12 +10417,18 @@
       <c r="W87" s="10">
         <v>17835000000</v>
       </c>
-      <c r="AD87" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE87" s="45">
-        <f>W61</f>
-        <v>23155000000</v>
+      <c r="X87" s="45"/>
+      <c r="Y87" s="45"/>
+      <c r="Z87" s="45"/>
+      <c r="AA87" s="45"/>
+      <c r="AB87" s="45"/>
+      <c r="AC87" s="45"/>
+      <c r="AD87" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE87" s="57">
+        <f>W56</f>
+        <v>11991000000</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -9847,12 +10501,18 @@
       <c r="W88" s="1">
         <v>-4397000000</v>
       </c>
-      <c r="AD88" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE88" s="47">
-        <f>AE85/(AE86+AE87)</f>
-        <v>1.0868946679565242E-2</v>
+      <c r="X88" s="45"/>
+      <c r="Y88" s="45"/>
+      <c r="Z88" s="45"/>
+      <c r="AA88" s="45"/>
+      <c r="AB88" s="45"/>
+      <c r="AC88" s="45"/>
+      <c r="AD88" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE88" s="57">
+        <f>W61</f>
+        <v>23155000000</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -9947,18 +10607,18 @@
         <f t="shared" si="37"/>
         <v>5.5528894726207312E-2</v>
       </c>
-      <c r="X89" s="18"/>
-      <c r="Y89" s="18"/>
-      <c r="Z89" s="18"/>
-      <c r="AA89" s="18"/>
-      <c r="AB89" s="18"/>
-      <c r="AC89" s="18"/>
-      <c r="AD89" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE89" s="45">
-        <f>W27</f>
-        <v>5362000000</v>
+      <c r="X89" s="45"/>
+      <c r="Y89" s="45"/>
+      <c r="Z89" s="45"/>
+      <c r="AA89" s="45"/>
+      <c r="AB89" s="45"/>
+      <c r="AC89" s="45"/>
+      <c r="AD89" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE89" s="58">
+        <f>AE86/(AE87+AE88)</f>
+        <v>1.0868946679565242E-2</v>
       </c>
     </row>
     <row r="90" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10031,12 +10691,18 @@
       <c r="W90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD90" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE90" s="45">
-        <f>W25</f>
-        <v>20115000000</v>
+      <c r="X90" s="59"/>
+      <c r="Y90" s="59"/>
+      <c r="Z90" s="59"/>
+      <c r="AA90" s="59"/>
+      <c r="AB90" s="59"/>
+      <c r="AC90" s="59"/>
+      <c r="AD90" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE90" s="57">
+        <f>W27</f>
+        <v>5362000000</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10109,12 +10775,18 @@
       <c r="W91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD91" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE91" s="47">
-        <f>AE89/AE90</f>
-        <v>0.26656723837931889</v>
+      <c r="X91" s="45"/>
+      <c r="Y91" s="45"/>
+      <c r="Z91" s="45"/>
+      <c r="AA91" s="45"/>
+      <c r="AB91" s="45"/>
+      <c r="AC91" s="45"/>
+      <c r="AD91" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE91" s="57">
+        <f>W25</f>
+        <v>20115000000</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10187,15 +10859,21 @@
       <c r="W92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD92" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE92" s="47">
-        <f>AE88*(1-AE91)</f>
-        <v>7.9716415791014662E-3</v>
+      <c r="X92" s="45"/>
+      <c r="Y92" s="45"/>
+      <c r="Z92" s="45"/>
+      <c r="AA92" s="45"/>
+      <c r="AB92" s="45"/>
+      <c r="AC92" s="45"/>
+      <c r="AD92" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE92" s="58">
+        <f>AE90/AE91</f>
+        <v>0.26656723837931889</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -10265,12 +10943,21 @@
       <c r="W93" s="1">
         <v>-1523000000</v>
       </c>
-      <c r="AD93" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE93" s="69"/>
+      <c r="X93" s="45"/>
+      <c r="Y93" s="45"/>
+      <c r="Z93" s="45"/>
+      <c r="AA93" s="45"/>
+      <c r="AB93" s="45"/>
+      <c r="AC93" s="45"/>
+      <c r="AD93" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE93" s="58">
+        <f>AE89*(1-AE92)</f>
+        <v>7.9716415791014662E-3</v>
+      </c>
     </row>
-    <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -10340,13 +11027,16 @@
       <c r="W94" s="10">
         <v>-5920000000</v>
       </c>
-      <c r="AD94" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE94" s="48">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="X94" s="45"/>
+      <c r="Y94" s="45"/>
+      <c r="Z94" s="45"/>
+      <c r="AA94" s="45"/>
+      <c r="AB94" s="45"/>
+      <c r="AC94" s="45"/>
+      <c r="AD94" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE94" s="78"/>
     </row>
     <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -10418,12 +11108,18 @@
       <c r="W95" s="1">
         <v>-3891000000</v>
       </c>
-      <c r="AD95" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE95" s="49" cm="1">
-        <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.0145</v>
+      <c r="X95" s="45"/>
+      <c r="Y95" s="45"/>
+      <c r="Z95" s="45"/>
+      <c r="AA95" s="45"/>
+      <c r="AB95" s="45"/>
+      <c r="AC95" s="45"/>
+      <c r="AD95" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE95" s="60">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10496,14 +11192,21 @@
       <c r="W96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD96" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE96" s="48">
-        <v>8.4000000000000005E-2</v>
+      <c r="X96" s="45"/>
+      <c r="Y96" s="45"/>
+      <c r="Z96" s="45"/>
+      <c r="AA96" s="45"/>
+      <c r="AB96" s="45"/>
+      <c r="AC96" s="45"/>
+      <c r="AD96" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE96" s="61" cm="1">
+        <f t="array" ref="AE96">_FV(A1,"Beta")</f>
+        <v>1.0228999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>82</v>
       </c>
@@ -10573,15 +11276,20 @@
       <c r="W97" s="1">
         <v>-1616000000</v>
       </c>
-      <c r="AD97" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE97" s="47">
-        <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>8.4650760000000005E-2</v>
+      <c r="X97" s="45"/>
+      <c r="Y97" s="45"/>
+      <c r="Z97" s="45"/>
+      <c r="AA97" s="45"/>
+      <c r="AB97" s="45"/>
+      <c r="AC97" s="45"/>
+      <c r="AD97" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE97" s="60">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -10651,12 +11359,24 @@
       <c r="W98" s="1">
         <v>-6025000000</v>
       </c>
-      <c r="AD98" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE98" s="69"/>
+      <c r="X98" s="45"/>
+      <c r="Y98" s="45"/>
+      <c r="Z98" s="45"/>
+      <c r="AA98" s="45"/>
+      <c r="AB98" s="45"/>
+      <c r="AC98" s="45"/>
+      <c r="AD98" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE98" s="58">
+        <f>(AE95)+((AE96)*(AE97-AE95))</f>
+        <v>8.4801041999999993E-2</v>
+      </c>
+      <c r="AF98" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -10726,15 +11446,22 @@
       <c r="W99" s="1">
         <v>-1154000000</v>
       </c>
-      <c r="AD99" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE99" s="45">
-        <f>AE86+AE87</f>
-        <v>35146000000</v>
+      <c r="X99" s="45"/>
+      <c r="Y99" s="45"/>
+      <c r="Z99" s="45"/>
+      <c r="AA99" s="45"/>
+      <c r="AB99" s="45"/>
+      <c r="AC99" s="45"/>
+      <c r="AD99" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE99" s="78"/>
+      <c r="AF99" s="53" cm="1">
+        <f t="array" ref="AF99">_FV(AF98,"Price")</f>
+        <v>703.56</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
@@ -10804,15 +11531,24 @@
       <c r="W100" s="10">
         <v>-12686000000</v>
       </c>
-      <c r="AD100" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE100" s="47">
-        <f>AE99/AE103</f>
-        <v>7.4639956608331143E-2</v>
+      <c r="X100" s="45"/>
+      <c r="Y100" s="45"/>
+      <c r="Z100" s="45"/>
+      <c r="AA100" s="45"/>
+      <c r="AB100" s="45"/>
+      <c r="AC100" s="45"/>
+      <c r="AD100" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE100" s="57">
+        <f>AE87+AE88</f>
+        <v>35146000000</v>
+      </c>
+      <c r="AF100" t="e" vm="3">
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>86</v>
       </c>
@@ -10882,15 +11618,25 @@
       <c r="W101" s="1">
         <v>55000000</v>
       </c>
-      <c r="AD101" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE101" s="50" cm="1">
-        <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>435727800000</v>
+      <c r="X101" s="45"/>
+      <c r="Y101" s="45"/>
+      <c r="Z101" s="45"/>
+      <c r="AA101" s="45"/>
+      <c r="AB101" s="45"/>
+      <c r="AC101" s="45"/>
+      <c r="AD101" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE101" s="58">
+        <f>AE100/AE104</f>
+        <v>9.4895909075322443E-2</v>
+      </c>
+      <c r="AF101" s="52" cm="1">
+        <f t="array" ref="AF101">_FV(AF100,"Previous close",TRUE)</f>
+        <v>0.94469999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>87</v>
       </c>
@@ -10960,15 +11706,21 @@
       <c r="W102" s="10">
         <v>-717000000</v>
       </c>
-      <c r="AD102" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE102" s="47">
-        <f>AE101/AE103</f>
-        <v>0.92536004339166888</v>
+      <c r="X102" s="45"/>
+      <c r="Y102" s="45"/>
+      <c r="Z102" s="45"/>
+      <c r="AA102" s="45"/>
+      <c r="AB102" s="45"/>
+      <c r="AC102" s="45"/>
+      <c r="AD102" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE102" s="62" cm="1">
+        <f t="array" ref="AE102">_FV(A1,"Market cap",TRUE)</f>
+        <v>335217700000</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
@@ -11038,15 +11790,21 @@
       <c r="W103" s="1">
         <v>7817000000</v>
       </c>
-      <c r="AD103" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE103" s="51">
-        <f>AE99+AE101</f>
-        <v>470873800000</v>
+      <c r="X103" s="45"/>
+      <c r="Y103" s="45"/>
+      <c r="Z103" s="45"/>
+      <c r="AA103" s="45"/>
+      <c r="AB103" s="45"/>
+      <c r="AC103" s="45"/>
+      <c r="AD103" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE103" s="58">
+        <f>AE102/AE104</f>
+        <v>0.90510409092467758</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -11116,17 +11874,28 @@
       <c r="W104" s="11">
         <v>7100000000</v>
       </c>
-      <c r="AD104" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE104" s="43"/>
+      <c r="X104" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y104" s="79"/>
+      <c r="Z104" s="79"/>
+      <c r="AA104" s="79"/>
+      <c r="AB104" s="79"/>
+      <c r="AC104" s="45"/>
+      <c r="AD104" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE104" s="63">
+        <f>AE100+AE102</f>
+        <v>370363700000</v>
+      </c>
     </row>
-    <row r="105" spans="1:31" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:V105" si="38">(B22*(1-$AE$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:W105" si="38">(B22*(1-$AE$92))+B77+B88+B81</f>
         <v>1251155108.1282625</v>
       </c>
       <c r="C105" s="1">
@@ -11210,158 +11979,161 @@
         <v>16162039025.602783</v>
       </c>
       <c r="W105" s="1">
-        <f>(W22*(1-$AE$91))+W77+W88+W81</f>
+        <f t="shared" si="38"/>
         <v>14214821426.795921</v>
       </c>
-      <c r="X105" s="22">
-        <f>W105*(1+$AE$106)</f>
-        <v>15373775957.704634</v>
-      </c>
-      <c r="Y105" s="22">
-        <f t="shared" ref="Y105:AB105" si="39">X105*(1+$AE$106)</f>
-        <v>16627221693.559605</v>
-      </c>
-      <c r="Z105" s="22">
-        <f t="shared" si="39"/>
-        <v>17982862636.178051</v>
-      </c>
-      <c r="AA105" s="22">
-        <f t="shared" si="39"/>
-        <v>19449030905.560612</v>
-      </c>
-      <c r="AB105" s="22">
-        <f t="shared" si="39"/>
-        <v>21034737951.256771</v>
-      </c>
-      <c r="AC105" s="23" t="s">
+      <c r="X105" s="55">
+        <f>X107/X3</f>
+        <v>0.19567045454545454</v>
+      </c>
+      <c r="Y105" s="55">
+        <f>Y107/Y3</f>
+        <v>0.20682164034213149</v>
+      </c>
+      <c r="Z105" s="55">
+        <f>Z107/Z3</f>
+        <v>0.21890196078431373</v>
+      </c>
+      <c r="AA105" s="55">
+        <f>AA107/AA3</f>
+        <v>0.21874011090573012</v>
+      </c>
+      <c r="AB105" s="55">
+        <f>AB107/AB3</f>
+        <v>0.2186909982728843</v>
+      </c>
+      <c r="AC105" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="AD105" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE105" s="53">
-        <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.8927433928299054E-2</v>
-      </c>
+      <c r="AD105" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE105" s="78"/>
     </row>
-    <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="18">
-        <f t="shared" ref="C106:W106" si="40">(C107/B107)-1</f>
+        <f t="shared" ref="C106:W106" si="39">(C107/B107)-1</f>
         <v>-4.4024390243902438</v>
       </c>
       <c r="D106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-9.3906810035842336E-2</v>
       </c>
       <c r="E106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>5.6170886075949333E-2</v>
       </c>
       <c r="F106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-3.5955056179775235E-2</v>
       </c>
       <c r="G106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.1787101787101788</v>
       </c>
       <c r="H106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-3.2300593276203049E-2</v>
       </c>
       <c r="I106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-0.15599455040871935</v>
       </c>
       <c r="J106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.76432606941081516</v>
       </c>
       <c r="K106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.39387008234217746</v>
       </c>
       <c r="L106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-0.29176238923531339</v>
       </c>
       <c r="M106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>7.7386468952733933E-2</v>
       </c>
       <c r="N106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.19612903225806444</v>
       </c>
       <c r="O106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-7.9108234448039827E-3</v>
       </c>
       <c r="P106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.29720913374411029</v>
       </c>
       <c r="Q106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.9558535903883678E-2</v>
       </c>
       <c r="R106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.28391340093176209</v>
       </c>
       <c r="S106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.14172892209178234</v>
       </c>
       <c r="T106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.57449990652458394</v>
       </c>
       <c r="U106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.3061030634053949E-3</v>
       </c>
       <c r="V106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.82521048262777175</v>
       </c>
       <c r="W106" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-0.17145270270270274</v>
       </c>
-      <c r="X106" s="38">
-        <v>18141000000</v>
-      </c>
-      <c r="Y106" s="38">
-        <v>20294000000</v>
-      </c>
-      <c r="Z106" s="38">
-        <v>22185000000</v>
-      </c>
-      <c r="AA106" s="38">
-        <v>23737000000</v>
-      </c>
-      <c r="AB106" s="38">
-        <v>25400000000</v>
-      </c>
-      <c r="AC106" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD106" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE106" s="55">
-        <f>(SUM(X4,Y4,Z4,AA4,AB4)/5)</f>
-        <v>8.1531416829760769E-2</v>
+      <c r="X106" s="46">
+        <f>(X107/W107)-1</f>
+        <v>0.35019211166000153</v>
+      </c>
+      <c r="Y106" s="46">
+        <f>(Y107/X107)-1</f>
+        <v>0.14449155003194147</v>
+      </c>
+      <c r="Z106" s="46">
+        <f>(Z107/Y107)-1</f>
+        <v>0.13299842695488917</v>
+      </c>
+      <c r="AA106" s="46">
+        <f>(AA107/Z107)-1</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="AB106" s="46">
+        <f>(AB107/AA107)-1</f>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="AC106" s="51">
+        <f>SUM(X106:AB106)/5</f>
+        <v>0.15153641772936646</v>
+      </c>
+      <c r="AD106" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE106" s="64">
+        <f>(AE101*AE93)+(AE103*AE98)</f>
+        <v>7.7510246203346872E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="40" t="s">
-        <v>160</v>
+    <row r="107" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="35" t="s">
+        <v>158</v>
       </c>
       <c r="B107" s="1">
         <v>-410000000</v>
@@ -11429,150 +12201,241 @@
       <c r="W107" s="1">
         <v>12753000000</v>
       </c>
-      <c r="X107" s="23"/>
-      <c r="Y107" s="23"/>
-      <c r="Z107" s="23"/>
-      <c r="AA107" s="23"/>
-      <c r="AB107" s="39">
-        <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>482778395030.1745</v>
-      </c>
-      <c r="AC107" s="24" t="s">
+      <c r="X107" s="48">
+        <v>17219000000</v>
+      </c>
+      <c r="Y107" s="48">
+        <v>19707000000</v>
+      </c>
+      <c r="Z107" s="48">
+        <v>22328000000</v>
+      </c>
+      <c r="AA107" s="48">
+        <f>Z107*1.06</f>
+        <v>23667680000</v>
+      </c>
+      <c r="AB107" s="48">
+        <f>AA107*1.07</f>
+        <v>25324417600</v>
+      </c>
+      <c r="AC107" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD107" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE107" s="40">
+        <f>(SUM(X4,Y4,Z4,AA4,AB4)/5)</f>
+        <v>7.9123423178263014E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" ht="19" x14ac:dyDescent="0.2">
+      <c r="X108" s="74"/>
+      <c r="Y108" s="74"/>
+      <c r="Z108" s="74"/>
+      <c r="AA108" s="74"/>
+      <c r="AB108" s="49">
+        <f>AB107*(1+AE108)/(AE109-AE108)</f>
+        <v>494332628711.71851</v>
+      </c>
+      <c r="AC108" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="AD107" s="56" t="s">
+      <c r="AD108" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="AE107" s="57">
+      <c r="AE108" s="41">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X108" s="39">
-        <f t="shared" ref="X108:AA108" si="41">X107+X106</f>
-        <v>18141000000</v>
-      </c>
-      <c r="Y108" s="39">
-        <f t="shared" si="41"/>
-        <v>20294000000</v>
-      </c>
-      <c r="Z108" s="39">
-        <f t="shared" si="41"/>
-        <v>22185000000</v>
-      </c>
-      <c r="AA108" s="39">
-        <f t="shared" si="41"/>
-        <v>23737000000</v>
-      </c>
-      <c r="AB108" s="39">
-        <f>AB107+AB106</f>
-        <v>508178395030.1745</v>
-      </c>
-      <c r="AC108" s="24" t="s">
+    <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.2">
+      <c r="X109" s="49">
+        <f>X108+X107</f>
+        <v>17219000000</v>
+      </c>
+      <c r="Y109" s="49">
+        <f>Y108+Y107</f>
+        <v>19707000000</v>
+      </c>
+      <c r="Z109" s="49">
+        <f>Z108+Z107</f>
+        <v>22328000000</v>
+      </c>
+      <c r="AA109" s="49">
+        <f>AA108+AA107</f>
+        <v>23667680000</v>
+      </c>
+      <c r="AB109" s="49">
+        <f>AB108+AB107</f>
+        <v>519657046311.71851</v>
+      </c>
+      <c r="AC109" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="AD108" s="58" t="s">
+      <c r="AD109" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AE108" s="55">
-        <f>AE105</f>
-        <v>7.8927433928299054E-2</v>
+      <c r="AE109" s="40">
+        <f>AE106</f>
+        <v>7.7510246203346872E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="65" t="s">
+    <row r="110" spans="1:32" ht="19" x14ac:dyDescent="0.2">
+      <c r="X110" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="Y109" s="65"/>
+      <c r="Y110" s="75"/>
+      <c r="Z110" s="45"/>
+      <c r="AA110" s="45"/>
+      <c r="AB110" s="45"/>
+      <c r="AC110" s="45"/>
+      <c r="AD110" s="45"/>
+      <c r="AE110" s="45"/>
     </row>
-    <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X110" s="59" t="s">
+    <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.2">
+      <c r="X111" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="Y110" s="50">
-        <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>417008182445.25458</v>
-      </c>
+      <c r="Y111" s="62">
+        <f>NPV(AE109,X109,Y109,Z109,AA109,AB109)</f>
+        <v>426134564532.94818</v>
+      </c>
+      <c r="Z111" s="45"/>
+      <c r="AA111" s="45"/>
+      <c r="AB111" s="45"/>
+      <c r="AC111" s="45"/>
+      <c r="AD111" s="45"/>
+      <c r="AE111" s="45"/>
     </row>
-    <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X111" s="59" t="s">
+    <row r="112" spans="1:32" ht="20" x14ac:dyDescent="0.2">
+      <c r="X112" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="Y111" s="50">
+      <c r="Y112" s="62">
         <f>W40</f>
         <v>10852000000</v>
       </c>
+      <c r="Z112" s="45"/>
+      <c r="AA112" s="45"/>
+      <c r="AB112" s="45"/>
+      <c r="AC112" s="45"/>
+      <c r="AD112" s="45"/>
+      <c r="AE112" s="45"/>
     </row>
-    <row r="112" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X112" s="59" t="s">
+    <row r="113" spans="24:31" ht="20" x14ac:dyDescent="0.2">
+      <c r="X113" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="Y112" s="50">
-        <f>AE99</f>
+      <c r="Y113" s="62">
+        <f>AE100</f>
         <v>35146000000</v>
       </c>
+      <c r="Z113" s="45"/>
+      <c r="AA113" s="45"/>
+      <c r="AB113" s="45"/>
+      <c r="AC113" s="45"/>
+      <c r="AD113" s="45"/>
+      <c r="AE113" s="45"/>
     </row>
-    <row r="113" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X113" s="59" t="s">
+    <row r="114" spans="24:31" ht="20" x14ac:dyDescent="0.2">
+      <c r="X114" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="Y113" s="50">
-        <f>Y110+Y111-Y112</f>
-        <v>392714182445.25458</v>
-      </c>
+      <c r="Y114" s="62">
+        <f>Y111+Y112-Y113</f>
+        <v>401840564532.94818</v>
+      </c>
+      <c r="Z114" s="45"/>
+      <c r="AA114" s="45"/>
+      <c r="AB114" s="45"/>
+      <c r="AC114" s="45"/>
+      <c r="AD114" s="45"/>
+      <c r="AE114" s="45"/>
     </row>
-    <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X114" s="59" t="s">
+    <row r="115" spans="24:31" ht="20" x14ac:dyDescent="0.2">
+      <c r="X115" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="Y114" s="59">
+      <c r="Y115" s="68">
         <f>W34*(1+(5*AC16))</f>
         <v>504410165.50073248</v>
       </c>
+      <c r="Z115" s="45"/>
+      <c r="AA115" s="45"/>
+      <c r="AB115" s="45"/>
+      <c r="AC115" s="45"/>
+      <c r="AD115" s="45"/>
+      <c r="AE115" s="45"/>
     </row>
-    <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="60" t="s">
+    <row r="116" spans="24:31" ht="20" x14ac:dyDescent="0.2">
+      <c r="X116" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y116" s="70">
+        <f>Y114/Y115*AF101</f>
+        <v>752.59938692437959</v>
+      </c>
+      <c r="Z116" s="45"/>
+      <c r="AA116" s="45"/>
+      <c r="AB116" s="45"/>
+      <c r="AC116" s="45"/>
+      <c r="AD116" s="45"/>
+      <c r="AE116" s="45"/>
+    </row>
+    <row r="117" spans="24:31" ht="20" x14ac:dyDescent="0.2">
+      <c r="X117" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y117" s="71">
+        <f>AF99</f>
+        <v>703.56</v>
+      </c>
+      <c r="Z117" s="45"/>
+      <c r="AA117" s="45"/>
+      <c r="AB117" s="45"/>
+      <c r="AC117" s="45"/>
+      <c r="AD117" s="45"/>
+      <c r="AE117" s="45"/>
+    </row>
+    <row r="118" spans="24:31" ht="20" x14ac:dyDescent="0.2">
+      <c r="X118" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="Y115" s="61">
-        <f>Y113/Y114</f>
-        <v>778.56119742432963</v>
-      </c>
+      <c r="Y118" s="72">
+        <f>Y116/Y117-1</f>
+        <v>6.970178367783797E-2</v>
+      </c>
+      <c r="Z118" s="45"/>
+      <c r="AA118" s="45"/>
+      <c r="AB118" s="45"/>
+      <c r="AC118" s="45"/>
+      <c r="AD118" s="45"/>
+      <c r="AE118" s="45"/>
     </row>
-    <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X116" s="59" t="s">
+    <row r="119" spans="24:31" ht="20" x14ac:dyDescent="0.2">
+      <c r="X119" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="Y116" s="62" cm="1">
-        <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>854</v>
-      </c>
-    </row>
-    <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y117" s="63">
-        <f>Y115/Y116-1</f>
-        <v>-8.8335834397740509E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y118" s="64" t="str">
-        <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
+      <c r="Y119" s="73" t="str">
+        <f>IF(Y116&gt;Y117,"BUY","SELL")</f>
+        <v>BUY</v>
+      </c>
+      <c r="Z119" s="45"/>
+      <c r="AA119" s="45"/>
+      <c r="AB119" s="45"/>
+      <c r="AC119" s="45"/>
+      <c r="AD119" s="45"/>
+      <c r="AE119" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="X109:Y109"/>
-    <mergeCell ref="AD83:AE83"/>
+  <mergeCells count="7">
+    <mergeCell ref="X110:Y110"/>
     <mergeCell ref="AD84:AE84"/>
-    <mergeCell ref="AD93:AE93"/>
-    <mergeCell ref="AD98:AE98"/>
+    <mergeCell ref="AD105:AE105"/>
+    <mergeCell ref="AD99:AE99"/>
+    <mergeCell ref="AD94:AE94"/>
+    <mergeCell ref="AD85:AE85"/>
+    <mergeCell ref="X104:AB104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/MC.PA" display="ROIC.AI | MC.PA" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11621,7 +12484,7 @@
     <hyperlink ref="W36" r:id="rId44" location="phrase=M.C" tooltip="https://www.infogreffe.com/recherche-entreprise-dirigeants/resultats-entreprise-dirigeants.html?ga_cat=globale&amp;ga_q=M.C#phrase=M.C" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="W74" r:id="rId45" location="phrase=M.C" tooltip="https://www.infogreffe.com/recherche-entreprise-dirigeants/resultats-entreprise-dirigeants.html?ga_cat=globale&amp;ga_q=M.C#phrase=M.C" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="X1" r:id="rId46" display="https://finbox.com/ENXTPA:MC/explorer/revenue_proj" xr:uid="{C3F15A0D-8FE9-8043-8D68-4296404C5141}"/>
-    <hyperlink ref="AC106" r:id="rId47" xr:uid="{1BAD05AD-4F44-E345-8B2F-0F047132F963}"/>
+    <hyperlink ref="AC107" r:id="rId47" xr:uid="{1BAD05AD-4F44-E345-8B2F-0F047132F963}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId48"/>

--- a/Consumer/Louis Vuitton Moet Hennessy.xlsx
+++ b/Consumer/Louis Vuitton Moet Hennessy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D102461E-E516-A446-ADDA-DAE127544DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A734113F-DA11-804D-8A01-14CC1AF3E9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2660,9 +2660,9 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth Portfolio"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Retirement"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2681,7 +2681,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2822,9 +2822,9 @@
     <v>Powered by Refinitiv</v>
     <v>904.6</v>
     <v>614.1</v>
-    <v>1.0228999999999999</v>
-    <v>2.9</v>
-    <v>4.3430000000000005E-3</v>
+    <v>1.0238</v>
+    <v>-6.6</v>
+    <v>-9.8420000000000001E-3</v>
     <v>EUR</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2832,24 +2832,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>676.3</v>
+    <v>670.4</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45218.666666666664</v>
+    <v>45219.666666666664</v>
     <v>0</v>
-    <v>660.5</v>
-    <v>335217700000</v>
+    <v>659.3</v>
+    <v>336673700000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>662</v>
+    <v>660.6</v>
     <v>20.9542</v>
-    <v>667.7</v>
     <v>670.6</v>
+    <v>664</v>
     <v>502048400</v>
     <v>MC</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
-    <v>364426</v>
-    <v>525970</v>
+    <v>427190</v>
+    <v>529390</v>
     <v>1971</v>
   </rv>
   <rv s="2">
@@ -2859,23 +2859,25 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a2nj52&amp;q=OTCM%3aLVMHF&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="1">
-    <v>0</v>
+  <rv s="3">
+    <v>5</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (OTCM:LVMHF)</v>
     <v>2</v>
-    <v>5</v>
+    <v>6</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>7</v>
     <v>en-US</v>
     <v>a2nj52</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1003.5</v>
-    <v>605</v>
-    <v>1.0228999999999999</v>
-    <v>-0.432</v>
-    <v>-6.1359999999999995E-4</v>
+    <v>605.9</v>
+    <v>1.0238</v>
+    <v>-1.06</v>
+    <v>-1.5070000000000001E-3</v>
+    <v>3.4798</v>
+    <v>4.9529999999999999E-3</v>
     <v>USD</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2883,36 +2885,37 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>717.88</v>
+    <v>710.95</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45218.825189015624</v>
+    <v>45220.006944444445</v>
     <v>3</v>
-    <v>703.56</v>
-    <v>335217700000</v>
+    <v>699.00009999999997</v>
+    <v>336673700000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>705</v>
-    <v>20.162700000000001</v>
-    <v>703.99199999999996</v>
+    <v>699.00009999999997</v>
+    <v>20.150400000000001</v>
     <v>703.56</v>
+    <v>702.5</v>
+    <v>705.97979999999995</v>
     <v>502048400</v>
     <v>LVMHF</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (OTCM:LVMHF)</v>
-    <v>3433</v>
-    <v>525970</v>
+    <v>1781</v>
+    <v>529390</v>
     <v>1971</v>
   </rv>
   <rv s="2">
     <v>4</v>
   </rv>
-  <rv s="3">
-    <v>6</v>
+  <rv s="4">
+    <v>8</v>
     <v>USD/EUR</v>
-    <v>7</v>
-    <v>8</v>
+    <v>9</v>
+    <v>10</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>11</v>
     <v>en-US</v>
     <v>avyn9c</v>
     <v>268435456</v>
@@ -2920,18 +2923,15 @@
     <v>Powered by Refinitiv</v>
     <v>1.0303</v>
     <v>0.88670000000000004</v>
-    <v>6.9999999999999999E-4</v>
-    <v>7.4100000000000001E-4</v>
+    <v>-8.9999999999999998E-4</v>
+    <v>-9.526999999999999E-4</v>
     <v>EUR</v>
     <v>USD</v>
-    <v>0.94620000000000004</v>
     <v>Currency Pair</v>
-    <v>45219.184918981482</v>
-    <v>0.9446</v>
+    <v>45219.875</v>
     <v>US Dollar/Euro FX Cross Rate</v>
-    <v>0.94489999999999996</v>
     <v>0.94469999999999998</v>
-    <v>0.94540000000000002</v>
+    <v>0.94379999999999997</v>
     <v>USDEUR</v>
     <v>USD/EUR</v>
   </rv>
@@ -2942,7 +2942,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -3008,16 +3008,60 @@
     <k n="%ProviderInfo" t="s"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
     <k n="Change"/>
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
-    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
-    <k n="Low"/>
     <k n="Name" t="s"/>
-    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -3028,7 +3072,7 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="2">
+  <spbArrays count="3">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -3073,7 +3117,54 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="27">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+    <a count="24">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3091,9 +3182,6 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -3103,7 +3191,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="10">
+  <spbData count="12">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -3148,7 +3236,12 @@
       <v>from previous close</v>
       <v>GMT</v>
     </spb>
-    <spb s="3">
+    <spb s="0">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="5">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -3169,20 +3262,29 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
     </spb>
-    <spb s="5">
-      <v>1</v>
+    <spb s="6">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+    <spb s="7">
+      <v>2</v>
       <v>Name</v>
     </spb>
-    <spb s="6">
+    <spb s="8">
       <v>1</v>
       <v>1</v>
     </spb>
-    <spb s="7">
-      <v>1</v>
-      <v>1</v>
+    <spb s="9">
       <v>3</v>
-      <v>1</v>
       <v>1</v>
       <v>1</v>
       <v>5</v>
@@ -3192,7 +3294,7 @@
       <v>7</v>
       <v>9</v>
     </spb>
-    <spb s="8">
+    <spb s="10">
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3200,7 +3302,7 @@
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="9">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="11">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -3246,6 +3348,40 @@
     <k n="Last trade time" t="s"/>
   </s>
   <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+  <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
   </s>
@@ -3254,10 +3390,7 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
-    <k n="Low" t="i"/>
-    <k n="High" t="i"/>
     <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -3636,7 +3769,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="T96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y87" sqref="Y87"/>
+      <selection pane="bottomRight" activeCell="V115" sqref="V115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5060,15 +5193,15 @@
       </c>
       <c r="AD16" s="33">
         <f>AE102/W3</f>
-        <v>4.2334019498888669</v>
+        <v>4.2517895029298849</v>
       </c>
       <c r="AE16" s="33">
         <f>AE102/W28</f>
-        <v>23.801313547287702</v>
+        <v>23.904693268957683</v>
       </c>
       <c r="AF16" s="34">
         <f>AE102/W107</f>
-        <v>26.285399513839881</v>
+        <v>26.399568728926528</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5318,15 +5451,15 @@
       </c>
       <c r="AD19" s="33">
         <f>AE102/X3</f>
-        <v>3.8092920454545456</v>
+        <v>3.8258375</v>
       </c>
       <c r="AE19" s="33">
         <f>AE102/X28</f>
-        <v>20.312531054959706</v>
+        <v>20.40075743804157</v>
       </c>
       <c r="AF19" s="34">
         <f>AE102/X107</f>
-        <v>19.467895928915734</v>
+        <v>19.552453684882977</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5615,11 +5748,11 @@
       </c>
       <c r="AE22" s="42">
         <f>(-1*W98)/AE102</f>
-        <v>1.7973394602969952E-2</v>
+        <v>1.7895665744012676E-2</v>
       </c>
       <c r="AF22" s="36">
         <f>X107/AE102</f>
-        <v>5.1366619364072962E-2</v>
+        <v>5.1144476090648004E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11119,7 +11252,7 @@
       </c>
       <c r="AE95" s="60">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11203,7 +11336,7 @@
       </c>
       <c r="AE96" s="61" cm="1">
         <f t="array" ref="AE96">_FV(A1,"Beta")</f>
-        <v>1.0228999999999999</v>
+        <v>1.0238</v>
       </c>
     </row>
     <row r="97" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11370,7 +11503,7 @@
       </c>
       <c r="AE98" s="58">
         <f>(AE95)+((AE96)*(AE97-AE95))</f>
-        <v>8.4801041999999993E-2</v>
+        <v>8.4812055999999997E-2</v>
       </c>
       <c r="AF98" t="e" vm="2">
         <v>#VALUE!</v>
@@ -11458,7 +11591,7 @@
       <c r="AE99" s="78"/>
       <c r="AF99" s="53" cm="1">
         <f t="array" ref="AF99">_FV(AF98,"Price")</f>
-        <v>703.56</v>
+        <v>702.5</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11629,7 +11762,7 @@
       </c>
       <c r="AE101" s="58">
         <f>AE100/AE104</f>
-        <v>9.4895909075322443E-2</v>
+        <v>9.4524308421527967E-2</v>
       </c>
       <c r="AF101" s="52" cm="1">
         <f t="array" ref="AF101">_FV(AF100,"Previous close",TRUE)</f>
@@ -11717,7 +11850,7 @@
       </c>
       <c r="AE102" s="62" cm="1">
         <f t="array" ref="AE102">_FV(A1,"Market cap",TRUE)</f>
-        <v>335217700000</v>
+        <v>336673700000</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11801,7 +11934,7 @@
       </c>
       <c r="AE103" s="58">
         <f>AE102/AE104</f>
-        <v>0.90510409092467758</v>
+        <v>0.90547569157847207</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11887,7 +12020,7 @@
       </c>
       <c r="AE104" s="63">
         <f>AE100+AE102</f>
-        <v>370363700000</v>
+        <v>371819700000</v>
       </c>
     </row>
     <row r="105" spans="1:32" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -12128,7 +12261,7 @@
       </c>
       <c r="AE106" s="64">
         <f>(AE101*AE93)+(AE103*AE98)</f>
-        <v>7.7510246203346872E-2</v>
+        <v>7.7548768968040957E-2</v>
       </c>
     </row>
     <row r="107" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -12236,7 +12369,7 @@
       <c r="AA108" s="74"/>
       <c r="AB108" s="49">
         <f>AB107*(1+AE108)/(AE109-AE108)</f>
-        <v>494332628711.71851</v>
+        <v>493970240402.52612</v>
       </c>
       <c r="AC108" s="50" t="s">
         <v>139</v>
@@ -12267,7 +12400,7 @@
       </c>
       <c r="AB109" s="49">
         <f>AB108+AB107</f>
-        <v>519657046311.71851</v>
+        <v>519294658002.52612</v>
       </c>
       <c r="AC109" s="50" t="s">
         <v>136</v>
@@ -12277,7 +12410,7 @@
       </c>
       <c r="AE109" s="40">
         <f>AE106</f>
-        <v>7.7510246203346872E-2</v>
+        <v>7.7548768968040957E-2</v>
       </c>
     </row>
     <row r="110" spans="1:32" ht="19" x14ac:dyDescent="0.2">
@@ -12298,7 +12431,7 @@
       </c>
       <c r="Y111" s="62">
         <f>NPV(AE109,X109,Y109,Z109,AA109,AB109)</f>
-        <v>426134564532.94818</v>
+        <v>425814953048.953</v>
       </c>
       <c r="Z111" s="45"/>
       <c r="AA111" s="45"/>
@@ -12343,7 +12476,7 @@
       </c>
       <c r="Y114" s="62">
         <f>Y111+Y112-Y113</f>
-        <v>401840564532.94818</v>
+        <v>401520953048.953</v>
       </c>
       <c r="Z114" s="45"/>
       <c r="AA114" s="45"/>
@@ -12373,7 +12506,7 @@
       </c>
       <c r="Y116" s="70">
         <f>Y114/Y115*AF101</f>
-        <v>752.59938692437959</v>
+        <v>752.00079278496435</v>
       </c>
       <c r="Z116" s="45"/>
       <c r="AA116" s="45"/>
@@ -12388,7 +12521,7 @@
       </c>
       <c r="Y117" s="71">
         <f>AF99</f>
-        <v>703.56</v>
+        <v>702.5</v>
       </c>
       <c r="Z117" s="45"/>
       <c r="AA117" s="45"/>
@@ -12403,7 +12536,7 @@
       </c>
       <c r="Y118" s="72">
         <f>Y116/Y117-1</f>
-        <v>6.970178367783797E-2</v>
+        <v>7.0463761971479411E-2</v>
       </c>
       <c r="Z118" s="45"/>
       <c r="AA118" s="45"/>

--- a/Consumer/Louis Vuitton Moet Hennessy.xlsx
+++ b/Consumer/Louis Vuitton Moet Hennessy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A734113F-DA11-804D-8A01-14CC1AF3E9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26A902C-BF36-FA48-B17A-D922BF22BA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2656,16 +2656,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth Portfolio"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Retirement"/>
+      <sheetName val="Highest Quality"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2678,14 +2677,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2694,7 +2693,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2821,10 +2819,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>904.6</v>
-    <v>614.1</v>
-    <v>1.0238</v>
-    <v>-6.6</v>
-    <v>-9.8420000000000001E-3</v>
+    <v>623.5</v>
+    <v>1.0271999999999999</v>
+    <v>-7</v>
+    <v>-1.0473E-2</v>
     <v>EUR</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2832,24 +2830,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>670.4</v>
+    <v>671.4</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45219.666666666664</v>
+    <v>45226.666666666664</v>
     <v>0</v>
-    <v>659.3</v>
-    <v>336673700000</v>
+    <v>660.1</v>
+    <v>332054800000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>660.6</v>
-    <v>20.9542</v>
-    <v>670.6</v>
-    <v>664</v>
+    <v>666.5</v>
+    <v>20.666699999999999</v>
+    <v>668.4</v>
+    <v>661.4</v>
     <v>502048400</v>
     <v>MC</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
-    <v>427190</v>
-    <v>529390</v>
+    <v>331043</v>
+    <v>354120</v>
     <v>1971</v>
   </rv>
   <rv s="2">
@@ -2859,13 +2857,13 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a2nj52&amp;q=OTCM%3aLVMHF&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="3">
-    <v>5</v>
+  <rv s="1">
+    <v>0</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (OTCM:LVMHF)</v>
     <v>2</v>
-    <v>6</v>
+    <v>5</v>
     <v>Finance</v>
-    <v>7</v>
+    <v>4</v>
     <v>en-US</v>
     <v>a2nj52</v>
     <v>268435456</v>
@@ -2873,11 +2871,9 @@
     <v>Powered by Refinitiv</v>
     <v>1003.5</v>
     <v>605.9</v>
-    <v>1.0238</v>
-    <v>-1.06</v>
-    <v>-1.5070000000000001E-3</v>
-    <v>3.4798</v>
-    <v>4.9529999999999999E-3</v>
+    <v>1.0271999999999999</v>
+    <v>-9.5020000000000007</v>
+    <v>-1.3515999999999999E-2</v>
     <v>USD</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2885,53 +2881,55 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>710.95</v>
+    <v>709.48</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45220.006944444445</v>
+    <v>45226.832383483597</v>
     <v>3</v>
-    <v>699.00009999999997</v>
-    <v>336673700000</v>
+    <v>693</v>
+    <v>332054800000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>699.00009999999997</v>
-    <v>20.150400000000001</v>
-    <v>703.56</v>
-    <v>702.5</v>
-    <v>705.97979999999995</v>
+    <v>698.44</v>
+    <v>19.862200000000001</v>
+    <v>703</v>
+    <v>693.49800000000005</v>
     <v>502048400</v>
     <v>LVMHF</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (OTCM:LVMHF)</v>
-    <v>1781</v>
-    <v>529390</v>
+    <v>3243</v>
+    <v>354120</v>
     <v>1971</v>
   </rv>
   <rv s="2">
     <v>4</v>
   </rv>
-  <rv s="4">
+  <rv s="3">
+    <v>6</v>
+    <v>USD/EUR</v>
+    <v>7</v>
     <v>8</v>
-    <v>USD/EUR</v>
+    <v>Finance</v>
     <v>9</v>
-    <v>10</v>
-    <v>Finance</v>
-    <v>11</v>
     <v>en-US</v>
     <v>avyn9c</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>1.0303</v>
+    <v>1.0276000000000001</v>
     <v>0.88670000000000004</v>
-    <v>-8.9999999999999998E-4</v>
-    <v>-9.526999999999999E-4</v>
+    <v>0</v>
+    <v>0</v>
     <v>EUR</v>
     <v>USD</v>
+    <v>0.94730000000000003</v>
     <v>Currency Pair</v>
-    <v>45219.875</v>
+    <v>45229.30746527778</v>
+    <v>0.94610000000000005</v>
     <v>US Dollar/Euro FX Cross Rate</v>
-    <v>0.94469999999999998</v>
-    <v>0.94379999999999997</v>
+    <v>0.94630000000000003</v>
+    <v>0.94630000000000003</v>
+    <v>0.94630000000000003</v>
     <v>USDEUR</v>
     <v>USD/EUR</v>
   </rv>
@@ -2942,7 +2940,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -3008,60 +3006,16 @@
     <k n="%ProviderInfo" t="s"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
-    <k n="Beta"/>
-    <k n="Change"/>
-    <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
-    <k n="Currency" t="s"/>
-    <k n="Description" t="s"/>
-    <k n="Employees"/>
-    <k n="Exchange" t="s"/>
-    <k n="Exchange abbreviation" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Headquarters" t="s"/>
-    <k n="High"/>
-    <k n="Industry" t="s"/>
-    <k n="Instrument type" t="s"/>
-    <k n="Last trade time"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Low"/>
-    <k n="Market cap"/>
-    <k n="Name" t="s"/>
-    <k n="Official name" t="s"/>
-    <k n="Open"/>
-    <k n="P/E"/>
-    <k n="Previous close"/>
-    <k n="Price"/>
-    <k n="Price (Extended hours)"/>
-    <k n="Shares outstanding"/>
-    <k n="Ticker symbol" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Volume"/>
-    <k n="Volume average"/>
-    <k n="Year incorporated"/>
-  </s>
-  <s t="_linkedentitycore">
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="52 week high"/>
-    <k n="52 week low"/>
     <k n="Change"/>
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
+    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
+    <k n="Low"/>
     <k n="Name" t="s"/>
+    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -3072,7 +3026,7 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="3">
+  <spbArrays count="2">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -3117,54 +3071,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="45">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">_Format</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">_Display</v>
-      <v t="s">Name</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
-      <v t="s">Exchange</v>
-      <v t="s">Official name</v>
-      <v t="s">Last trade time</v>
-      <v t="s">Ticker symbol</v>
-      <v t="s">Exchange abbreviation</v>
-      <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
-      <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
-      <v t="s">Currency</v>
-      <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
-      <v t="s">52 week high</v>
-      <v t="s">52 week low</v>
-      <v t="s">Volume</v>
-      <v t="s">Volume average</v>
-      <v t="s">Market cap</v>
-      <v t="s">Beta</v>
-      <v t="s">P/E</v>
-      <v t="s">Shares outstanding</v>
-      <v t="s">Description</v>
-      <v t="s">Employees</v>
-      <v t="s">Headquarters</v>
-      <v t="s">Industry</v>
-      <v t="s">Instrument type</v>
-      <v t="s">Year incorporated</v>
-      <v t="s">_Flags</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">ExchangeID</v>
-      <v t="s">%ProviderInfo</v>
-    </a>
-    <a count="24">
+    <a count="27">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3182,6 +3089,9 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -3191,7 +3101,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="12">
+  <spbData count="10">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -3236,12 +3146,7 @@
       <v>from previous close</v>
       <v>GMT</v>
     </spb>
-    <spb s="0">
-      <v>1</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="5">
+    <spb s="3">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -3262,29 +3167,20 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>10</v>
-      <v>10</v>
-      <v>5</v>
+    </spb>
+    <spb s="5">
+      <v>1</v>
+      <v>Name</v>
     </spb>
     <spb s="6">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
-    </spb>
-    <spb s="7">
-      <v>2</v>
-      <v>Name</v>
-    </spb>
-    <spb s="8">
       <v>1</v>
       <v>1</v>
     </spb>
-    <spb s="9">
+    <spb s="7">
+      <v>1</v>
+      <v>1</v>
       <v>3</v>
+      <v>1</v>
       <v>1</v>
       <v>1</v>
       <v>5</v>
@@ -3294,7 +3190,7 @@
       <v>7</v>
       <v>9</v>
     </spb>
-    <spb s="10">
+    <spb s="8">
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3302,7 +3198,7 @@
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="11">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="9">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -3348,40 +3244,6 @@
     <k n="Last trade time" t="s"/>
   </s>
   <s>
-    <k n="Low" t="i"/>
-    <k n="P/E" t="i"/>
-    <k n="Beta" t="i"/>
-    <k n="High" t="i"/>
-    <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
-    <k n="Price" t="i"/>
-    <k n="Change" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Employees" t="i"/>
-    <k n="Change (%)" t="i"/>
-    <k n="Market cap" t="i"/>
-    <k n="52 week low" t="i"/>
-    <k n="52 week high" t="i"/>
-    <k n="Previous close" t="i"/>
-    <k n="Volume average" t="i"/>
-    <k n="Last trade time" t="i"/>
-    <k n="Year incorporated" t="i"/>
-    <k n="`%EntityServiceId" t="i"/>
-    <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
-  </s>
-  <s>
-    <k n="Price" t="s"/>
-    <k n="Change" t="s"/>
-    <k n="Change (%)" t="s"/>
-    <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
-  </s>
-  <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
   </s>
@@ -3390,7 +3252,10 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
     <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -3766,10 +3631,10 @@
   <dimension ref="A1:AF119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V115" sqref="V115"/>
+      <selection pane="bottomRight" activeCell="U109" sqref="U109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5193,15 +5058,15 @@
       </c>
       <c r="AD16" s="33">
         <f>AE102/W3</f>
-        <v>4.2517895029298849</v>
+        <v>4.1934582743988686</v>
       </c>
       <c r="AE16" s="33">
         <f>AE102/W28</f>
-        <v>23.904693268957683</v>
+        <v>23.576739562624255</v>
       </c>
       <c r="AF16" s="34">
         <f>AE102/W107</f>
-        <v>26.399568728926528</v>
+        <v>26.037387281423978</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5451,15 +5316,15 @@
       </c>
       <c r="AD19" s="33">
         <f>AE102/X3</f>
-        <v>3.8258375</v>
+        <v>3.7733500000000002</v>
       </c>
       <c r="AE19" s="33">
         <f>AE102/X28</f>
-        <v>20.40075743804157</v>
+        <v>20.12087499242562</v>
       </c>
       <c r="AF19" s="34">
         <f>AE102/X107</f>
-        <v>19.552453684882977</v>
+        <v>19.284209303676171</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5748,11 +5613,11 @@
       </c>
       <c r="AE22" s="42">
         <f>(-1*W98)/AE102</f>
-        <v>1.7895665744012676E-2</v>
+        <v>1.8144595410155191E-2</v>
       </c>
       <c r="AF22" s="36">
         <f>X107/AE102</f>
-        <v>5.1144476090648004E-2</v>
+        <v>5.1855898484226094E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11252,7 +11117,7 @@
       </c>
       <c r="AE95" s="60">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11336,7 +11201,7 @@
       </c>
       <c r="AE96" s="61" cm="1">
         <f t="array" ref="AE96">_FV(A1,"Beta")</f>
-        <v>1.0238</v>
+        <v>1.0271999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11503,7 +11368,7 @@
       </c>
       <c r="AE98" s="58">
         <f>(AE95)+((AE96)*(AE97-AE95))</f>
-        <v>8.4812055999999997E-2</v>
+        <v>8.4966960000000008E-2</v>
       </c>
       <c r="AF98" t="e" vm="2">
         <v>#VALUE!</v>
@@ -11591,7 +11456,7 @@
       <c r="AE99" s="78"/>
       <c r="AF99" s="53" cm="1">
         <f t="array" ref="AF99">_FV(AF98,"Price")</f>
-        <v>702.5</v>
+        <v>693.49800000000005</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11762,11 +11627,11 @@
       </c>
       <c r="AE101" s="58">
         <f>AE100/AE104</f>
-        <v>9.4524308421527967E-2</v>
+        <v>9.5713299099566232E-2</v>
       </c>
       <c r="AF101" s="52" cm="1">
         <f t="array" ref="AF101">_FV(AF100,"Previous close",TRUE)</f>
-        <v>0.94469999999999998</v>
+        <v>0.94630000000000003</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11850,7 +11715,7 @@
       </c>
       <c r="AE102" s="62" cm="1">
         <f t="array" ref="AE102">_FV(A1,"Market cap",TRUE)</f>
-        <v>336673700000</v>
+        <v>332054800000</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11934,7 +11799,7 @@
       </c>
       <c r="AE103" s="58">
         <f>AE102/AE104</f>
-        <v>0.90547569157847207</v>
+        <v>0.90428670090043373</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12020,7 +11885,7 @@
       </c>
       <c r="AE104" s="63">
         <f>AE100+AE102</f>
-        <v>371819700000</v>
+        <v>367200800000</v>
       </c>
     </row>
     <row r="105" spans="1:32" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -12261,7 +12126,7 @@
       </c>
       <c r="AE106" s="64">
         <f>(AE101*AE93)+(AE103*AE98)</f>
-        <v>7.7548768968040957E-2</v>
+        <v>7.7597484058714208E-2</v>
       </c>
     </row>
     <row r="107" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -12369,7 +12234,7 @@
       <c r="AA108" s="74"/>
       <c r="AB108" s="49">
         <f>AB107*(1+AE108)/(AE109-AE108)</f>
-        <v>493970240402.52612</v>
+        <v>493512731731.11829</v>
       </c>
       <c r="AC108" s="50" t="s">
         <v>139</v>
@@ -12400,7 +12265,7 @@
       </c>
       <c r="AB109" s="49">
         <f>AB108+AB107</f>
-        <v>519294658002.52612</v>
+        <v>518837149331.11829</v>
       </c>
       <c r="AC109" s="50" t="s">
         <v>136</v>
@@ -12410,7 +12275,7 @@
       </c>
       <c r="AE109" s="40">
         <f>AE106</f>
-        <v>7.7548768968040957E-2</v>
+        <v>7.7597484058714208E-2</v>
       </c>
     </row>
     <row r="110" spans="1:32" ht="19" x14ac:dyDescent="0.2">
@@ -12431,7 +12296,7 @@
       </c>
       <c r="Y111" s="62">
         <f>NPV(AE109,X109,Y109,Z109,AA109,AB109)</f>
-        <v>425814953048.953</v>
+        <v>425411450669.98279</v>
       </c>
       <c r="Z111" s="45"/>
       <c r="AA111" s="45"/>
@@ -12476,7 +12341,7 @@
       </c>
       <c r="Y114" s="62">
         <f>Y111+Y112-Y113</f>
-        <v>401520953048.953</v>
+        <v>401117450669.98279</v>
       </c>
       <c r="Z114" s="45"/>
       <c r="AA114" s="45"/>
@@ -12506,7 +12371,7 @@
       </c>
       <c r="Y116" s="70">
         <f>Y114/Y115*AF101</f>
-        <v>752.00079278496435</v>
+        <v>752.51743428325801</v>
       </c>
       <c r="Z116" s="45"/>
       <c r="AA116" s="45"/>
@@ -12521,7 +12386,7 @@
       </c>
       <c r="Y117" s="71">
         <f>AF99</f>
-        <v>702.5</v>
+        <v>693.49800000000005</v>
       </c>
       <c r="Z117" s="45"/>
       <c r="AA117" s="45"/>
@@ -12536,7 +12401,7 @@
       </c>
       <c r="Y118" s="72">
         <f>Y116/Y117-1</f>
-        <v>7.0463761971479411E-2</v>
+        <v>8.5103971869072481E-2</v>
       </c>
       <c r="Z118" s="45"/>
       <c r="AA118" s="45"/>

--- a/Consumer/Louis Vuitton Moet Hennessy.xlsx
+++ b/Consumer/Louis Vuitton Moet Hennessy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26A902C-BF36-FA48-B17A-D922BF22BA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5505A525-B999-FF4A-9DE2-D6DD16FEAC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2661,10 +2661,9 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Highest Quality"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
-      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2681,7 +2680,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2692,7 +2691,6 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2819,10 +2817,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>904.6</v>
-    <v>623.5</v>
-    <v>1.0271999999999999</v>
-    <v>-7</v>
-    <v>-1.0473E-2</v>
+    <v>623.6</v>
+    <v>1.0158</v>
+    <v>25.8</v>
+    <v>3.8205000000000003E-2</v>
     <v>EUR</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2830,24 +2828,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>671.4</v>
+    <v>707.3</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45226.666666666664</v>
+    <v>45232.708333333336</v>
     <v>0</v>
-    <v>660.1</v>
-    <v>332054800000</v>
+    <v>683.5</v>
+    <v>339033300000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>666.5</v>
-    <v>20.666699999999999</v>
-    <v>668.4</v>
-    <v>661.4</v>
+    <v>686.1</v>
+    <v>21.9072</v>
+    <v>675.3</v>
+    <v>701.1</v>
     <v>502048400</v>
     <v>MC</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
-    <v>331043</v>
-    <v>354120</v>
+    <v>434576</v>
+    <v>332160</v>
     <v>1971</v>
   </rv>
   <rv s="2">
@@ -2871,9 +2869,9 @@
     <v>Powered by Refinitiv</v>
     <v>1003.5</v>
     <v>605.9</v>
-    <v>1.0271999999999999</v>
-    <v>-9.5020000000000007</v>
-    <v>-1.3515999999999999E-2</v>
+    <v>1.0158</v>
+    <v>30.405999999999999</v>
+    <v>4.2469E-2</v>
     <v>USD</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2881,24 +2879,24 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>709.48</v>
+    <v>752.85</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45226.832383483597</v>
+    <v>45232.8281278125</v>
     <v>3</v>
-    <v>693</v>
-    <v>332054800000</v>
+    <v>739.14</v>
+    <v>339033300000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>698.44</v>
-    <v>19.862200000000001</v>
-    <v>703</v>
-    <v>693.49800000000005</v>
+    <v>739.14</v>
+    <v>21.3764</v>
+    <v>715.96199999999999</v>
+    <v>746.36800000000005</v>
     <v>502048400</v>
     <v>LVMHF</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (OTCM:LVMHF)</v>
-    <v>3243</v>
-    <v>354120</v>
+    <v>3390</v>
+    <v>332160</v>
     <v>1971</v>
   </rv>
   <rv s="2">
@@ -2918,18 +2916,18 @@
     <v>Powered by Refinitiv</v>
     <v>1.0276000000000001</v>
     <v>0.88670000000000004</v>
-    <v>0</v>
-    <v>0</v>
+    <v>-5.0000000000000001E-4</v>
+    <v>-5.3120000000000001E-4</v>
     <v>EUR</v>
     <v>USD</v>
-    <v>0.94730000000000003</v>
+    <v>0.94199999999999995</v>
     <v>Currency Pair</v>
-    <v>45229.30746527778</v>
-    <v>0.94610000000000005</v>
+    <v>45233.29859953704</v>
+    <v>0.9405</v>
     <v>US Dollar/Euro FX Cross Rate</v>
-    <v>0.94630000000000003</v>
-    <v>0.94630000000000003</v>
-    <v>0.94630000000000003</v>
+    <v>0.94120000000000004</v>
+    <v>0.94130000000000003</v>
+    <v>0.94079999999999997</v>
     <v>USDEUR</v>
     <v>USD/EUR</v>
   </rv>
@@ -3631,10 +3629,10 @@
   <dimension ref="A1:AF119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U109" sqref="U109"/>
+      <selection pane="bottomRight" activeCell="Y127" sqref="Y127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5058,15 +5056,15 @@
       </c>
       <c r="AD16" s="33">
         <f>AE102/W3</f>
-        <v>4.1934582743988686</v>
+        <v>4.281588452212568</v>
       </c>
       <c r="AE16" s="33">
         <f>AE102/W28</f>
-        <v>23.576739562624255</v>
+        <v>24.072230900312412</v>
       </c>
       <c r="AF16" s="34">
         <f>AE102/W107</f>
-        <v>26.037387281423978</v>
+        <v>26.584591860738648</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5316,15 +5314,15 @@
       </c>
       <c r="AD19" s="33">
         <f>AE102/X3</f>
-        <v>3.7733500000000002</v>
+        <v>3.8526511363636362</v>
       </c>
       <c r="AE19" s="33">
         <f>AE102/X28</f>
-        <v>20.12087499242562</v>
+        <v>20.543737502272315</v>
       </c>
       <c r="AF19" s="34">
         <f>AE102/X107</f>
-        <v>19.284209303676171</v>
+        <v>19.689488355885938</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5613,11 +5611,11 @@
       </c>
       <c r="AE22" s="42">
         <f>(-1*W98)/AE102</f>
-        <v>1.8144595410155191E-2</v>
+        <v>1.7771115698664408E-2</v>
       </c>
       <c r="AF22" s="36">
         <f>X107/AE102</f>
-        <v>5.1855898484226094E-2</v>
+        <v>5.0788521363535677E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11117,7 +11115,7 @@
       </c>
       <c r="AE95" s="60">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11201,7 +11199,7 @@
       </c>
       <c r="AE96" s="61" cm="1">
         <f t="array" ref="AE96">_FV(A1,"Beta")</f>
-        <v>1.0271999999999999</v>
+        <v>1.0158</v>
       </c>
     </row>
     <row r="97" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11368,7 +11366,7 @@
       </c>
       <c r="AE98" s="58">
         <f>(AE95)+((AE96)*(AE97-AE95))</f>
-        <v>8.4966960000000008E-2</v>
+        <v>8.4556950000000006E-2</v>
       </c>
       <c r="AF98" t="e" vm="2">
         <v>#VALUE!</v>
@@ -11456,7 +11454,7 @@
       <c r="AE99" s="78"/>
       <c r="AF99" s="53" cm="1">
         <f t="array" ref="AF99">_FV(AF98,"Price")</f>
-        <v>693.49800000000005</v>
+        <v>746.36800000000005</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11627,11 +11625,11 @@
       </c>
       <c r="AE101" s="58">
         <f>AE100/AE104</f>
-        <v>9.5713299099566232E-2</v>
+        <v>9.3928231732754858E-2</v>
       </c>
       <c r="AF101" s="52" cm="1">
         <f t="array" ref="AF101">_FV(AF100,"Previous close",TRUE)</f>
-        <v>0.94630000000000003</v>
+        <v>0.94130000000000003</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11715,7 +11713,7 @@
       </c>
       <c r="AE102" s="62" cm="1">
         <f t="array" ref="AE102">_FV(A1,"Market cap",TRUE)</f>
-        <v>332054800000</v>
+        <v>339033300000</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11799,7 +11797,7 @@
       </c>
       <c r="AE103" s="58">
         <f>AE102/AE104</f>
-        <v>0.90428670090043373</v>
+        <v>0.90607176826724511</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11885,7 +11883,7 @@
       </c>
       <c r="AE104" s="63">
         <f>AE100+AE102</f>
-        <v>367200800000</v>
+        <v>374179300000</v>
       </c>
     </row>
     <row r="105" spans="1:32" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -12126,7 +12124,7 @@
       </c>
       <c r="AE106" s="64">
         <f>(AE101*AE93)+(AE103*AE98)</f>
-        <v>7.7597484058714208E-2</v>
+        <v>7.736342740331735E-2</v>
       </c>
     </row>
     <row r="107" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -12234,7 +12232,7 @@
       <c r="AA108" s="74"/>
       <c r="AB108" s="49">
         <f>AB107*(1+AE108)/(AE109-AE108)</f>
-        <v>493512731731.11829</v>
+        <v>495718659515.31519</v>
       </c>
       <c r="AC108" s="50" t="s">
         <v>139</v>
@@ -12265,7 +12263,7 @@
       </c>
       <c r="AB109" s="49">
         <f>AB108+AB107</f>
-        <v>518837149331.11829</v>
+        <v>521043077115.31519</v>
       </c>
       <c r="AC109" s="50" t="s">
         <v>136</v>
@@ -12275,7 +12273,7 @@
       </c>
       <c r="AE109" s="40">
         <f>AE106</f>
-        <v>7.7597484058714208E-2</v>
+        <v>7.736342740331735E-2</v>
       </c>
     </row>
     <row r="110" spans="1:32" ht="19" x14ac:dyDescent="0.2">
@@ -12296,7 +12294,7 @@
       </c>
       <c r="Y111" s="62">
         <f>NPV(AE109,X109,Y109,Z109,AA109,AB109)</f>
-        <v>425411450669.98279</v>
+        <v>427356994844.65607</v>
       </c>
       <c r="Z111" s="45"/>
       <c r="AA111" s="45"/>
@@ -12341,7 +12339,7 @@
       </c>
       <c r="Y114" s="62">
         <f>Y111+Y112-Y113</f>
-        <v>401117450669.98279</v>
+        <v>403062994844.65607</v>
       </c>
       <c r="Z114" s="45"/>
       <c r="AA114" s="45"/>
@@ -12371,7 +12369,7 @@
       </c>
       <c r="Y116" s="70">
         <f>Y114/Y115*AF101</f>
-        <v>752.51743428325801</v>
+        <v>752.17198818869531</v>
       </c>
       <c r="Z116" s="45"/>
       <c r="AA116" s="45"/>
@@ -12386,7 +12384,7 @@
       </c>
       <c r="Y117" s="71">
         <f>AF99</f>
-        <v>693.49800000000005</v>
+        <v>746.36800000000005</v>
       </c>
       <c r="Z117" s="45"/>
       <c r="AA117" s="45"/>
@@ -12401,7 +12399,7 @@
       </c>
       <c r="Y118" s="72">
         <f>Y116/Y117-1</f>
-        <v>8.5103971869072481E-2</v>
+        <v>7.7763089905988902E-3</v>
       </c>
       <c r="Z118" s="45"/>
       <c r="AA118" s="45"/>

--- a/Consumer/Louis Vuitton Moet Hennessy.xlsx
+++ b/Consumer/Louis Vuitton Moet Hennessy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5505A525-B999-FF4A-9DE2-D6DD16FEAC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908056EC-BEDE-D943-880E-FD872146AA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2663,6 +2663,7 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -2680,7 +2681,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2691,6 +2692,7 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2817,10 +2819,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>904.6</v>
-    <v>623.6</v>
-    <v>1.0158</v>
-    <v>25.8</v>
-    <v>3.8205000000000003E-2</v>
+    <v>647.70000000000005</v>
+    <v>1.0165</v>
+    <v>10.9</v>
+    <v>1.5494000000000001E-2</v>
     <v>EUR</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2828,24 +2830,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>707.3</v>
+    <v>718.2</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45232.708333333336</v>
+    <v>45239.708333333336</v>
     <v>0</v>
-    <v>683.5</v>
-    <v>339033300000</v>
+    <v>702.3</v>
+    <v>353191100000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>686.1</v>
-    <v>21.9072</v>
-    <v>675.3</v>
-    <v>701.1</v>
+    <v>705</v>
+    <v>21.982199999999999</v>
+    <v>703.5</v>
+    <v>714.4</v>
     <v>502048400</v>
     <v>MC</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
-    <v>434576</v>
-    <v>332160</v>
+    <v>351238</v>
+    <v>313250</v>
     <v>1971</v>
   </rv>
   <rv s="2">
@@ -2855,23 +2857,25 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a2nj52&amp;q=OTCM%3aLVMHF&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="1">
-    <v>0</v>
+  <rv s="3">
+    <v>5</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (OTCM:LVMHF)</v>
     <v>2</v>
-    <v>5</v>
+    <v>6</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>7</v>
     <v>en-US</v>
     <v>a2nj52</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1003.5</v>
-    <v>605.9</v>
-    <v>1.0158</v>
-    <v>30.405999999999999</v>
-    <v>4.2469E-2</v>
+    <v>650</v>
+    <v>1.0165</v>
+    <v>7</v>
+    <v>9.2840000000000006E-3</v>
+    <v>6.1722999999999999</v>
+    <v>8.1110000000000002E-3</v>
     <v>USD</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -2879,55 +2883,56 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>752.85</v>
+    <v>769</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45232.8281278125</v>
+    <v>45239.930555555555</v>
     <v>3</v>
-    <v>739.14</v>
-    <v>339033300000</v>
+    <v>757.75</v>
+    <v>353191100000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>739.14</v>
-    <v>21.3764</v>
-    <v>715.96199999999999</v>
-    <v>746.36800000000005</v>
+    <v>765.13</v>
+    <v>21.594999999999999</v>
+    <v>754</v>
+    <v>761</v>
+    <v>767.17229999999995</v>
     <v>502048400</v>
     <v>LVMHF</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (OTCM:LVMHF)</v>
-    <v>3390</v>
-    <v>332160</v>
+    <v>521</v>
+    <v>313250</v>
     <v>1971</v>
   </rv>
   <rv s="2">
     <v>4</v>
   </rv>
-  <rv s="3">
-    <v>6</v>
+  <rv s="4">
+    <v>8</v>
     <v>USD/EUR</v>
-    <v>7</v>
-    <v>8</v>
+    <v>9</v>
+    <v>10</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>11</v>
     <v>en-US</v>
     <v>avyn9c</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>1.0276000000000001</v>
+    <v>1.0264</v>
     <v>0.88670000000000004</v>
-    <v>-5.0000000000000001E-4</v>
-    <v>-5.3120000000000001E-4</v>
+    <v>1E-4</v>
+    <v>1.0670000000000001E-4</v>
     <v>EUR</v>
     <v>USD</v>
-    <v>0.94199999999999995</v>
+    <v>0.9375</v>
     <v>Currency Pair</v>
-    <v>45233.29859953704</v>
-    <v>0.9405</v>
+    <v>45239.965763888889</v>
+    <v>0.93720000000000003</v>
     <v>US Dollar/Euro FX Cross Rate</v>
-    <v>0.94120000000000004</v>
-    <v>0.94130000000000003</v>
-    <v>0.94079999999999997</v>
+    <v>0.93740000000000001</v>
+    <v>0.93720000000000003</v>
+    <v>0.93730000000000002</v>
     <v>USDEUR</v>
     <v>USD/EUR</v>
   </rv>
@@ -2938,7 +2943,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -3004,6 +3009,53 @@
     <k n="%ProviderInfo" t="s"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
     <k n="Change"/>
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
@@ -3024,7 +3076,7 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="2">
+  <spbArrays count="3">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -3043,6 +3095,53 @@
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
       <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3099,7 +3198,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="10">
+  <spbData count="12">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -3144,7 +3243,12 @@
       <v>from previous close</v>
       <v>GMT</v>
     </spb>
-    <spb s="3">
+    <spb s="0">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="5">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -3165,16 +3269,28 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
     </spb>
-    <spb s="5">
-      <v>1</v>
+    <spb s="6">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+    <spb s="7">
+      <v>2</v>
       <v>Name</v>
     </spb>
-    <spb s="6">
+    <spb s="8">
       <v>1</v>
       <v>1</v>
     </spb>
-    <spb s="7">
+    <spb s="9">
       <v>1</v>
       <v>1</v>
       <v>3</v>
@@ -3188,7 +3304,7 @@
       <v>7</v>
       <v>9</v>
     </spb>
-    <spb s="8">
+    <spb s="10">
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3196,7 +3312,7 @@
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="9">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="11">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -3240,6 +3356,40 @@
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="^Order" t="spba"/>
@@ -3629,10 +3779,10 @@
   <dimension ref="A1:AF119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y127" sqref="Y127"/>
+      <selection pane="bottomRight" activeCell="Z97" sqref="Z97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5056,15 +5206,15 @@
       </c>
       <c r="AD16" s="33">
         <f>AE102/W3</f>
-        <v>4.281588452212568</v>
+        <v>4.4603846736714488</v>
       </c>
       <c r="AE16" s="33">
         <f>AE102/W28</f>
-        <v>24.072230900312412</v>
+        <v>25.077470888952003</v>
       </c>
       <c r="AF16" s="34">
         <f>AE102/W107</f>
-        <v>26.584591860738648</v>
+        <v>27.694746334195877</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5314,15 +5464,15 @@
       </c>
       <c r="AD19" s="33">
         <f>AE102/X3</f>
-        <v>3.8526511363636362</v>
+        <v>4.0135352272727269</v>
       </c>
       <c r="AE19" s="33">
         <f>AE102/X28</f>
-        <v>20.543737502272315</v>
+        <v>21.401630006665453</v>
       </c>
       <c r="AF19" s="34">
         <f>AE102/X107</f>
-        <v>19.689488355885938</v>
+        <v>20.511707996980078</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5611,11 +5761,11 @@
       </c>
       <c r="AE22" s="42">
         <f>(-1*W98)/AE102</f>
-        <v>1.7771115698664408E-2</v>
+        <v>1.7058753745493586E-2</v>
       </c>
       <c r="AF22" s="36">
         <f>X107/AE102</f>
-        <v>5.0788521363535677E-2</v>
+        <v>4.8752644106830549E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11115,7 +11265,7 @@
       </c>
       <c r="AE95" s="60">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11199,7 +11349,7 @@
       </c>
       <c r="AE96" s="61" cm="1">
         <f t="array" ref="AE96">_FV(A1,"Beta")</f>
-        <v>1.0158</v>
+        <v>1.0165</v>
       </c>
     </row>
     <row r="97" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11366,7 +11516,7 @@
       </c>
       <c r="AE98" s="58">
         <f>(AE95)+((AE96)*(AE97-AE95))</f>
-        <v>8.4556950000000006E-2</v>
+        <v>8.4631785000000001E-2</v>
       </c>
       <c r="AF98" t="e" vm="2">
         <v>#VALUE!</v>
@@ -11454,7 +11604,7 @@
       <c r="AE99" s="78"/>
       <c r="AF99" s="53" cm="1">
         <f t="array" ref="AF99">_FV(AF98,"Price")</f>
-        <v>746.36800000000005</v>
+        <v>761</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11625,11 +11775,11 @@
       </c>
       <c r="AE101" s="58">
         <f>AE100/AE104</f>
-        <v>9.3928231732754858E-2</v>
+        <v>9.0503843181606911E-2</v>
       </c>
       <c r="AF101" s="52" cm="1">
         <f t="array" ref="AF101">_FV(AF100,"Previous close",TRUE)</f>
-        <v>0.94130000000000003</v>
+        <v>0.93720000000000003</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11713,7 +11863,7 @@
       </c>
       <c r="AE102" s="62" cm="1">
         <f t="array" ref="AE102">_FV(A1,"Market cap",TRUE)</f>
-        <v>339033300000</v>
+        <v>353191100000</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11797,7 +11947,7 @@
       </c>
       <c r="AE103" s="58">
         <f>AE102/AE104</f>
-        <v>0.90607176826724511</v>
+        <v>0.90949615681839313</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11883,7 +12033,7 @@
       </c>
       <c r="AE104" s="63">
         <f>AE100+AE102</f>
-        <v>374179300000</v>
+        <v>388337100000</v>
       </c>
     </row>
     <row r="105" spans="1:32" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -12124,7 +12274,7 @@
       </c>
       <c r="AE106" s="64">
         <f>(AE101*AE93)+(AE103*AE98)</f>
-        <v>7.736342740331735E-2</v>
+        <v>7.7693747401555519E-2</v>
       </c>
     </row>
     <row r="107" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -12232,7 +12382,7 @@
       <c r="AA108" s="74"/>
       <c r="AB108" s="49">
         <f>AB107*(1+AE108)/(AE109-AE108)</f>
-        <v>495718659515.31519</v>
+        <v>492611160147.50793</v>
       </c>
       <c r="AC108" s="50" t="s">
         <v>139</v>
@@ -12263,7 +12413,7 @@
       </c>
       <c r="AB109" s="49">
         <f>AB108+AB107</f>
-        <v>521043077115.31519</v>
+        <v>517935577747.50793</v>
       </c>
       <c r="AC109" s="50" t="s">
         <v>136</v>
@@ -12273,7 +12423,7 @@
       </c>
       <c r="AE109" s="40">
         <f>AE106</f>
-        <v>7.736342740331735E-2</v>
+        <v>7.7693747401555519E-2</v>
       </c>
     </row>
     <row r="110" spans="1:32" ht="19" x14ac:dyDescent="0.2">
@@ -12294,7 +12444,7 @@
       </c>
       <c r="Y111" s="62">
         <f>NPV(AE109,X109,Y109,Z109,AA109,AB109)</f>
-        <v>427356994844.65607</v>
+        <v>424616308821.41797</v>
       </c>
       <c r="Z111" s="45"/>
       <c r="AA111" s="45"/>
@@ -12339,7 +12489,7 @@
       </c>
       <c r="Y114" s="62">
         <f>Y111+Y112-Y113</f>
-        <v>403062994844.65607</v>
+        <v>400322308821.41797</v>
       </c>
       <c r="Z114" s="45"/>
       <c r="AA114" s="45"/>
@@ -12369,7 +12519,7 @@
       </c>
       <c r="Y116" s="70">
         <f>Y114/Y115*AF101</f>
-        <v>752.17198818869531</v>
+        <v>743.80354221248956</v>
       </c>
       <c r="Z116" s="45"/>
       <c r="AA116" s="45"/>
@@ -12384,7 +12534,7 @@
       </c>
       <c r="Y117" s="71">
         <f>AF99</f>
-        <v>746.36800000000005</v>
+        <v>761</v>
       </c>
       <c r="Z117" s="45"/>
       <c r="AA117" s="45"/>
@@ -12399,7 +12549,7 @@
       </c>
       <c r="Y118" s="72">
         <f>Y116/Y117-1</f>
-        <v>7.7763089905988902E-3</v>
+        <v>-2.2597185003298881E-2</v>
       </c>
       <c r="Z118" s="45"/>
       <c r="AA118" s="45"/>
@@ -12414,7 +12564,7 @@
       </c>
       <c r="Y119" s="73" t="str">
         <f>IF(Y116&gt;Y117,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
       <c r="Z119" s="45"/>
       <c r="AA119" s="45"/>

--- a/Consumer/Louis Vuitton Moet Hennessy.xlsx
+++ b/Consumer/Louis Vuitton Moet Hennessy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE121A8-9995-8940-B69E-DBCAEF59B943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A56FF9C-C1C1-0547-8BB1-0C91D37C5108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1770,6 +1770,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1789,7 +1791,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1802,6 +1804,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1929,9 +1933,9 @@
     <v>Powered by Refinitiv</v>
     <v>904.6</v>
     <v>655</v>
-    <v>1.0294000000000001</v>
-    <v>-3.5</v>
-    <v>-4.9810000000000002E-3</v>
+    <v>1.0289999999999999</v>
+    <v>23.5</v>
+    <v>3.2840000000000001E-2</v>
     <v>EUR</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -1939,24 +1943,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>705.1</v>
+    <v>745.5</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45261.708333333336</v>
+    <v>45268.708333333336</v>
     <v>0</v>
-    <v>689.2</v>
-    <v>352789400000</v>
+    <v>716.4</v>
+    <v>359265800000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>690</v>
-    <v>21.9572</v>
-    <v>702.7</v>
-    <v>699.2</v>
+    <v>716.4</v>
+    <v>22.360299999999999</v>
+    <v>715.6</v>
+    <v>739.1</v>
     <v>502048400</v>
     <v>MC</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (XPAR:MC)</v>
-    <v>384902</v>
-    <v>371080</v>
+    <v>572988</v>
+    <v>395900</v>
     <v>1971</v>
   </rv>
   <rv s="2">
@@ -1980,9 +1984,9 @@
     <v>Powered by Refinitiv</v>
     <v>1003.5</v>
     <v>690.66</v>
-    <v>1.0294000000000001</v>
-    <v>-4.95</v>
-    <v>-6.4419999999999998E-3</v>
+    <v>1.0289999999999999</v>
+    <v>24.64</v>
+    <v>3.1902E-2</v>
     <v>USD</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE is a France-based luxury group active in six sectors: Wines and Spirits, Fashion and Leather Goods, Perfumes and Cosmetics, Watches and Jewelry, Selective Retailing and Other Activities. Wines and Spirits owns brands, such as Moet &amp; Chandon, Krug, Veuve Clicquot, Hennessy and Chteau d’Yquem, among others. Fashion and Leather Goods owns brands, such as Luis Vuitton, Christian Dior and Givenchy, among others. Perfumes and Cosmetics owns brands, such as Parfums Christian Dior, Parfums Givenchy Guerlain, Benefit Cosmetics, Fresh and Make Up For Ever, among others. Watches and Jewelry owns brands, including TAG Heuer, Hublo, Zenith, Bulgari, Chaumet and Fred, among others. Selective Retailing owns the brands DFS, Miami Cruiseline, Sephora and Le Bon Marche Rive Gauche, among others. Other Activities includes its acquisition of Pedemonte Group, a jewelry producer and the arts brands, such as Les Echos, Royal Van Lent, and Cheval Blanc.</v>
     <v>173492</v>
@@ -1990,24 +1994,24 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>22, avenue Montaigne, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>765.21600000000001</v>
+    <v>803.01</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45262.048611111109</v>
+    <v>45269.048611111109</v>
     <v>3</v>
-    <v>730.20010000000002</v>
-    <v>352789400000</v>
+    <v>781</v>
+    <v>359265800000</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE</v>
-    <v>750</v>
-    <v>22.007400000000001</v>
-    <v>768.4</v>
-    <v>763.45</v>
+    <v>790.85</v>
+    <v>22.120799999999999</v>
+    <v>772.36</v>
+    <v>797</v>
     <v>502048400</v>
     <v>LVMHF</v>
     <v>LVMH Moet Hennessy Louis Vuitton SE (OTCM:LVMHF)</v>
-    <v>1465</v>
-    <v>371080</v>
+    <v>6242</v>
+    <v>395900</v>
     <v>1971</v>
   </rv>
   <rv s="2">
@@ -2624,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S194"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P123" sqref="P123"/>
     </sheetView>
   </sheetViews>
@@ -14011,7 +14015,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14066,7 +14070,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>352789400000</v>
+        <v>359265800000</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>201</v>
@@ -14086,22 +14090,22 @@
         <v>203</v>
       </c>
       <c r="G3" s="35">
-        <f>AVERAGE(Financials!N129:S129)</f>
-        <v>-1.2878520929125818E-3</v>
+        <f>AVERAGE(Financials!K129:O129)</f>
+        <v>-1.310413570007185E-3</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>204</v>
       </c>
       <c r="I3" s="36">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>469342067809.89911</v>
+        <v>467367865057.45367</v>
       </c>
       <c r="J3" s="37" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="38">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>1.8585910016003883E-2</v>
+        <v>1.8250866191549545E-2</v>
       </c>
       <c r="L3" s="39" t="s">
         <v>206</v>
@@ -14139,21 +14143,21 @@
       </c>
       <c r="G4" s="45">
         <f>A5*(1+(5*G3))</f>
-        <v>498815579.58658296</v>
+        <v>498758944.81919801</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="46">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>411562288389.5191</v>
+        <v>409818379286.67767</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="47" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-6.4419999999999998E-3</v>
+        <v>3.1902E-2</v>
       </c>
       <c r="L4" s="48" t="s">
         <v>213</v>
@@ -14198,14 +14202,14 @@
       </c>
       <c r="I5" s="46">
         <f>I4+G5-G6</f>
-        <v>381243388941.5191</v>
+        <v>379499479838.67767</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="50" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>763.45</v>
+        <v>797</v>
       </c>
       <c r="L5" s="51" t="s">
         <v>251</v>
@@ -14225,7 +14229,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="54">
         <f>O20/F10</f>
-        <v>3.7280531749638066</v>
+        <v>3.7964916359332563</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>221</v>
@@ -14253,14 +14257,14 @@
       </c>
       <c r="I6" s="55">
         <f>N25</f>
-        <v>7.3919544133639534E-2</v>
+        <v>7.4126184568075765E-2</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="56">
         <f>(I5/G4)</f>
-        <v>764.29727647539119</v>
+        <v>760.88756659040507</v>
       </c>
       <c r="L6" s="57" t="s">
         <v>252</v>
@@ -14280,14 +14284,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>O20/F12</f>
-        <v>20.328996196842226</v>
+        <v>20.70218969689985</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="60">
         <f>F15/A3</f>
-        <v>5.10219411354196E-2</v>
+        <v>5.0102180613907588E-2</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>227</v>
@@ -14314,7 +14318,7 @@
       </c>
       <c r="K7" s="107">
         <f>K6/K5-1</f>
-        <v>1.1097995617148637E-3</v>
+        <v>-4.5310455971888208E-2</v>
       </c>
       <c r="L7" s="108" t="s">
         <v>230</v>
@@ -14642,7 +14646,7 @@
       </c>
       <c r="O14" s="82">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
@@ -14689,7 +14693,7 @@
       </c>
       <c r="O15" s="89" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0294000000000001</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="P15" s="40"/>
       <c r="Q15" s="40"/>
@@ -14794,7 +14798,7 @@
       </c>
       <c r="O17" s="92">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.5213926000000009E-2</v>
+        <v>8.5240910000000003E-2</v>
       </c>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
@@ -14876,7 +14880,7 @@
       </c>
       <c r="O20" s="98" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>352789400000</v>
+        <v>359265800000</v>
       </c>
       <c r="P20" s="40"/>
       <c r="Q20" s="40"/>
@@ -14906,7 +14910,7 @@
       </c>
       <c r="O21" s="98">
         <f>O19+O20</f>
-        <v>394419790973</v>
+        <v>400896190973</v>
       </c>
       <c r="P21" s="40"/>
       <c r="Q21" s="40"/>
@@ -14934,7 +14938,7 @@
       </c>
       <c r="O22" s="99">
         <f>(O19/O21)</f>
-        <v>0.10554843323227106</v>
+        <v>0.10384331882016751</v>
       </c>
       <c r="P22" s="40"/>
       <c r="Q22" s="40"/>
@@ -14959,7 +14963,7 @@
       </c>
       <c r="O23" s="100">
         <f>O20/O21</f>
-        <v>0.89445156676772897</v>
+        <v>0.89615668117983249</v>
       </c>
       <c r="P23" s="40"/>
       <c r="Q23" s="40"/>
@@ -15003,7 +15007,7 @@
       <c r="M25" s="73"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.3919544133639534E-2</v>
+        <v>7.4126184568075765E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="40"/>
